--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="138">
   <si>
     <t>Doi</t>
   </si>
@@ -683,6 +683,106 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%4, Dong%Xiang%coreGivesNoEmail%4, Gao%Ya-dong%coreGivesNoEmail%4, Yan%You-qin%coreGivesNoEmail%4, Yang%Yi-bin%coreGivesNoEmail%4, Yuan%Ya-dong%coreGivesNoEmail%4, Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
+ People of all ages are susceptible to SARS-CoV-2 infection.
+ No information on severe pediatric patients with COVID-19 has been reported.
+ We aimed to describe the clinical features of severe pediatric patients with COVID-19.
+Methods
+id="Par2"&gt;We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
+Results
+id="Par3"&gt;The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
+ The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
+ Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
+ Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
+ Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
+ Treatment modalities were focused on symptomatic and respiratory support.
+ Two critically ill patients underwent invasive mechanical ventilation.
+ Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
+Conclusions
+id="Par4"&gt;In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
+ Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
+</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,   Hui%Li%NULL%0,   Xiao-Xia%Lu%NULL%0,   Han%Xiao%NULL%0,   Jie%Ren%NULL%0,   Fu-Rong%Zhang%792523496@qq.com%0,   Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
+ People of all ages are susceptible to SARS-CoV-2 infection.
+ No information on severe pediatric patients with COVID-19 has been reported.
+ We aimed to describe the clinical features of severe pediatric patients with COVID-19.
+Methods
+We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
+Results
+id="Par3"&gt;The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
+ The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
+ Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
+ Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
+ Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
+ Treatment modalities were focused on symptomatic and respiratory support.
+ Two critically ill patients underwent invasive mechanical ventilation.
+ Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
+Conclusions
+id="Par4"&gt;In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
+ Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
+</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,    Hui%Li%NULL%0,    Xiao-Xia%Lu%NULL%0,    Han%Xiao%NULL%0,    Jie%Ren%NULL%0,    Fu-Rong%Zhang%792523496@qq.com%0,    Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
+ People of all ages are susceptible to SARS-CoV-2 infection.
+ No information on severe pediatric patients with COVID-19 has been reported.
+ We aimed to describe the clinical features of severe pediatric patients with COVID-19.
+Methods
+We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
+Results
+The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
+ The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
+ Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
+ Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
+ Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
+ Treatment modalities were focused on symptomatic and respiratory support.
+ Two critically ill patients underwent invasive mechanical ventilation.
+ Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
+Conclusions
+id="Par4"&gt;In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
+ Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
+</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,     Hui%Li%NULL%0,     Xiao-Xia%Lu%NULL%0,     Han%Xiao%NULL%0,     Jie%Ren%NULL%0,     Fu-Rong%Zhang%792523496@qq.com%0,     Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
+ People of all ages are susceptible to SARS-CoV-2 infection.
+ No information on severe pediatric patients with COVID-19 has been reported.
+ We aimed to describe the clinical features of severe pediatric patients with COVID-19.
+Methods
+We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
+Results
+The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
+ The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
+ Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
+ Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
+ Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
+ Treatment modalities were focused on symptomatic and respiratory support.
+ Two critically ill patients underwent invasive mechanical ventilation.
+ Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
+Conclusions
+In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
+ Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
+</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,      Hui%Li%NULL%0,      Xiao-Xia%Lu%NULL%0,      Han%Xiao%NULL%0,      Jie%Ren%NULL%0,      Fu-Rong%Zhang%792523496@qq.com%0,      Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1546,10 @@
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="130">
   <si>
     <t>Doi</t>
   </si>
@@ -683,106 +683,6 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%4, Dong%Xiang%coreGivesNoEmail%4, Gao%Ya-dong%coreGivesNoEmail%4, Yan%You-qin%coreGivesNoEmail%4, Yang%Yi-bin%coreGivesNoEmail%4, Yuan%Ya-dong%coreGivesNoEmail%4, Zhang%Jin-jin%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
- People of all ages are susceptible to SARS-CoV-2 infection.
- No information on severe pediatric patients with COVID-19 has been reported.
- We aimed to describe the clinical features of severe pediatric patients with COVID-19.
-Methods
-id="Par2"&gt;We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
-Results
-id="Par3"&gt;The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
- The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
- Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
- Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
- Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
- Treatment modalities were focused on symptomatic and respiratory support.
- Two critically ill patients underwent invasive mechanical ventilation.
- Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
-Conclusions
-id="Par4"&gt;In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
- Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
-</t>
-  </si>
-  <si>
-    <t>[Dan%Sun%NULL%0,   Hui%Li%NULL%0,   Xiao-Xia%Lu%NULL%0,   Han%Xiao%NULL%0,   Jie%Ren%NULL%0,   Fu-Rong%Zhang%792523496@qq.com%0,   Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
- People of all ages are susceptible to SARS-CoV-2 infection.
- No information on severe pediatric patients with COVID-19 has been reported.
- We aimed to describe the clinical features of severe pediatric patients with COVID-19.
-Methods
-We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
-Results
-id="Par3"&gt;The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
- The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
- Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
- Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
- Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
- Treatment modalities were focused on symptomatic and respiratory support.
- Two critically ill patients underwent invasive mechanical ventilation.
- Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
-Conclusions
-id="Par4"&gt;In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
- Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
-</t>
-  </si>
-  <si>
-    <t>[Dan%Sun%NULL%0,    Hui%Li%NULL%0,    Xiao-Xia%Lu%NULL%0,    Han%Xiao%NULL%0,    Jie%Ren%NULL%0,    Fu-Rong%Zhang%792523496@qq.com%0,    Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
- People of all ages are susceptible to SARS-CoV-2 infection.
- No information on severe pediatric patients with COVID-19 has been reported.
- We aimed to describe the clinical features of severe pediatric patients with COVID-19.
-Methods
-We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
-Results
-The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
- The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
- Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
- Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
- Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
- Treatment modalities were focused on symptomatic and respiratory support.
- Two critically ill patients underwent invasive mechanical ventilation.
- Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
-Conclusions
-id="Par4"&gt;In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
- Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
-</t>
-  </si>
-  <si>
-    <t>[Dan%Sun%NULL%0,     Hui%Li%NULL%0,     Xiao-Xia%Lu%NULL%0,     Han%Xiao%NULL%0,     Jie%Ren%NULL%0,     Fu-Rong%Zhang%792523496@qq.com%0,     Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
- People of all ages are susceptible to SARS-CoV-2 infection.
- No information on severe pediatric patients with COVID-19 has been reported.
- We aimed to describe the clinical features of severe pediatric patients with COVID-19.
-Methods
-We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
-Results
-The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
- The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
- Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
- Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
- Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
- Treatment modalities were focused on symptomatic and respiratory support.
- Two critically ill patients underwent invasive mechanical ventilation.
- Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
-Conclusions
-In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
- Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
-</t>
-  </si>
-  <si>
-    <t>[Dan%Sun%NULL%0,      Hui%Li%NULL%0,      Xiao-Xia%Lu%NULL%0,      Han%Xiao%NULL%0,      Jie%Ren%NULL%0,      Fu-Rong%Zhang%792523496@qq.com%0,      Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
   </si>
 </sst>
 </file>
@@ -1546,10 +1446,10 @@
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="151">
   <si>
     <t>Doi</t>
   </si>
@@ -683,6 +683,69 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%4, Dong%Xiang%coreGivesNoEmail%4, Gao%Ya-dong%coreGivesNoEmail%4, Yan%You-qin%coreGivesNoEmail%4, Yang%Yi-bin%coreGivesNoEmail%4, Yuan%Ya-dong%coreGivesNoEmail%4, Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,  Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,   Dengju%Li%NULL%0,   Xiong%Wang%NULL%0,   Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,   Yun%Ling%NULL%0,   Yi‐hui‐zhi%Zhang%NULL%1,   Li‐ya%Wei%NULL%1,   Xiao%Chen%NULL%1,   Xu‐mian%Li%NULL%1,   Xuan‐yong%Liu%NULL%1,   Han‐mian%Liu%NULL%1,   Zhi%Guo%guozhi77@126.com%1,   Hua%Ren%renhua2009@hotmail.com%2,   Hua%Ren%renhua2009@hotmail.com%0,   Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,   Kun%Yang%NULL%4,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%4,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%4,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%4,   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,   Yang%Yang%NULL%0,   Cong%Zhang%NULL%0,   Fengming%Huang%NULL%0,   Fuxiang%Wang%NULL%0,   Jing%Yuan%NULL%0,   Zhaoqin%Wang%NULL%0,   Jinxiu%Li%NULL%0,   Jianming%Li%NULL%0,   Cheng%Feng%NULL%0,   Zheng%Zhang%NULL%0,   Lifei%Wang%NULL%0,   Ling%Peng%NULL%0,   Li%Chen%NULL%0,   Yuhao%Qin%NULL%0,   Dandan%Zhao%NULL%0,   Shuguang%Tan%NULL%0,   Lu%Yin%NULL%0,   Jun%Xu%NULL%0,   Congzhao%Zhou%NULL%0,   Chengyu%Jiang%jiang@pumc.edu.cn%0,   Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,   Tuantuan%Li%NULL%1,   Mingfeng%Han%NULL%0,   Xiuyong%Li%NULL%1,   Dong%Wu%NULL%1,   Yuanhong%Xu%NULL%1,   Yulin%Zhu%NULL%1,   Yan%Liu%NULL%1,   Xiaowu%Wang%wangxiaowu19880218@126.com%1,   Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,   Jiong%Wu%NULL%1,   Faqi%Wu%NULL%1,   Dajing%Guo%NULL%1,   Linli%Chen%NULL%1,   Zheng%Fang%NULL%1,   Chuanming%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,   Zhao-Wu%Tao%NULL%3,   Lei%Wang%NULL%3,   Ming-Li%Yuan%NULL%0,   Kui%Liu%NULL%0,   Ling%Zhou%NULL%0,   Shuang%Wei%NULL%0,   Yan%Deng%NULL%0,   Jing%Liu%NULL%5,   Hui-Guo%Liu%NULL%0,   Ming%Yang%NULL%4,   Yi%Hu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%2,   Luoqi%Zhou%NULL%1,   Ziwei%Hu%NULL%1,   Shuoqi%Zhang%NULL%1,   Sheng%Yang%NULL%1,   Yu%Tao%NULL%0,   Cuihong%Xie%NULL%0,   Ke%Ma%NULL%0,   Ke%Shang%NULL%1,   Wei%Wang%NULL%0,   Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,   Hui%Li%NULL%0,   Xiao-Xia%Lu%NULL%1,   Han%Xiao%NULL%0,   Jie%Ren%NULL%1,   Fu-Rong%Zhang%792523496@qq.com%1,   Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,   Bohan%Yang%NULL%0,   Qianwen%Li%NULL%0,   Lu%Wen%NULL%0,   Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%5,  Cao%Yi-yuan%coreGivesNoEmail%4,  Dong%Xiang%coreGivesNoEmail%4,  Gao%Ya-dong%coreGivesNoEmail%4,  Yan%You-qin%coreGivesNoEmail%4,  Yang%Yi-bin%coreGivesNoEmail%4,  Yuan%Ya-dong%coreGivesNoEmail%4,  Zhang%Jin-jin%coreGivesNoEmail%4]</t>
   </si>
 </sst>
 </file>
@@ -1044,6 +1107,9 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1070,6 +1136,9 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1085,7 +1154,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -1095,6 +1164,9 @@
       </c>
       <c r="H3" t="s">
         <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -1111,16 +1183,19 @@
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1137,7 +1212,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -1147,6 +1222,9 @@
       </c>
       <c r="H5" t="s">
         <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6">
@@ -1163,7 +1241,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -1173,6 +1251,9 @@
       </c>
       <c r="H6" t="s">
         <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -1189,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -1199,6 +1280,9 @@
       </c>
       <c r="H7" t="s">
         <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -1215,7 +1299,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -1225,6 +1309,9 @@
       </c>
       <c r="H8" t="s">
         <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1241,7 +1328,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
@@ -1251,6 +1338,9 @@
       </c>
       <c r="H9" t="s">
         <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10">
@@ -1278,6 +1368,9 @@
       <c r="H10" t="s">
         <v>67</v>
       </c>
+      <c r="I10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1293,7 +1386,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1303,6 +1396,9 @@
       </c>
       <c r="H11" t="s">
         <v>72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -1319,7 +1415,7 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1329,6 +1425,9 @@
       </c>
       <c r="H12" t="s">
         <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -1356,6 +1455,9 @@
       <c r="H13" t="s">
         <v>35</v>
       </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1371,7 +1473,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
@@ -1381,6 +1483,9 @@
       </c>
       <c r="H14" t="s">
         <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1397,7 +1502,7 @@
         <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
         <v>85</v>
@@ -1407,6 +1512,9 @@
       </c>
       <c r="H15" t="s">
         <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -1423,7 +1531,7 @@
         <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
         <v>89</v>
@@ -1433,6 +1541,9 @@
       </c>
       <c r="H16" t="s">
         <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -1449,7 +1560,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
@@ -1459,6 +1570,9 @@
       </c>
       <c r="H17" t="s">
         <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="18">
@@ -1475,7 +1589,7 @@
         <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -1485,6 +1599,9 @@
       </c>
       <c r="H18" t="s">
         <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19">
@@ -1501,7 +1618,7 @@
         <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
         <v>103</v>
@@ -1511,6 +1628,9 @@
       </c>
       <c r="H19" t="s">
         <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1538,6 +1658,9 @@
       <c r="H20" t="s">
         <v>35</v>
       </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -1553,7 +1676,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
         <v>107</v>
@@ -1563,6 +1686,9 @@
       </c>
       <c r="H21" t="s">
         <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22">
@@ -1579,16 +1705,19 @@
         <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33FCBE-6F3D-4986-AFA3-EF9B3CB77A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="187">
   <si>
     <t>Doi</t>
   </si>
@@ -146,9 +153,6 @@
 </t>
   </si>
   <si>
-    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7270627</t>
   </si>
   <si>
@@ -170,9 +174,6 @@
 Conclusions
 The present study shows that abnormal coagulation results, especially markedly elevated D‐dimer and FDP are common in deaths with NCP.
 </t>
-  </si>
-  <si>
-    <t>[Ning%Tang%NULL%0, Dengju%Li%NULL%1, Xiong%Wang%NULL%0, Ziyong%Sun%NULL%0]</t>
   </si>
   <si>
     <t>PMC7166509</t>
@@ -202,9 +203,6 @@
  The PLR of patients means the degree of cytokine storm, which might provide a new indicator in the monitoring in patients with COVID‐19.</t>
   </si>
   <si>
-    <t>[Rong%Qu%NULL%1, Yun%Ling%NULL%1, Yi‐hui‐zhi%Zhang%NULL%1, Li‐ya%Wei%NULL%1, Xiao%Chen%NULL%1, Xu‐mian%Li%NULL%1, Xuan‐yong%Liu%NULL%1, Han‐mian%Liu%NULL%1, Zhi%Guo%guozhi77@126.com%1, Hua%Ren%renhua2009@hotmail.com%2, Hua%Ren%renhua2009@hotmail.com%0, Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
-  </si>
-  <si>
     <t>PMC7228291</t>
   </si>
   <si>
@@ -215,9 +213,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[Qiurong%Ruan%NULL%0, Kun%Yang%NULL%0, Kun%Yang%NULL%0, Wenxia%Wang%NULL%0, Wenxia%Wang%NULL%0, Lingyu%Jiang%NULL%0, Lingyu%Jiang%NULL%0, Jianxin%Song%songsingsjx@sina.com%0, Jianxin%Song%songsingsjx@sina.com%0]</t>
   </si>
   <si>
     <t>PMC7131986</t>
@@ -256,9 +251,6 @@
 </t>
   </si>
   <si>
-    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%1, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%1, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%1, Ting%Yu%NULL%0, Jiaan%Xia%NULL%1, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%1, Xuelei%Xie%NULL%1, Wen%Yin%NULL%1, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%1, Hong%Gao%NULL%1, Li%Guo%NULL%1, Jungang%Xie%NULL%1, Guangfa%Wang%NULL%1, Rongmeng%Jiang%NULL%1, Zhancheng%Gao%NULL%1, Qi%Jin%NULL%1, Jianwei%Wang%wangjw28@163.com%1, Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
     <t>PMC7159299</t>
   </si>
   <si>
@@ -268,9 +260,6 @@
     <t xml:space="preserve">Electronic Supplementary Material
 Supplementary material is available for this article at 10.1007/s11427-020-1643-8 and is accessible for authorized users.
 </t>
-  </si>
-  <si>
-    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0, Yang%Yang%NULL%1, Cong%Zhang%NULL%1, Fengming%Huang%NULL%1, Fuxiang%Wang%NULL%1, Jing%Yuan%NULL%1, Zhaoqin%Wang%NULL%1, Jinxiu%Li%NULL%1, Jianming%Li%NULL%1, Cheng%Feng%NULL%1, Zheng%Zhang%NULL%1, Lifei%Wang%NULL%1, Ling%Peng%NULL%1, Li%Chen%NULL%1, Yuhao%Qin%NULL%1, Dandan%Zhao%NULL%1, Shuguang%Tan%NULL%1, Lu%Yin%NULL%1, Jun%Xu%NULL%1, Congzhao%Zhou%NULL%1, Chengyu%Jiang%jiang@pumc.edu.cn%1, Lei%Liu%liulei3322@aliyun.com%0]</t>
   </si>
   <si>
     <t>PMC7088566</t>
@@ -303,9 +292,6 @@
  The area under the ROC curve of IL‐6 combined with d‐D was 0.840. The specificity of predicting the severity of COVID‐19 during IL‐6 and d‐D tandem testing was up to 93.3%, while the sensitivity of IL‐6 and d‐D by parallel test in the severe COVID‐19 was 96.4%.
  IL‐6 and d‐D were closely related to the occurrence of severe COVID‐19 in the adult patients, and their combined detection had the highest specificity and sensitivity for early prediction of the severity of COVID‐19 patients, which has important clinical value.
 </t>
-  </si>
-  <si>
-    <t>[Yong%Gao%NULL%0, Tuantuan%Li%NULL%1, Mingfeng%Han%NULL%1, Xiuyong%Li%NULL%1, Dong%Wu%NULL%1, Yuanhong%Xu%NULL%1, Yulin%Zhu%NULL%1, Yan%Liu%NULL%1, Xiaowu%Wang%wangxiaowu19880218@126.com%1, Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
   </si>
   <si>
     <t>PMC7228247</t>
@@ -340,9 +326,6 @@
 </t>
   </si>
   <si>
-    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%2, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%1, Chun-quan%Ou%NULL%1, Jian-xing%He%NULL%1, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%1, David S.C.%Hui%NULL%1, Bin%Du%NULL%1, Lan-juan%Li%NULL%1, Guang%Zeng%NULL%1, Kwok-Yung%Yuen%NULL%1, Ru-chong%Chen%NULL%1, Chun-li%Tang%NULL%1, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%1, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%1, Jin-lin%Wang%NULL%1, Zi-jing%Liang%NULL%1, Yi-xiang%Peng%NULL%1, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%1, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%1, Ji-yang%Liu%NULL%1, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%1, Shao-qin%Qiu%NULL%1, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%1, Shao-yong%Zhu%NULL%1, Nan-shan%Zhong%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7092819</t>
   </si>
   <si>
@@ -367,9 +350,6 @@
 There are significant differences in clinical symptoms, laboratory examinations, and CT manifestations between the ordinary patients and the severe/critical patients.
  Many factors are related to the severity of the disease, which can help clinicians to judge the severity of the patient and evaluate the prognosis.
 </t>
-  </si>
-  <si>
-    <t>[Kunhua%Li%NULL%0, Jiong%Wu%NULL%0, Faqi%Wu%NULL%1, Dajing%Guo%NULL%1, Linli%Chen%NULL%1, Zheng%Fang%NULL%1, Chuanming%Li%NULL%1]</t>
   </si>
   <si>
     <t>PMC7147273</t>
@@ -416,9 +396,6 @@
 </t>
   </si>
   <si>
-    <t>[Wei%Liu%NULL%0, Zhao-Wu%Tao%NULL%1, Lei%Wang%NULL%0, Ming-Li%Yuan%NULL%1, Kui%Liu%NULL%0, Ling%Zhou%NULL%0, Shuang%Wei%NULL%0, Yan%Deng%NULL%0, Jing%Liu%NULL%0, Hui-Guo%Liu%NULL%0, Ming%Yang%NULL%1, Yi%Hu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7147279</t>
   </si>
   <si>
@@ -444,9 +421,6 @@
 The novel coronavirus might mainly act on lymphocytes, especially T lymphocytes.
  Surveillance of NLR and lymphocyte subsets is helpful in the early screening of critical illness, diagnosis and treatment of COVID-19.
 </t>
-  </si>
-  <si>
-    <t>[Chuan%Qin%NULL%1, Luoqi%Zhou%NULL%1, Ziwei%Hu%NULL%1, Shuoqi%Zhang%NULL%1, Sheng%Yang%NULL%1, Yu%Tao%NULL%0, Cuihong%Xie%NULL%1, Ke%Ma%NULL%0, Ke%Shang%NULL%1, Wei%Wang%NULL%1, Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
   </si>
   <si>
     <t>PMC7108125</t>
@@ -477,9 +451,6 @@
 </t>
   </si>
   <si>
-    <t>[Dan%Sun%NULL%0, Hui%Li%NULL%0, Xiao-Xia%Lu%NULL%1, Han%Xiao%NULL%0, Jie%Ren%NULL%1, Fu-Rong%Zhang%792523496@qq.com%1, Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
-  </si>
-  <si>
     <t>PMC7091225</t>
   </si>
   <si>
@@ -505,9 +476,6 @@
  This study demonstrates the clinic features and therapies of 135 COVID‐19 patients.
  Kaletra and TCM played an important role in the treatment of the viral pneumonia.
  Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%1, Wei%Fang%NULL%1, Yu%Zheng%yuzheng1@cdutcm.edu.cn%1, Boqun%Li%279685211@qq.com%2, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%1, Chunhui%Lang%NULL%1, Daoqiu%Huang%NULL%1, Qiuyan%Sun%NULL%1, Yan%Xiong%NULL%1, Xia%Huang%NULL%1, Jinglong%Lv%NULL%1, Yaling%Luo%NULL%1, Li%Shen%NULL%1, Haoran%Yang%NULL%1, Gu%Huang%NULL%1, Ruishan%Yang%NULL%1]</t>
   </si>
   <si>
     <t>PMC7228368</t>
@@ -537,9 +505,6 @@
 COVID-19 appears to show frequent fever, dry cough, and increase of inflammatory cytokines, and induced a mortality rate of 7.5%.
  Older patients or those with underlying comorbidities are at higher risk of death.
 </t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%1, Qianwen%Li%NULL%1, Lu%Wen%NULL%1, Ruiguang%Zhang%zrg27@163.com%1]</t>
   </si>
   <si>
     <t>PMC7184452</t>
@@ -574,13 +539,7 @@
 </t>
   </si>
   <si>
-    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%1, Jia'an%Xia%NULL%1, Hong%Liu%NULL%1, Yongran%Wu%NULL%0, Lu%Zhang%NULL%1, Zhui%Yu%NULL%1, Minghao%Fang%NULL%1, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%1, Xiaojing%Zou%NULL%1, Shiying%Yuan%NULL%1, You%Shang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7102538</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
   </si>
   <si>
     <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
@@ -609,54 +568,6 @@
  Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
   </si>
   <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0, Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[Ning%Tang%NULL%0,  Dengju%Li%NULL%0,  Xiong%Wang%NULL%0,  Ziyong%Sun%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rong%Qu%NULL%1,  Yun%Ling%NULL%0,  Yi‐hui‐zhi%Zhang%NULL%1,  Li‐ya%Wei%NULL%1,  Xiao%Chen%NULL%1,  Xu‐mian%Li%NULL%1,  Xuan‐yong%Liu%NULL%1,  Han‐mian%Liu%NULL%1,  Zhi%Guo%guozhi77@126.com%1,  Hua%Ren%renhua2009@hotmail.com%2,  Hua%Ren%renhua2009@hotmail.com%0,  Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Qiurong%Ruan%NULL%0,  Kun%Yang%NULL%0,  Kun%Yang%NULL%0,  Wenxia%Wang%NULL%0,  Wenxia%Wang%NULL%0,  Lingyu%Jiang%NULL%0,  Lingyu%Jiang%NULL%0,  Jianxin%Song%songsingsjx@sina.com%0,  Jianxin%Song%songsingsjx@sina.com%0]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,  Yeming%Wang%NULL%0,  Xingwang%Li%NULL%0,  Lili%Ren%NULL%0,  Jianping%Zhao%NULL%0,  Yi%Hu%NULL%0,  Li%Zhang%NULL%0,  Guohui%Fan%NULL%0,  Jiuyang%Xu%NULL%0,  Xiaoying%Gu%NULL%0,  Zhenshun%Cheng%NULL%0,  Ting%Yu%NULL%0,  Jiaan%Xia%NULL%0,  Yuan%Wei%NULL%0,  Wenjuan%Wu%NULL%0,  Xuelei%Xie%NULL%0,  Wen%Yin%NULL%0,  Hui%Li%NULL%0,  Min%Liu%NULL%0,  Yan%Xiao%NULL%0,  Hong%Gao%NULL%0,  Li%Guo%NULL%0,  Jungang%Xie%NULL%0,  Guangfa%Wang%NULL%0,  Rongmeng%Jiang%NULL%0,  Zhancheng%Gao%NULL%0,  Qi%Jin%NULL%0,  Jianwei%Wang%wangjw28@163.com%0,  Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,  Yang%Yang%NULL%0,  Cong%Zhang%NULL%0,  Fengming%Huang%NULL%0,  Fuxiang%Wang%NULL%0,  Jing%Yuan%NULL%0,  Zhaoqin%Wang%NULL%0,  Jinxiu%Li%NULL%0,  Jianming%Li%NULL%0,  Cheng%Feng%NULL%0,  Zheng%Zhang%NULL%0,  Lifei%Wang%NULL%0,  Ling%Peng%NULL%0,  Li%Chen%NULL%0,  Yuhao%Qin%NULL%0,  Dandan%Zhao%NULL%0,  Shuguang%Tan%NULL%0,  Lu%Yin%NULL%0,  Jun%Xu%NULL%0,  Congzhao%Zhou%NULL%0,  Chengyu%Jiang%jiang@pumc.edu.cn%0,  Lei%Liu%liulei3322@aliyun.com%0]</t>
-  </si>
-  <si>
-    <t>[Yong%Gao%NULL%0,  Tuantuan%Li%NULL%2,  Mingfeng%Han%NULL%0,  Xiuyong%Li%NULL%2,  Dong%Wu%NULL%2,  Yuanhong%Xu%NULL%4,  Yulin%Zhu%NULL%2,  Yan%Liu%NULL%3,  Xiaowu%Wang%wangxiaowu19880218@126.com%2,  Linding%Wang%wanglinding@ahmu.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,  Zheng-yi%Ni%NULL%0,  Zheng-yi%Ni%NULL%0,  Yu%Hu%NULL%0,  Wen-hua%Liang%NULL%0,  Chun-quan%Ou%NULL%0,  Jian-xing%He%NULL%0,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chun-liang%Lei%NULL%0,  David S.C.%Hui%NULL%0,  Bin%Du%NULL%0,  Lan-juan%Li%NULL%0,  Guang%Zeng%NULL%0,  Kwok-Yung%Yuen%NULL%0,  Ru-chong%Chen%NULL%0,  Chun-li%Tang%NULL%0,  Tao%Wang%NULL%0,  Ping-yan%Chen%NULL%0,  Jie%Xiang%NULL%0,  Shi-yue%Li%NULL%0,  Jin-lin%Wang%NULL%0,  Zi-jing%Liang%NULL%0,  Yi-xiang%Peng%NULL%0,  Li%Wei%NULL%0,  Yong%Liu%NULL%0,  Ya-hua%Hu%NULL%0,  Peng%Peng%NULL%0,  Jian-ming%Wang%NULL%0,  Ji-yang%Liu%NULL%0,  Zhong%Chen%NULL%0,  Gang%Li%NULL%0,  Zhi-jian%Zheng%NULL%0,  Shao-qin%Qiu%NULL%0,  Jie%Luo%NULL%0,  Chang-jiang%Ye%NULL%0,  Shao-yong%Zhu%NULL%0,  Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Kunhua%Li%NULL%0,  Jiong%Wu%NULL%2,  Faqi%Wu%NULL%2,  Dajing%Guo%NULL%2,  Linli%Chen%NULL%2,  Zheng%Fang%NULL%2,  Chuanming%Li%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,  Zhao-Wu%Tao%NULL%3,  Lei%Wang%NULL%4,  Ming-Li%Yuan%NULL%0,  Kui%Liu%NULL%0,  Ling%Zhou%NULL%0,  Shuang%Wei%NULL%0,  Yan%Deng%NULL%0,  Jing%Liu%NULL%6,  Hui-Guo%Liu%NULL%0,  Ming%Yang%NULL%0,  Yi%Hu%NULL%0,  Pei-Fang%Wei%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chuan%Qin%NULL%2,  Luoqi%Zhou%NULL%2,  Ziwei%Hu%NULL%2,  Shuoqi%Zhang%NULL%2,  Sheng%Yang%NULL%2,  Yu%Tao%NULL%0,  Cuihong%Xie%NULL%0,  Ke%Ma%NULL%0,  Ke%Shang%NULL%2,  Wei%Wang%NULL%0,  Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Dan%Sun%NULL%0,  Hui%Li%NULL%0,  Xiao-Xia%Lu%NULL%0,  Han%Xiao%NULL%0,  Jie%Ren%NULL%0,  Fu-Rong%Zhang%792523496@qq.com%0,  Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,  Yi%Xiang%NULL%0,  Wei%Fang%NULL%0,  Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,  Boqun%Li%279685211@qq.com%0,  Boqun%Li%279685211@qq.com%0,  Yanjun%Hu%huyanjun@163.com%0,  Chunhui%Lang%NULL%0,  Daoqiu%Huang%NULL%0,  Qiuyan%Sun%NULL%0,  Yan%Xiong%NULL%0,  Xia%Huang%NULL%0,  Jinglong%Lv%NULL%0,  Yaling%Luo%NULL%0,  Li%Shen%NULL%0,  Haoran%Yang%NULL%0,  Gu%Huang%NULL%0,  Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,  Bohan%Yang%NULL%0,  Qianwen%Li%NULL%0,  Lu%Wen%NULL%0,  Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,  Yuan%Yu%NULL%0,  Jiqian%Xu%NULL%0,  Huaqing%Shu%NULL%0,  Jia'an%Xia%NULL%0,  Hong%Liu%NULL%0,  Yongran%Wu%NULL%0,  Lu%Zhang%NULL%0,  Zhui%Yu%NULL%0,  Minghao%Fang%NULL%0,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%0,  Shangwen%Pan%NULL%0,  Xiaojing%Zou%NULL%0,  Shiying%Yuan%NULL%0,  You%Shang%NULL%0]</t>
-  </si>
-  <si>
     <t>Clinical characteristics of 140 patients infected with SARS\u2010CoV\u20102 in Wuhan, China</t>
   </si>
   <si>
@@ -682,116 +593,325 @@
  Older age, high number of comorbidities, and more prominent laboratory abnormalities were associated with severe patients</t>
   </si>
   <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%4, Dong%Xiang%coreGivesNoEmail%4, Gao%Ya-dong%coreGivesNoEmail%4, Yan%You-qin%coreGivesNoEmail%4, Yang%Yi-bin%coreGivesNoEmail%4, Yuan%Ya-dong%coreGivesNoEmail%4, Zhang%Jin-jin%coreGivesNoEmail%4]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%3,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%3,  Subert-Salas%Lizandra%coreGivesNoEmail%3]</t>
-  </si>
-  <si>
-    <t>[Ning%Tang%NULL%0,   Dengju%Li%NULL%0,   Xiong%Wang%NULL%0,   Ziyong%Sun%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rong%Qu%NULL%1,   Yun%Ling%NULL%0,   Yi‐hui‐zhi%Zhang%NULL%1,   Li‐ya%Wei%NULL%1,   Xiao%Chen%NULL%1,   Xu‐mian%Li%NULL%1,   Xuan‐yong%Liu%NULL%1,   Han‐mian%Liu%NULL%1,   Zhi%Guo%guozhi77@126.com%1,   Hua%Ren%renhua2009@hotmail.com%2,   Hua%Ren%renhua2009@hotmail.com%0,   Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[Qiurong%Ruan%NULL%0,   Kun%Yang%NULL%4,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%4,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%4,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%4,   Jianxin%Song%songsingsjx@sina.com%0]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,   Yang%Yang%NULL%0,   Cong%Zhang%NULL%0,   Fengming%Huang%NULL%0,   Fuxiang%Wang%NULL%0,   Jing%Yuan%NULL%0,   Zhaoqin%Wang%NULL%0,   Jinxiu%Li%NULL%0,   Jianming%Li%NULL%0,   Cheng%Feng%NULL%0,   Zheng%Zhang%NULL%0,   Lifei%Wang%NULL%0,   Ling%Peng%NULL%0,   Li%Chen%NULL%0,   Yuhao%Qin%NULL%0,   Dandan%Zhao%NULL%0,   Shuguang%Tan%NULL%0,   Lu%Yin%NULL%0,   Jun%Xu%NULL%0,   Congzhao%Zhou%NULL%0,   Chengyu%Jiang%jiang@pumc.edu.cn%0,   Lei%Liu%liulei3322@aliyun.com%0]</t>
-  </si>
-  <si>
-    <t>[Yong%Gao%NULL%0,   Tuantuan%Li%NULL%1,   Mingfeng%Han%NULL%0,   Xiuyong%Li%NULL%1,   Dong%Wu%NULL%1,   Yuanhong%Xu%NULL%1,   Yulin%Zhu%NULL%1,   Yan%Liu%NULL%1,   Xiaowu%Wang%wangxiaowu19880218@126.com%1,   Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Kunhua%Li%NULL%0,   Jiong%Wu%NULL%1,   Faqi%Wu%NULL%1,   Dajing%Guo%NULL%1,   Linli%Chen%NULL%1,   Zheng%Fang%NULL%1,   Chuanming%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,   Zhao-Wu%Tao%NULL%3,   Lei%Wang%NULL%3,   Ming-Li%Yuan%NULL%0,   Kui%Liu%NULL%0,   Ling%Zhou%NULL%0,   Shuang%Wei%NULL%0,   Yan%Deng%NULL%0,   Jing%Liu%NULL%5,   Hui-Guo%Liu%NULL%0,   Ming%Yang%NULL%4,   Yi%Hu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chuan%Qin%NULL%2,   Luoqi%Zhou%NULL%1,   Ziwei%Hu%NULL%1,   Shuoqi%Zhang%NULL%1,   Sheng%Yang%NULL%1,   Yu%Tao%NULL%0,   Cuihong%Xie%NULL%0,   Ke%Ma%NULL%0,   Ke%Shang%NULL%1,   Wei%Wang%NULL%0,   Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Dan%Sun%NULL%0,   Hui%Li%NULL%0,   Xiao-Xia%Lu%NULL%1,   Han%Xiao%NULL%0,   Jie%Ren%NULL%1,   Fu-Rong%Zhang%792523496@qq.com%1,   Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,   Bohan%Yang%NULL%0,   Qianwen%Li%NULL%0,   Lu%Wen%NULL%0,   Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%5,  Cao%Yi-yuan%coreGivesNoEmail%4,  Dong%Xiang%coreGivesNoEmail%4,  Gao%Ya-dong%coreGivesNoEmail%4,  Yan%You-qin%coreGivesNoEmail%4,  Yang%Yi-bin%coreGivesNoEmail%4,  Yuan%Ya-dong%coreGivesNoEmail%4,  Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,    Dengju%Li%NULL%1,    Xiong%Wang%NULL%0,    Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,    Yun%Ling%NULL%0,    Yi‐hui‐zhi%Zhang%NULL%1,    Li‐ya%Wei%NULL%1,    Xiao%Chen%NULL%1,    Xu‐mian%Li%NULL%1,    Xuan‐yong%Liu%NULL%1,    Han‐mian%Liu%NULL%1,    Zhi%Guo%guozhi77@126.com%1,    Hua%Ren%renhua2009@hotmail.com%2,    Hua%Ren%renhua2009@hotmail.com%0,    Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,    Kun%Yang%NULL%0,    Kun%Yang%NULL%0,    Wenxia%Wang%NULL%0,    Wenxia%Wang%NULL%0,    Lingyu%Jiang%NULL%0,    Lingyu%Jiang%NULL%0,    Jianxin%Song%songsingsjx@sina.com%0,    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,    Yang%Yang%NULL%0,    Cong%Zhang%NULL%3,    Fengming%Huang%NULL%1,    Fuxiang%Wang%NULL%1,    Jing%Yuan%NULL%2,    Zhaoqin%Wang%NULL%1,    Jinxiu%Li%NULL%1,    Jianming%Li%NULL%1,    Cheng%Feng%NULL%0,    Zheng%Zhang%NULL%2,    Lifei%Wang%NULL%2,    Ling%Peng%NULL%1,    Li%Chen%NULL%1,    Yuhao%Qin%NULL%1,    Dandan%Zhao%NULL%1,    Shuguang%Tan%NULL%1,    Lu%Yin%NULL%2,    Jun%Xu%NULL%1,    Congzhao%Zhou%NULL%1,    Chengyu%Jiang%jiang@pumc.edu.cn%1,    Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,    Tuantuan%Li%NULL%0,    Mingfeng%Han%NULL%0,    Xiuyong%Li%NULL%0,    Dong%Wu%NULL%0,    Yuanhong%Xu%NULL%0,    Yulin%Zhu%NULL%0,    Yan%Liu%NULL%0,    Xiaowu%Wang%wangxiaowu19880218@126.com%0,    Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,    Jiong%Wu%NULL%1,    Faqi%Wu%NULL%1,    Dajing%Guo%NULL%1,    Linli%Chen%NULL%1,    Zheng%Fang%NULL%1,    Chuanming%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,    Zhao-Wu%Tao%NULL%3,    Lei%Wang%NULL%3,    Ming-Li%Yuan%NULL%3,    Kui%Liu%NULL%0,    Ling%Zhou%NULL%0,    Shuang%Wei%NULL%0,    Yan%Deng%NULL%4,    Jing%Liu%NULL%5,    Hui-Guo%Liu%NULL%0,    Ming%Yang%NULL%0,    Yi%Hu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%2,    Luoqi%Zhou%NULL%1,    Ziwei%Hu%NULL%1,    Shuoqi%Zhang%NULL%1,    Sheng%Yang%NULL%1,    Yu%Tao%NULL%0,    Cuihong%Xie%NULL%1,    Ke%Ma%NULL%0,    Ke%Shang%NULL%1,    Wei%Wang%NULL%0,    Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,    Hui%Li%NULL%0,    Xiao-Xia%Lu%NULL%0,    Han%Xiao%NULL%0,    Jie%Ren%NULL%0,    Fu-Rong%Zhang%792523496@qq.com%0,    Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,    Yi%Xiang%NULL%5,    Wei%Fang%NULL%0,    Yu%Zheng%yuzheng1@cdutcm.edu.cn%5,    Boqun%Li%279685211@qq.com%10,    Boqun%Li%279685211@qq.com%0,    Yanjun%Hu%huyanjun@163.com%5,    Chunhui%Lang%NULL%5,    Daoqiu%Huang%NULL%5,    Qiuyan%Sun%NULL%5,    Yan%Xiong%NULL%5,    Xia%Huang%NULL%5,    Jinglong%Lv%NULL%5,    Yaling%Luo%NULL%5,    Li%Shen%NULL%5,    Haoran%Yang%NULL%5,    Gu%Huang%NULL%5,    Ruishan%Yang%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,    Bohan%Yang%NULL%2,    Qianwen%Li%NULL%2,    Lu%Wen%NULL%2,    Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%9,   Cao%Yi-yuan%coreGivesNoEmail%4,   Dong%Xiang%coreGivesNoEmail%4,   Gao%Ya-dong%coreGivesNoEmail%4,   Yan%You-qin%coreGivesNoEmail%4,   Yang%Yi-bin%coreGivesNoEmail%4,   Yuan%Ya-dong%coreGivesNoEmail%4,   Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,     Dengju%Li%NULL%1,     Xiong%Wang%NULL%0,     Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,     Yun%Ling%NULL%0,     Yi‐hui‐zhi%Zhang%NULL%1,     Li‐ya%Wei%NULL%1,     Xiao%Chen%NULL%1,     Xu‐mian%Li%NULL%1,     Xuan‐yong%Liu%NULL%1,     Han‐mian%Liu%NULL%1,     Zhi%Guo%guozhi77@126.com%1,     Hua%Ren%renhua2009@hotmail.com%2,     Hua%Ren%renhua2009@hotmail.com%0,     Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,     Kun%Yang%NULL%0,     Kun%Yang%NULL%0,     Wenxia%Wang%NULL%0,     Wenxia%Wang%NULL%0,     Lingyu%Jiang%NULL%0,     Lingyu%Jiang%NULL%0,     Jianxin%Song%songsingsjx@sina.com%0,     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,     Yang%Yang%NULL%0,     Cong%Zhang%NULL%3,     Fengming%Huang%NULL%1,     Fuxiang%Wang%NULL%1,     Jing%Yuan%NULL%1,     Zhaoqin%Wang%NULL%2,     Jinxiu%Li%NULL%1,     Jianming%Li%NULL%1,     Cheng%Feng%NULL%0,     Zheng%Zhang%NULL%1,     Lifei%Wang%NULL%1,     Ling%Peng%NULL%1,     Li%Chen%NULL%1,     Yuhao%Qin%NULL%1,     Dandan%Zhao%NULL%1,     Shuguang%Tan%NULL%1,     Lu%Yin%NULL%1,     Jun%Xu%NULL%1,     Congzhao%Zhou%NULL%1,     Chengyu%Jiang%jiang@pumc.edu.cn%1,     Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,     Tuantuan%Li%NULL%0,     Mingfeng%Han%NULL%0,     Xiuyong%Li%NULL%0,     Dong%Wu%NULL%0,     Yuanhong%Xu%NULL%0,     Yulin%Zhu%NULL%0,     Yan%Liu%NULL%0,     Xiaowu%Wang%wangxiaowu19880218@126.com%0,     Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,     Jiong%Wu%NULL%1,     Faqi%Wu%NULL%1,     Dajing%Guo%NULL%1,     Linli%Chen%NULL%1,     Zheng%Fang%NULL%1,     Chuanming%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,     Zhao-Wu%Tao%NULL%2,     Lei%Wang%NULL%2,     Ming-Li%Yuan%NULL%2,     Kui%Liu%NULL%0,     Ling%Zhou%NULL%0,     Shuang%Wei%NULL%0,     Yan%Deng%NULL%2,     Jing%Liu%NULL%2,     Hui-Guo%Liu%NULL%0,     Ming%Yang%NULL%0,     Yi%Hu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%2,     Luoqi%Zhou%NULL%2,     Ziwei%Hu%NULL%2,     Shuoqi%Zhang%NULL%2,     Sheng%Yang%NULL%2,     Yu%Tao%NULL%0,     Cuihong%Xie%NULL%2,     Ke%Ma%NULL%0,     Ke%Shang%NULL%2,     Wei%Wang%NULL%0,     Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,     Hui%Li%NULL%0,     Xiao-Xia%Lu%NULL%0,     Han%Xiao%NULL%0,     Jie%Ren%NULL%0,     Fu-Rong%Zhang%792523496@qq.com%0,     Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,     Yi%Xiang%NULL%4,     Wei%Fang%NULL%0,     Yu%Zheng%yuzheng1@cdutcm.edu.cn%4,     Boqun%Li%279685211@qq.com%8,     Boqun%Li%279685211@qq.com%0,     Yanjun%Hu%huyanjun@163.com%4,     Chunhui%Lang%NULL%4,     Daoqiu%Huang%NULL%4,     Qiuyan%Sun%NULL%4,     Yan%Xiong%NULL%5,     Xia%Huang%NULL%4,     Jinglong%Lv%NULL%4,     Yaling%Luo%NULL%4,     Li%Shen%NULL%4,     Haoran%Yang%NULL%4,     Gu%Huang%NULL%4,     Ruishan%Yang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,     Bohan%Yang%NULL%3,     Qianwen%Li%NULL%3,     Lu%Wen%NULL%3,     Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%4,    Dong%Xiang%coreGivesNoEmail%4,    Gao%Ya-dong%coreGivesNoEmail%4,    Yan%You-qin%coreGivesNoEmail%4,    Yang%Yi-bin%coreGivesNoEmail%4,    Yuan%Ya-dong%coreGivesNoEmail%4,    Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,      Dengju%Li%NULL%1,      Xiong%Wang%NULL%0,      Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,      Yun%Ling%NULL%0,      Yi‐hui‐zhi%Zhang%NULL%1,      Li‐ya%Wei%NULL%1,      Xiao%Chen%NULL%1,      Xu‐mian%Li%NULL%1,      Xuan‐yong%Liu%NULL%1,      Han‐mian%Liu%NULL%1,      Zhi%Guo%guozhi77@126.com%1,      Hua%Ren%renhua2009@hotmail.com%2,      Hua%Ren%renhua2009@hotmail.com%0,      Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,      Kun%Yang%NULL%0,      Kun%Yang%NULL%0,      Wenxia%Wang%NULL%0,      Wenxia%Wang%NULL%0,      Lingyu%Jiang%NULL%0,      Lingyu%Jiang%NULL%0,      Jianxin%Song%songsingsjx@sina.com%0,      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,      Yang%Yang%NULL%0,      Cong%Zhang%NULL%3,      Fengming%Huang%NULL%1,      Fuxiang%Wang%NULL%1,      Jing%Yuan%NULL%1,      Zhaoqin%Wang%NULL%2,      Jinxiu%Li%NULL%1,      Jianming%Li%NULL%1,      Cheng%Feng%NULL%0,      Zheng%Zhang%NULL%1,      Lifei%Wang%NULL%1,      Ling%Peng%NULL%1,      Li%Chen%NULL%1,      Yuhao%Qin%NULL%1,      Dandan%Zhao%NULL%1,      Shuguang%Tan%NULL%1,      Lu%Yin%NULL%1,      Jun%Xu%NULL%1,      Congzhao%Zhou%NULL%1,      Chengyu%Jiang%jiang@pumc.edu.cn%1,      Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,      Tuantuan%Li%NULL%0,      Mingfeng%Han%NULL%0,      Xiuyong%Li%NULL%0,      Dong%Wu%NULL%0,      Yuanhong%Xu%NULL%0,      Yulin%Zhu%NULL%0,      Yan%Liu%NULL%0,      Xiaowu%Wang%wangxiaowu19880218@126.com%0,      Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,      Jiong%Wu%NULL%1,      Faqi%Wu%NULL%1,      Dajing%Guo%NULL%1,      Linli%Chen%NULL%1,      Zheng%Fang%NULL%1,      Chuanming%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,      Zhao-Wu%Tao%NULL%2,      Lei%Wang%NULL%2,      Ming-Li%Yuan%NULL%2,      Kui%Liu%NULL%0,      Ling%Zhou%NULL%0,      Shuang%Wei%NULL%0,      Yan%Deng%NULL%2,      Jing%Liu%NULL%2,      Hui-Guo%Liu%NULL%0,      Ming%Yang%NULL%0,      Yi%Hu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%2,      Luoqi%Zhou%NULL%2,      Ziwei%Hu%NULL%2,      Shuoqi%Zhang%NULL%2,      Sheng%Yang%NULL%2,      Yu%Tao%NULL%0,      Cuihong%Xie%NULL%2,      Ke%Ma%NULL%0,      Ke%Shang%NULL%2,      Wei%Wang%NULL%0,      Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,      Hui%Li%NULL%0,      Xiao-Xia%Lu%NULL%0,      Han%Xiao%NULL%0,      Jie%Ren%NULL%0,      Fu-Rong%Zhang%792523496@qq.com%0,      Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,      Yi%Xiang%NULL%4,      Wei%Fang%NULL%0,      Yu%Zheng%yuzheng1@cdutcm.edu.cn%4,      Boqun%Li%279685211@qq.com%8,      Boqun%Li%279685211@qq.com%0,      Yanjun%Hu%huyanjun@163.com%4,      Chunhui%Lang%NULL%4,      Daoqiu%Huang%NULL%4,      Qiuyan%Sun%NULL%4,      Yan%Xiong%NULL%5,      Xia%Huang%NULL%4,      Jinglong%Lv%NULL%4,      Yaling%Luo%NULL%4,      Li%Shen%NULL%4,      Haoran%Yang%NULL%4,      Gu%Huang%NULL%4,      Ruishan%Yang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,      Bohan%Yang%NULL%3,      Qianwen%Li%NULL%3,      Lu%Wen%NULL%3,      Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%4,     Dong%Xiang%coreGivesNoEmail%4,     Gao%Ya-dong%coreGivesNoEmail%4,     Yan%You-qin%coreGivesNoEmail%4,     Yang%Yi-bin%coreGivesNoEmail%4,     Yuan%Ya-dong%coreGivesNoEmail%4,     Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,       Dengju%Li%NULL%1,       Xiong%Wang%NULL%0,       Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,       Yun%Ling%NULL%0,       Yi‐hui‐zhi%Zhang%NULL%1,       Li‐ya%Wei%NULL%1,       Xiao%Chen%NULL%1,       Xu‐mian%Li%NULL%1,       Xuan‐yong%Liu%NULL%1,       Han‐mian%Liu%NULL%1,       Zhi%Guo%guozhi77@126.com%1,       Hua%Ren%renhua2009@hotmail.com%2,       Hua%Ren%renhua2009@hotmail.com%0,       Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,       Kun%Yang%NULL%0,       Kun%Yang%NULL%0,       Wenxia%Wang%NULL%0,       Wenxia%Wang%NULL%0,       Lingyu%Jiang%NULL%0,       Lingyu%Jiang%NULL%0,       Jianxin%Song%songsingsjx@sina.com%0,       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,       Yang%Yang%NULL%0,       Cong%Zhang%NULL%3,       Fengming%Huang%NULL%1,       Fuxiang%Wang%NULL%1,       Jing%Yuan%NULL%1,       Zhaoqin%Wang%NULL%2,       Jinxiu%Li%NULL%1,       Jianming%Li%NULL%1,       Cheng%Feng%NULL%0,       Zheng%Zhang%NULL%1,       Lifei%Wang%NULL%1,       Ling%Peng%NULL%1,       Li%Chen%NULL%1,       Yuhao%Qin%NULL%1,       Dandan%Zhao%NULL%1,       Shuguang%Tan%NULL%1,       Lu%Yin%NULL%1,       Jun%Xu%NULL%1,       Congzhao%Zhou%NULL%1,       Chengyu%Jiang%jiang@pumc.edu.cn%1,       Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,       Tuantuan%Li%NULL%0,       Mingfeng%Han%NULL%0,       Xiuyong%Li%NULL%0,       Dong%Wu%NULL%0,       Yuanhong%Xu%NULL%0,       Yulin%Zhu%NULL%0,       Yan%Liu%NULL%0,       Xiaowu%Wang%wangxiaowu19880218@126.com%0,       Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,       Jiong%Wu%NULL%1,       Faqi%Wu%NULL%1,       Dajing%Guo%NULL%1,       Linli%Chen%NULL%1,       Zheng%Fang%NULL%1,       Chuanming%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,       Zhao-Wu%Tao%NULL%2,       Lei%Wang%NULL%2,       Ming-Li%Yuan%NULL%2,       Kui%Liu%NULL%0,       Ling%Zhou%NULL%0,       Shuang%Wei%NULL%0,       Yan%Deng%NULL%2,       Jing%Liu%NULL%2,       Hui-Guo%Liu%NULL%0,       Ming%Yang%NULL%0,       Yi%Hu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%2,       Luoqi%Zhou%NULL%2,       Ziwei%Hu%NULL%2,       Shuoqi%Zhang%NULL%2,       Sheng%Yang%NULL%2,       Yu%Tao%NULL%0,       Cuihong%Xie%NULL%2,       Ke%Ma%NULL%0,       Ke%Shang%NULL%2,       Wei%Wang%NULL%0,       Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,       Hui%Li%NULL%0,       Xiao-Xia%Lu%NULL%0,       Han%Xiao%NULL%0,       Jie%Ren%NULL%0,       Fu-Rong%Zhang%792523496@qq.com%0,       Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,       Yi%Xiang%NULL%4,       Wei%Fang%NULL%0,       Yu%Zheng%yuzheng1@cdutcm.edu.cn%4,       Boqun%Li%279685211@qq.com%8,       Boqun%Li%279685211@qq.com%0,       Yanjun%Hu%huyanjun@163.com%4,       Chunhui%Lang%NULL%4,       Daoqiu%Huang%NULL%4,       Qiuyan%Sun%NULL%4,       Yan%Xiong%NULL%5,       Xia%Huang%NULL%4,       Jinglong%Lv%NULL%4,       Yaling%Luo%NULL%4,       Li%Shen%NULL%4,       Haoran%Yang%NULL%4,       Gu%Huang%NULL%4,       Ruishan%Yang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,       Bohan%Yang%NULL%3,       Qianwen%Li%NULL%3,       Lu%Wen%NULL%3,       Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%4,      Dong%Xiang%coreGivesNoEmail%4,      Gao%Ya-dong%coreGivesNoEmail%4,      Yan%You-qin%coreGivesNoEmail%4,      Yang%Yi-bin%coreGivesNoEmail%4,      Yuan%Ya-dong%coreGivesNoEmail%4,      Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,        Dengju%Li%NULL%1,        Xiong%Wang%NULL%0,        Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,        Yun%Ling%NULL%0,        Yi‐hui‐zhi%Zhang%NULL%1,        Li‐ya%Wei%NULL%1,        Xiao%Chen%NULL%1,        Xu‐mian%Li%NULL%1,        Xuan‐yong%Liu%NULL%1,        Han‐mian%Liu%NULL%1,        Zhi%Guo%guozhi77@126.com%1,        Hua%Ren%renhua2009@hotmail.com%2,        Hua%Ren%renhua2009@hotmail.com%0,        Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,        Kun%Yang%NULL%0,        Kun%Yang%NULL%0,        Wenxia%Wang%NULL%0,        Wenxia%Wang%NULL%0,        Lingyu%Jiang%NULL%0,        Lingyu%Jiang%NULL%0,        Jianxin%Song%songsingsjx@sina.com%0,        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,        Yang%Yang%NULL%0,        Cong%Zhang%NULL%3,        Fengming%Huang%NULL%1,        Fuxiang%Wang%NULL%1,        Jing%Yuan%NULL%1,        Zhaoqin%Wang%NULL%2,        Jinxiu%Li%NULL%1,        Jianming%Li%NULL%1,        Cheng%Feng%NULL%0,        Zheng%Zhang%NULL%1,        Lifei%Wang%NULL%1,        Ling%Peng%NULL%1,        Li%Chen%NULL%1,        Yuhao%Qin%NULL%1,        Dandan%Zhao%NULL%1,        Shuguang%Tan%NULL%1,        Lu%Yin%NULL%1,        Jun%Xu%NULL%1,        Congzhao%Zhou%NULL%1,        Chengyu%Jiang%jiang@pumc.edu.cn%1,        Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,        Tuantuan%Li%NULL%0,        Mingfeng%Han%NULL%0,        Xiuyong%Li%NULL%0,        Dong%Wu%NULL%0,        Yuanhong%Xu%NULL%0,        Yulin%Zhu%NULL%0,        Yan%Liu%NULL%0,        Xiaowu%Wang%wangxiaowu19880218@126.com%0,        Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,        Jiong%Wu%NULL%1,        Faqi%Wu%NULL%1,        Dajing%Guo%NULL%1,        Linli%Chen%NULL%1,        Zheng%Fang%NULL%1,        Chuanming%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,        Zhao-Wu%Tao%NULL%2,        Lei%Wang%NULL%2,        Ming-Li%Yuan%NULL%2,        Kui%Liu%NULL%0,        Ling%Zhou%NULL%0,        Shuang%Wei%NULL%0,        Yan%Deng%NULL%2,        Jing%Liu%NULL%2,        Hui-Guo%Liu%NULL%0,        Ming%Yang%NULL%0,        Yi%Hu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%2,        Luoqi%Zhou%NULL%2,        Ziwei%Hu%NULL%2,        Shuoqi%Zhang%NULL%2,        Sheng%Yang%NULL%2,        Yu%Tao%NULL%0,        Cuihong%Xie%NULL%2,        Ke%Ma%NULL%0,        Ke%Shang%NULL%2,        Wei%Wang%NULL%0,        Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,        Hui%Li%NULL%0,        Xiao-Xia%Lu%NULL%0,        Han%Xiao%NULL%0,        Jie%Ren%NULL%0,        Fu-Rong%Zhang%792523496@qq.com%0,        Zhi-Sheng%Liu%liuzsc@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,        Yi%Xiang%NULL%4,        Wei%Fang%NULL%0,        Yu%Zheng%yuzheng1@cdutcm.edu.cn%4,        Boqun%Li%279685211@qq.com%8,        Boqun%Li%279685211@qq.com%0,        Yanjun%Hu%huyanjun@163.com%4,        Chunhui%Lang%NULL%4,        Daoqiu%Huang%NULL%4,        Qiuyan%Sun%NULL%4,        Yan%Xiong%NULL%5,        Xia%Huang%NULL%4,        Jinglong%Lv%NULL%4,        Yaling%Luo%NULL%4,        Li%Shen%NULL%4,        Haoran%Yang%NULL%4,        Gu%Huang%NULL%4,        Ruishan%Yang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,        Bohan%Yang%NULL%3,        Qianwen%Li%NULL%3,        Lu%Wen%NULL%3,        Ruiguang%Zhang%zrg27@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%4,       Dong%Xiang%coreGivesNoEmail%4,       Gao%Ya-dong%coreGivesNoEmail%4,       Yan%You-qin%coreGivesNoEmail%4,       Yang%Yi-bin%coreGivesNoEmail%4,       Yuan%Ya-dong%coreGivesNoEmail%4,       Zhang%Jin-jin%coreGivesNoEmail%4]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="166" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd mmmm yyyy"/>
-    <numFmt numFmtId="168" formatCode="mmmm d, yyyy"/>
-    <numFmt numFmtId="169" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="170" formatCode="yyyy mmmm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="166" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="170" formatCode="yyyy\ mmmm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -799,7 +919,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -815,71 +935,57 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1069,20 +1175,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,15 +1219,15 @@
         <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>43942.0</v>
+        <v>43942</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1137,15 +1248,15 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>43918.0</v>
+        <v>43918</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -1154,288 +1265,288 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>43922.0</v>
+        <v>43922</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
       <c r="I6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9">
-        <v>43870.0</v>
+      <c r="B9" s="8">
+        <v>43870</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44044</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F10" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44044.0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11">
+        <v>43951</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12">
-        <v>43951.0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>44007.0</v>
+        <v>44007</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1456,189 +1567,189 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13">
-        <v>43956.0</v>
+      <c r="B15" s="12">
+        <v>43956</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>44040.0</v>
+        <v>44040</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" t="s">
         <v>99</v>
       </c>
-      <c r="I18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>44040.0</v>
+        <v>44040</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1659,90 +1770,90 @@
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="14">
-        <v>43952.0</v>
+      <c r="B21" s="13">
+        <v>43952</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A10"/>
-    <hyperlink r:id="rId9" ref="A11"/>
-    <hyperlink r:id="rId10" ref="B12"/>
-    <hyperlink r:id="rId11" ref="A13"/>
-    <hyperlink r:id="rId12" ref="A14"/>
-    <hyperlink r:id="rId13" ref="A15"/>
-    <hyperlink r:id="rId14" ref="A16"/>
-    <hyperlink r:id="rId15" ref="A17"/>
-    <hyperlink r:id="rId16" ref="A18"/>
-    <hyperlink r:id="rId17" ref="A19"/>
-    <hyperlink r:id="rId18" ref="A20"/>
-    <hyperlink r:id="rId19" ref="A21"/>
-    <hyperlink r:id="rId20" ref="A22"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" display="about:blank" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="233">
   <si>
     <t>Doi</t>
   </si>
@@ -861,6 +861,156 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%4,       Dong%Xiang%coreGivesNoEmail%4,       Gao%Ya-dong%coreGivesNoEmail%4,       Yan%You-qin%coreGivesNoEmail%4,       Yang%Yi-bin%coreGivesNoEmail%4,       Yuan%Ya-dong%coreGivesNoEmail%4,       Zhang%Jin-jin%coreGivesNoEmail%4]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic Features and Clinical Course of Patients Infected With SARS-CoV-2 in Singapore"</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%0, Shirin%Kalimuddin%xref no email%0, Jenny G.%Low%xref no email%0, Seow Yen%Tan%xref no email%0, Jiashen%Loh%xref no email%0, Oon-Tek%Ng%xref no email%0, Kalisvar%Marimuthu%xref no email%0, Li Wei%Ang%xref no email%0, Tze Minn%Mak%xref no email%0, Sok Kiang%Lau%xref no email%0, Danielle E.%Anderson%xref no email%0, Kian Sing%Chan%xref no email%0, Thean Yen%Tan%xref no email%0, Tong Yong%Ng%xref no email%0, Lin%Cui%xref no email%0, Zubaidah%Said%xref no email%0, Lalitha%Kurupatham%xref no email%0, Mark I-Cheng%Chen%xref no email%0, Monica%Chan%xref no email%0, Shawn%Vasoo%xref no email%0, Lin-Fa%Wang%xref no email%0, Boon Huan%Tan%xref no email%0, Raymond Tzer Pin%Lin%xref no email%0, Vernon Jian Ming%Lee%xref no email%0, Yee-Sin%Leo%xref no email%0, David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,         Dengju%Li%NULL%0,         Xiong%Wang%NULL%0,         Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,         Yun%Ling%NULL%0,         Yi‐hui‐zhi%Zhang%NULL%1,         Li‐ya%Wei%NULL%1,         Xiao%Chen%NULL%1,         Xu‐mian%Li%NULL%1,         Xuan‐yong%Liu%NULL%1,         Han‐mian%Liu%NULL%1,         Zhi%Guo%guozhi77@126.com%1,         Hua%Ren%renhua2009@hotmail.com%2,         Hua%Ren%renhua2009@hotmail.com%0,         Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,         Kun%Yang%NULL%0,         Kun%Yang%NULL%0,         Wenxia%Wang%NULL%0,         Wenxia%Wang%NULL%0,         Lingyu%Jiang%NULL%0,         Lingyu%Jiang%NULL%0,         Jianxin%Song%songsingsjx@sina.com%0,         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,         Yang%Yang%NULL%0,         Cong%Zhang%NULL%3,         Fengming%Huang%NULL%2,         Fuxiang%Wang%NULL%2,         Jing%Yuan%NULL%0,         Zhaoqin%Wang%NULL%2,         Jinxiu%Li%NULL%2,         Jianming%Li%NULL%2,         Cheng%Feng%NULL%2,         Zheng%Zhang%NULL%0,         Lifei%Wang%NULL%2,         Ling%Peng%NULL%2,         Li%Chen%NULL%2,         Yuhao%Qin%NULL%2,         Dandan%Zhao%NULL%2,         Shuguang%Tan%NULL%2,         Lu%Yin%NULL%3,         Jun%Xu%NULL%2,         Congzhao%Zhou%NULL%2,         Chengyu%Jiang%jiang@pumc.edu.cn%2,         Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,         Tuantuan%Li%NULL%0,         Mingfeng%Han%NULL%0,         Xiuyong%Li%NULL%0,         Dong%Wu%NULL%0,         Yuanhong%Xu%NULL%0,         Yulin%Zhu%NULL%0,         Yan%Liu%NULL%0,         Xiaowu%Wang%wangxiaowu19880218@126.com%0,         Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%15,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%7,         Chun-quan%Ou%NULL%7,         Jian-xing%He%NULL%9,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%9,         David S.C.%Hui%NULL%6,         Bin%Du%NULL%6,         Lan-juan%Li%NULL%6,         Guang%Zeng%NULL%6,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%9,         Chun-li%Tang%NULL%9,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%7,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%9,         Jin-lin%Wang%NULL%6,         Zi-jing%Liang%NULL%6,         Yi-xiang%Peng%NULL%9,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%9,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%10,         Ji-yang%Liu%NULL%9,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%9,         Shao-qin%Qiu%NULL%9,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%9,         Shao-yong%Zhu%NULL%9,         Nan-shan%Zhong%NULL%9]</t>
+  </si>
+  <si>
+    <t>"Prominent changes in blood coagulation of patients with SARS-CoV-2 infection"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Abstract\n               \n                  Background\n                  As the number of patients increases, there is a growing understanding of the form of pneumonia sustained by the 2019 novel coronavirus (SARS-CoV-2), which has caused an outbreak in China.
+ Up to now, clinical features and treatment of patients infected with SARS-CoV-2 have been reported in detail.
+ However, the relationship between SARS-CoV-2 and coagulation has been scarcely addressed.
+ Our aim is to investigate the blood coagulation function of patients with SARS-CoV-2 infection.
+\n               \n               \n                  Methods\n                  In our study, 94 patients with confirmed SARS-CoV-2 infection were admitted in Renmin Hospital of Wuhan University.
+ We prospectively collect blood coagulation data in these patients and in 40 healthy controls during the same period.
+\n               \n               \n                  Results\n                  Antithrombin values in patients were lower than that in the control group (p\u2009&amp;lt;\u20090.001).
+ The values of D-dimer, fibrin\/fibrinogen degradation products (FDP), and fibrinogen (FIB) in all SARS-CoV-2 cases were substantially higher than those in healthy controls.
+ Moreover, D-dimer and FDP values in patients with severe SARS-CoV-2 infection were higher than those in patients with milder forms.
+ Compared with healthy controls, prothrombin time activity (PT-act) was lower in SARS-CoV-2 patients.
+ Thrombin time in critical SARS-CoV-2 patients was also shorter than that in controls.
+\n               \n               \n                  Conclusions\n                  The coagulation function in patients with SARS-CoV-2 is significantly deranged compared with healthy people, but monitoring D-dimer and FDP values may be helpful for the early identification of severe cases.
+\n               </t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%0, Lan%Yang%xref no email%1, Rui%Liu%xref no email%1, Fang%Liu%xref no email%0, Kai-lang%Wu%xref no email%1, Jie%Li%xref no email%1, Xing-hui%Liu%xref no email%1, Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,         Jiong%Wu%NULL%0,         Faqi%Wu%NULL%0,         Dajing%Guo%NULL%0,         Linli%Chen%NULL%0,         Zheng%Fang%NULL%0,         Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,         Zhao-Wu%Tao%NULL%0,         Lei%Wang%NULL%0,         Ming-Li%Yuan%NULL%0,         Kui%Liu%NULL%0,         Ling%Zhou%NULL%0,         Shuang%Wei%NULL%0,         Yan%Deng%NULL%0,         Jing%Liu%NULL%0,         Hui-Guo%Liu%NULL%0,         Ming%Yang%NULL%0,         Yi%Hu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%3,         Luoqi%Zhou%NULL%1,         Ziwei%Hu%NULL%1,         Shuoqi%Zhang%NULL%1,         Sheng%Yang%NULL%1,         Yu%Tao%NULL%0,         Cuihong%Xie%NULL%1,         Ke%Ma%NULL%0,         Ke%Shang%NULL%1,         Wei%Wang%NULL%0,         Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,         Hui%Li%NULL%0,         Xiao-Xia%Lu%NULL%1,         Han%Xiao%NULL%1,         Jie%Ren%NULL%1,         Fu-Rong%Zhang%792523496@qq.com%1,         Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,         Yi%Xiang%NULL%4,         Wei%Fang%NULL%4,         Yu%Zheng%yuzheng1@cdutcm.edu.cn%4,         Boqun%Li%279685211@qq.com%8,         Boqun%Li%279685211@qq.com%0,         Yanjun%Hu%huyanjun@163.com%4,         Chunhui%Lang%NULL%5,         Daoqiu%Huang%NULL%4,         Qiuyan%Sun%NULL%4,         Yan%Xiong%NULL%0,         Xia%Huang%NULL%4,         Jinglong%Lv%NULL%5,         Yaling%Luo%NULL%4,         Li%Shen%NULL%4,         Haoran%Yang%NULL%4,         Gu%Huang%NULL%4,         Ruishan%Yang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,         Bohan%Yang%NULL%0,         Qianwen%Li%NULL%0,         Lu%Wen%NULL%0,         Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%0, Yanping%Cai%xref no email%0, Jia\u2019an%Xia%xref no email%0, Xing%Zhou%xref no email%0, Sha%Xu%xref no email%0, Hanping%Huang%xref no email%0, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%0, Chunling%Du%xref no email%0, Yuye%Zhang%xref no email%0, Juan%Song%xref no email%0, Sijiao%Wang%xref no email%0, Yencheng%Chao%xref no email%0, Zeyong%Yang%xref no email%0, Jie%Xu%xref no email%0, Xin%Zhou%xref no email%0, Dechang%Chen%xref no email%0, Weining%Xiong%xref no email%0, Lei%Xu%xref no email%0, Feng%Zhou%xref no email%0, Jinjun%Jiang%xref no email%0, Chunxue%Bai%xref no email%0, Junhua%Zheng%xref no email%0, Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%3,        Dong%Xiang%coreGivesNoEmail%3,        Gao%Ya-dong%coreGivesNoEmail%3,        Yan%You-qin%coreGivesNoEmail%3,        Yang%Yi-bin%coreGivesNoEmail%3,        Yuan%Ya-dong%coreGivesNoEmail%3,        Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,  Sean Wei Xiang%Ong%xref no email%0,  Shirin%Kalimuddin%xref no email%0,  Jenny G.%Low%xref no email%0,  Seow Yen%Tan%xref no email%0,  Jiashen%Loh%xref no email%0,  Oon-Tek%Ng%xref no email%0,  Kalisvar%Marimuthu%xref no email%0,  Li Wei%Ang%xref no email%0,  Tze Minn%Mak%xref no email%0,  Sok Kiang%Lau%xref no email%0,  Danielle E.%Anderson%xref no email%0,  Kian Sing%Chan%xref no email%0,  Thean Yen%Tan%xref no email%0,  Tong Yong%Ng%xref no email%0,  Lin%Cui%xref no email%0,  Zubaidah%Said%xref no email%0,  Lalitha%Kurupatham%xref no email%0,  Mark I-Cheng%Chen%xref no email%0,  Monica%Chan%xref no email%0,  Shawn%Vasoo%xref no email%0,  Lin-Fa%Wang%xref no email%0,  Boon Huan%Tan%xref no email%0,  Raymond Tzer Pin%Lin%xref no email%0,  Vernon Jian Ming%Lee%xref no email%0,  Yee-Sin%Leo%xref no email%0,  David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,          Dengju%Li%NULL%0,          Xiong%Wang%NULL%0,          Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,          Yun%Ling%NULL%0,          Yi‐hui‐zhi%Zhang%NULL%1,          Li‐ya%Wei%NULL%1,          Xiao%Chen%NULL%1,          Xu‐mian%Li%NULL%1,          Xuan‐yong%Liu%NULL%1,          Han‐mian%Liu%NULL%1,          Zhi%Guo%guozhi77@126.com%1,          Hua%Ren%renhua2009@hotmail.com%2,          Hua%Ren%renhua2009@hotmail.com%0,          Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,          Kun%Yang%NULL%0,          Kun%Yang%NULL%0,          Wenxia%Wang%NULL%0,          Wenxia%Wang%NULL%0,          Lingyu%Jiang%NULL%0,          Lingyu%Jiang%NULL%0,          Jianxin%Song%songsingsjx@sina.com%0,          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,          Yang%Yang%NULL%0,          Cong%Zhang%NULL%3,          Fengming%Huang%NULL%2,          Fuxiang%Wang%NULL%2,          Jing%Yuan%NULL%0,          Zhaoqin%Wang%NULL%2,          Jinxiu%Li%NULL%2,          Jianming%Li%NULL%2,          Cheng%Feng%NULL%2,          Zheng%Zhang%NULL%0,          Lifei%Wang%NULL%2,          Ling%Peng%NULL%2,          Li%Chen%NULL%2,          Yuhao%Qin%NULL%2,          Dandan%Zhao%NULL%2,          Shuguang%Tan%NULL%2,          Lu%Yin%NULL%3,          Jun%Xu%NULL%2,          Congzhao%Zhou%NULL%2,          Chengyu%Jiang%jiang@pumc.edu.cn%2,          Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,          Tuantuan%Li%NULL%0,          Mingfeng%Han%NULL%0,          Xiuyong%Li%NULL%0,          Dong%Wu%NULL%0,          Yuanhong%Xu%NULL%0,          Yulin%Zhu%NULL%0,          Yan%Liu%NULL%0,          Xiaowu%Wang%wangxiaowu19880218@126.com%0,          Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%15,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%7,          Chun-quan%Ou%NULL%7,          Jian-xing%He%NULL%9,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%9,          David S.C.%Hui%NULL%6,          Bin%Du%NULL%6,          Lan-juan%Li%NULL%6,          Guang%Zeng%NULL%6,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%9,          Chun-li%Tang%NULL%9,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%7,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%9,          Jin-lin%Wang%NULL%6,          Zi-jing%Liang%NULL%6,          Yi-xiang%Peng%NULL%9,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%9,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%10,          Ji-yang%Liu%NULL%9,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%9,          Shao-qin%Qiu%NULL%9,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%9,          Shao-yong%Zhu%NULL%9,          Nan-shan%Zhong%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,  Lan%Yang%xref no email%1,  Rui%Liu%xref no email%1,  Fang%Liu%xref no email%1,  Kai-lang%Wu%xref no email%1,  Jie%Li%xref no email%1,  Xing-hui%Liu%xref no email%1,  Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,          Jiong%Wu%NULL%0,          Faqi%Wu%NULL%0,          Dajing%Guo%NULL%0,          Linli%Chen%NULL%0,          Zheng%Fang%NULL%0,          Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,          Zhao-Wu%Tao%NULL%0,          Lei%Wang%NULL%0,          Ming-Li%Yuan%NULL%0,          Kui%Liu%NULL%0,          Ling%Zhou%NULL%0,          Shuang%Wei%NULL%0,          Yan%Deng%NULL%0,          Jing%Liu%NULL%0,          Hui-Guo%Liu%NULL%0,          Ming%Yang%NULL%0,          Yi%Hu%NULL%0,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,          Luoqi%Zhou%NULL%1,          Ziwei%Hu%NULL%1,          Shuoqi%Zhang%NULL%1,          Sheng%Yang%NULL%1,          Yu%Tao%NULL%0,          Cuihong%Xie%NULL%1,          Ke%Ma%NULL%0,          Ke%Shang%NULL%1,          Wei%Wang%NULL%0,          Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,          Hui%Li%NULL%0,          Xiao-Xia%Lu%NULL%1,          Han%Xiao%NULL%1,          Jie%Ren%NULL%1,          Fu-Rong%Zhang%792523496@qq.com%1,          Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,          Yi%Xiang%NULL%4,          Wei%Fang%NULL%4,          Yu%Zheng%yuzheng1@cdutcm.edu.cn%4,          Boqun%Li%279685211@qq.com%8,          Boqun%Li%279685211@qq.com%0,          Yanjun%Hu%huyanjun@163.com%4,          Chunhui%Lang%NULL%5,          Daoqiu%Huang%NULL%4,          Qiuyan%Sun%NULL%4,          Yan%Xiong%NULL%0,          Xia%Huang%NULL%4,          Jinglong%Lv%NULL%5,          Yaling%Luo%NULL%4,          Li%Shen%NULL%4,          Haoran%Yang%NULL%4,          Gu%Huang%NULL%4,          Ruishan%Yang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,          Bohan%Yang%NULL%0,          Qianwen%Li%NULL%0,          Lu%Wen%NULL%0,          Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,  Xiaoyan%Chen%xref no email%0,  Yanping%Cai%xref no email%0,  Jia\u2019an%Xia%xref no email%0,  Xing%Zhou%xref no email%0,  Sha%Xu%xref no email%0,  Hanping%Huang%xref no email%0,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%0,  Chunling%Du%xref no email%0,  Yuye%Zhang%xref no email%0,  Juan%Song%xref no email%0,  Sijiao%Wang%xref no email%0,  Yencheng%Chao%xref no email%0,  Zeyong%Yang%xref no email%0,  Jie%Xu%xref no email%0,  Xin%Zhou%xref no email%0,  Dechang%Chen%xref no email%0,  Weining%Xiong%xref no email%0,  Lei%Xu%xref no email%0,  Feng%Zhou%xref no email%0,  Jinjun%Jiang%xref no email%0,  Chunxue%Bai%xref no email%0,  Junhua%Zheng%xref no email%0,  Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%3,         Dong%Xiang%coreGivesNoEmail%3,         Gao%Ya-dong%coreGivesNoEmail%3,         Yan%You-qin%coreGivesNoEmail%3,         Yang%Yi-bin%coreGivesNoEmail%3,         Yuan%Ya-dong%coreGivesNoEmail%3,         Zhang%Jin-jin%coreGivesNoEmail%3]</t>
   </si>
 </sst>
 </file>
@@ -1230,22 +1380,22 @@
         <v>43942</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -1265,7 +1415,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1294,7 +1444,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1323,7 +1473,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1352,7 +1502,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1381,7 +1531,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1410,7 +1560,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1439,7 +1589,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1497,7 +1647,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1526,7 +1676,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1549,22 +1699,22 @@
         <v>44007</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
@@ -1584,7 +1734,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -1613,7 +1763,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -1642,7 +1792,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -1671,7 +1821,7 @@
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -1700,7 +1850,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -1729,7 +1879,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -1752,22 +1902,22 @@
         <v>44013</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="I20" t="s">
         <v>49</v>
@@ -1787,7 +1937,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -1816,7 +1966,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="273">
   <si>
     <t>Doi</t>
   </si>
@@ -1011,6 +1011,126 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%3,         Dong%Xiang%coreGivesNoEmail%3,         Gao%Ya-dong%coreGivesNoEmail%3,         Yan%You-qin%coreGivesNoEmail%3,         Yang%Yi-bin%coreGivesNoEmail%3,         Yuan%Ya-dong%coreGivesNoEmail%3,         Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,   Sean Wei Xiang%Ong%xref no email%0,   Shirin%Kalimuddin%xref no email%0,   Jenny G.%Low%xref no email%0,   Seow Yen%Tan%xref no email%0,   Jiashen%Loh%xref no email%0,   Oon-Tek%Ng%xref no email%0,   Kalisvar%Marimuthu%xref no email%0,   Li Wei%Ang%xref no email%0,   Tze Minn%Mak%xref no email%0,   Sok Kiang%Lau%xref no email%0,   Danielle E.%Anderson%xref no email%0,   Kian Sing%Chan%xref no email%0,   Thean Yen%Tan%xref no email%0,   Tong Yong%Ng%xref no email%0,   Lin%Cui%xref no email%0,   Zubaidah%Said%xref no email%0,   Lalitha%Kurupatham%xref no email%0,   Mark I-Cheng%Chen%xref no email%0,   Monica%Chan%xref no email%0,   Shawn%Vasoo%xref no email%0,   Lin-Fa%Wang%xref no email%0,   Boon Huan%Tan%xref no email%0,   Raymond Tzer Pin%Lin%xref no email%0,   Vernon Jian Ming%Lee%xref no email%0,   Yee-Sin%Leo%xref no email%0,   David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,           Dengju%Li%NULL%0,           Xiong%Wang%NULL%0,           Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,           Yun%Ling%NULL%0,           Yi‐hui‐zhi%Zhang%NULL%1,           Li‐ya%Wei%NULL%1,           Xiao%Chen%NULL%1,           Xu‐mian%Li%NULL%1,           Xuan‐yong%Liu%NULL%1,           Han‐mian%Liu%NULL%1,           Zhi%Guo%guozhi77@126.com%1,           Hua%Ren%renhua2009@hotmail.com%2,           Hua%Ren%renhua2009@hotmail.com%0,           Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,           Kun%Yang%NULL%0,           Kun%Yang%NULL%0,           Wenxia%Wang%NULL%0,           Wenxia%Wang%NULL%0,           Lingyu%Jiang%NULL%0,           Lingyu%Jiang%NULL%0,           Jianxin%Song%songsingsjx@sina.com%0,           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,           Yang%Yang%NULL%0,           Cong%Zhang%NULL%3,           Fengming%Huang%NULL%2,           Fuxiang%Wang%NULL%2,           Jing%Yuan%NULL%0,           Zhaoqin%Wang%NULL%2,           Jinxiu%Li%NULL%2,           Jianming%Li%NULL%2,           Cheng%Feng%NULL%2,           Zheng%Zhang%NULL%0,           Lifei%Wang%NULL%2,           Ling%Peng%NULL%2,           Li%Chen%NULL%2,           Yuhao%Qin%NULL%2,           Dandan%Zhao%NULL%2,           Shuguang%Tan%NULL%2,           Lu%Yin%NULL%3,           Jun%Xu%NULL%2,           Congzhao%Zhou%NULL%2,           Chengyu%Jiang%jiang@pumc.edu.cn%2,           Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,           Tuantuan%Li%NULL%0,           Mingfeng%Han%NULL%0,           Xiuyong%Li%NULL%0,           Dong%Wu%NULL%0,           Yuanhong%Xu%NULL%0,           Yulin%Zhu%NULL%0,           Yan%Liu%NULL%0,           Xiaowu%Wang%wangxiaowu19880218@126.com%0,           Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%15,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%7,           Chun-quan%Ou%NULL%7,           Jian-xing%He%NULL%9,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%9,           David S.C.%Hui%NULL%6,           Bin%Du%NULL%6,           Lan-juan%Li%NULL%6,           Guang%Zeng%NULL%6,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%9,           Chun-li%Tang%NULL%9,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%7,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%9,           Jin-lin%Wang%NULL%6,           Zi-jing%Liang%NULL%6,           Yi-xiang%Peng%NULL%9,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%9,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%10,           Ji-yang%Liu%NULL%9,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%9,           Shao-qin%Qiu%NULL%9,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%9,           Shao-yong%Zhu%NULL%9,           Nan-shan%Zhong%NULL%9]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,   Lan%Yang%xref no email%1,   Rui%Liu%xref no email%1,   Fang%Liu%xref no email%1,   Kai-lang%Wu%xref no email%1,   Jie%Li%xref no email%1,   Xing-hui%Liu%xref no email%1,   Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,           Jiong%Wu%NULL%0,           Faqi%Wu%NULL%0,           Dajing%Guo%NULL%0,           Linli%Chen%NULL%0,           Zheng%Fang%NULL%0,           Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,           Zhao-Wu%Tao%NULL%0,           Lei%Wang%NULL%0,           Ming-Li%Yuan%NULL%0,           Kui%Liu%NULL%0,           Ling%Zhou%NULL%0,           Shuang%Wei%NULL%0,           Yan%Deng%NULL%0,           Jing%Liu%NULL%0,           Hui-Guo%Liu%NULL%0,           Ming%Yang%NULL%0,           Yi%Hu%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,           Luoqi%Zhou%NULL%1,           Ziwei%Hu%NULL%1,           Shuoqi%Zhang%NULL%1,           Sheng%Yang%NULL%1,           Yu%Tao%NULL%0,           Cuihong%Xie%NULL%1,           Ke%Ma%NULL%0,           Ke%Shang%NULL%1,           Wei%Wang%NULL%0,           Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,           Hui%Li%NULL%0,           Xiao-Xia%Lu%NULL%1,           Han%Xiao%NULL%1,           Jie%Ren%NULL%1,           Fu-Rong%Zhang%792523496@qq.com%1,           Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,           Yi%Xiang%NULL%4,           Wei%Fang%NULL%4,           Yu%Zheng%yuzheng1@cdutcm.edu.cn%4,           Boqun%Li%279685211@qq.com%8,           Boqun%Li%279685211@qq.com%0,           Yanjun%Hu%huyanjun@163.com%4,           Chunhui%Lang%NULL%5,           Daoqiu%Huang%NULL%4,           Qiuyan%Sun%NULL%4,           Yan%Xiong%NULL%0,           Xia%Huang%NULL%4,           Jinglong%Lv%NULL%5,           Yaling%Luo%NULL%4,           Li%Shen%NULL%4,           Haoran%Yang%NULL%4,           Gu%Huang%NULL%4,           Ruishan%Yang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,           Bohan%Yang%NULL%0,           Qianwen%Li%NULL%0,           Lu%Wen%NULL%0,           Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,   Xiaoyan%Chen%xref no email%0,   Yanping%Cai%xref no email%0,   Jia\u2019an%Xia%xref no email%0,   Xing%Zhou%xref no email%0,   Sha%Xu%xref no email%0,   Hanping%Huang%xref no email%0,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%0,   Chunling%Du%xref no email%0,   Yuye%Zhang%xref no email%0,   Juan%Song%xref no email%0,   Sijiao%Wang%xref no email%0,   Yencheng%Chao%xref no email%0,   Zeyong%Yang%xref no email%0,   Jie%Xu%xref no email%0,   Xin%Zhou%xref no email%0,   Dechang%Chen%xref no email%0,   Weining%Xiong%xref no email%0,   Lei%Xu%xref no email%0,   Feng%Zhou%xref no email%0,   Jinjun%Jiang%xref no email%0,   Chunxue%Bai%xref no email%0,   Junhua%Zheng%xref no email%0,   Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,          Cao%Yi-yuan%coreGivesNoEmail%3,          Dong%Xiang%coreGivesNoEmail%3,          Gao%Ya-dong%coreGivesNoEmail%3,          Yan%You-qin%coreGivesNoEmail%3,          Yang%Yi-bin%coreGivesNoEmail%3,          Yuan%Ya-dong%coreGivesNoEmail%3,          Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,    Sean Wei Xiang%Ong%xref no email%0,    Shirin%Kalimuddin%xref no email%0,    Jenny G.%Low%xref no email%0,    Seow Yen%Tan%xref no email%0,    Jiashen%Loh%xref no email%0,    Oon-Tek%Ng%xref no email%0,    Kalisvar%Marimuthu%xref no email%0,    Li Wei%Ang%xref no email%0,    Tze Minn%Mak%xref no email%0,    Sok Kiang%Lau%xref no email%0,    Danielle E.%Anderson%xref no email%0,    Kian Sing%Chan%xref no email%0,    Thean Yen%Tan%xref no email%0,    Tong Yong%Ng%xref no email%0,    Lin%Cui%xref no email%0,    Zubaidah%Said%xref no email%0,    Lalitha%Kurupatham%xref no email%0,    Mark I-Cheng%Chen%xref no email%0,    Monica%Chan%xref no email%0,    Shawn%Vasoo%xref no email%0,    Lin-Fa%Wang%xref no email%0,    Boon Huan%Tan%xref no email%0,    Raymond Tzer Pin%Lin%xref no email%0,    Vernon Jian Ming%Lee%xref no email%0,    Yee-Sin%Leo%xref no email%0,    David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,            Dengju%Li%NULL%0,            Xiong%Wang%NULL%0,            Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,            Yun%Ling%NULL%0,            Yi‐hui‐zhi%Zhang%NULL%1,            Li‐ya%Wei%NULL%1,            Xiao%Chen%NULL%1,            Xu‐mian%Li%NULL%1,            Xuan‐yong%Liu%NULL%1,            Han‐mian%Liu%NULL%1,            Zhi%Guo%guozhi77@126.com%1,            Hua%Ren%renhua2009@hotmail.com%2,            Hua%Ren%renhua2009@hotmail.com%0,            Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,            Kun%Yang%NULL%0,            Kun%Yang%NULL%0,            Wenxia%Wang%NULL%0,            Wenxia%Wang%NULL%0,            Lingyu%Jiang%NULL%0,            Lingyu%Jiang%NULL%0,            Jianxin%Song%songsingsjx@sina.com%0,            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,            Yang%Yang%NULL%0,            Cong%Zhang%NULL%2,            Fengming%Huang%NULL%2,            Fuxiang%Wang%NULL%2,            Jing%Yuan%NULL%0,            Zhaoqin%Wang%NULL%2,            Jinxiu%Li%NULL%2,            Jianming%Li%NULL%2,            Cheng%Feng%NULL%2,            Zheng%Zhang%NULL%0,            Lifei%Wang%NULL%2,            Ling%Peng%NULL%2,            Li%Chen%NULL%2,            Yuhao%Qin%NULL%2,            Dandan%Zhao%NULL%2,            Shuguang%Tan%NULL%2,            Lu%Yin%NULL%3,            Jun%Xu%NULL%2,            Congzhao%Zhou%NULL%2,            Chengyu%Jiang%jiang@pumc.edu.cn%2,            Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,            Tuantuan%Li%NULL%0,            Mingfeng%Han%NULL%0,            Xiuyong%Li%NULL%0,            Dong%Wu%NULL%0,            Yuanhong%Xu%NULL%0,            Yulin%Zhu%NULL%0,            Yan%Liu%NULL%0,            Xiaowu%Wang%wangxiaowu19880218@126.com%0,            Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%13,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%6,            Chun-quan%Ou%NULL%6,            Jian-xing%He%NULL%8,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%8,            David S.C.%Hui%NULL%5,            Bin%Du%NULL%5,            Lan-juan%Li%NULL%5,            Guang%Zeng%NULL%5,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%8,            Chun-li%Tang%NULL%8,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%6,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%8,            Jin-lin%Wang%NULL%5,            Zi-jing%Liang%NULL%5,            Yi-xiang%Peng%NULL%8,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%8,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%8,            Ji-yang%Liu%NULL%8,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%8,            Shao-qin%Qiu%NULL%8,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%8,            Shao-yong%Zhu%NULL%8,            Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,    Lan%Yang%xref no email%1,    Rui%Liu%xref no email%1,    Fang%Liu%xref no email%1,    Kai-lang%Wu%xref no email%1,    Jie%Li%xref no email%1,    Xing-hui%Liu%xref no email%1,    Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,            Jiong%Wu%NULL%0,            Faqi%Wu%NULL%0,            Dajing%Guo%NULL%0,            Linli%Chen%NULL%0,            Zheng%Fang%NULL%0,            Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,            Zhao-Wu%Tao%NULL%0,            Lei%Wang%NULL%0,            Ming-Li%Yuan%NULL%0,            Kui%Liu%NULL%0,            Ling%Zhou%NULL%0,            Shuang%Wei%NULL%0,            Yan%Deng%NULL%0,            Jing%Liu%NULL%0,            Hui-Guo%Liu%NULL%0,            Ming%Yang%NULL%0,            Yi%Hu%NULL%0,            Pei-Fang%Wei%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,            Luoqi%Zhou%NULL%1,            Ziwei%Hu%NULL%1,            Shuoqi%Zhang%NULL%1,            Sheng%Yang%NULL%1,            Yu%Tao%NULL%0,            Cuihong%Xie%NULL%1,            Ke%Ma%NULL%0,            Ke%Shang%NULL%1,            Wei%Wang%NULL%0,            Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,            Hui%Li%NULL%0,            Xiao-Xia%Lu%NULL%1,            Han%Xiao%NULL%1,            Jie%Ren%NULL%1,            Fu-Rong%Zhang%792523496@qq.com%1,            Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,            Yi%Xiang%NULL%3,            Wei%Fang%NULL%3,            Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,            Boqun%Li%279685211@qq.com%6,            Boqun%Li%279685211@qq.com%0,            Yanjun%Hu%huyanjun@163.com%3,            Chunhui%Lang%NULL%4,            Daoqiu%Huang%NULL%3,            Qiuyan%Sun%NULL%3,            Yan%Xiong%NULL%0,            Xia%Huang%NULL%3,            Jinglong%Lv%NULL%4,            Yaling%Luo%NULL%3,            Li%Shen%NULL%3,            Haoran%Yang%NULL%3,            Gu%Huang%NULL%3,            Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,            Bohan%Yang%NULL%0,            Qianwen%Li%NULL%0,            Lu%Wen%NULL%0,            Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,    Xiaoyan%Chen%xref no email%0,    Yanping%Cai%xref no email%0,    Jia\u2019an%Xia%xref no email%0,    Xing%Zhou%xref no email%0,    Sha%Xu%xref no email%0,    Hanping%Huang%xref no email%0,    Li%Zhang%xref no email%0,    Xia%Zhou%xref no email%0,    Chunling%Du%xref no email%0,    Yuye%Zhang%xref no email%0,    Juan%Song%xref no email%0,    Sijiao%Wang%xref no email%0,    Yencheng%Chao%xref no email%0,    Zeyong%Yang%xref no email%0,    Jie%Xu%xref no email%0,    Xin%Zhou%xref no email%0,    Dechang%Chen%xref no email%0,    Weining%Xiong%xref no email%0,    Lei%Xu%xref no email%0,    Feng%Zhou%xref no email%0,    Jinjun%Jiang%xref no email%0,    Chunxue%Bai%xref no email%0,    Junhua%Zheng%xref no email%0,    Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%2,           Dong%Xiang%coreGivesNoEmail%2,           Gao%Ya-dong%coreGivesNoEmail%2,           Yan%You-qin%coreGivesNoEmail%2,           Yang%Yi-bin%coreGivesNoEmail%2,           Yuan%Ya-dong%coreGivesNoEmail%2,           Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1415,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1444,7 +1564,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1473,7 +1593,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1502,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1531,7 +1651,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1560,7 +1680,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1589,7 +1709,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1647,7 +1767,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1676,7 +1796,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1705,7 +1825,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1734,7 +1854,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -1763,7 +1883,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -1792,7 +1912,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -1821,7 +1941,7 @@
         <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -1850,7 +1970,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -1879,7 +1999,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -1908,7 +2028,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -1937,7 +2057,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -1966,7 +2086,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="314">
   <si>
     <t>Doi</t>
   </si>
@@ -1131,6 +1131,148 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%2,           Dong%Xiang%coreGivesNoEmail%2,           Gao%Ya-dong%coreGivesNoEmail%2,           Yan%You-qin%coreGivesNoEmail%2,           Yang%Yi-bin%coreGivesNoEmail%2,           Yuan%Ya-dong%coreGivesNoEmail%2,           Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,     Sean Wei Xiang%Ong%xref no email%0,     Shirin%Kalimuddin%xref no email%0,     Jenny G.%Low%xref no email%0,     Seow Yen%Tan%xref no email%0,     Jiashen%Loh%xref no email%0,     Oon-Tek%Ng%xref no email%0,     Kalisvar%Marimuthu%xref no email%0,     Li Wei%Ang%xref no email%0,     Tze Minn%Mak%xref no email%0,     Sok Kiang%Lau%xref no email%0,     Danielle E.%Anderson%xref no email%0,     Kian Sing%Chan%xref no email%0,     Thean Yen%Tan%xref no email%0,     Tong Yong%Ng%xref no email%0,     Lin%Cui%xref no email%0,     Zubaidah%Said%xref no email%0,     Lalitha%Kurupatham%xref no email%0,     Mark I-Cheng%Chen%xref no email%0,     Monica%Chan%xref no email%0,     Shawn%Vasoo%xref no email%0,     Lin-Fa%Wang%xref no email%0,     Boon Huan%Tan%xref no email%0,     Raymond Tzer Pin%Lin%xref no email%0,     Vernon Jian Ming%Lee%xref no email%0,     Yee-Sin%Leo%xref no email%0,     David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,            Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,             Dengju%Li%NULL%0,             Xiong%Wang%NULL%0,             Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,             Yun%Ling%NULL%0,             Yi‐hui‐zhi%Zhang%NULL%1,             Li‐ya%Wei%NULL%1,             Xiao%Chen%NULL%1,             Xu‐mian%Li%NULL%1,             Xuan‐yong%Liu%NULL%1,             Han‐mian%Liu%NULL%1,             Zhi%Guo%guozhi77@126.com%1,             Hua%Ren%renhua2009@hotmail.com%2,             Hua%Ren%renhua2009@hotmail.com%0,             Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,             Kun%Yang%NULL%0,             Kun%Yang%NULL%0,             Wenxia%Wang%NULL%0,             Wenxia%Wang%NULL%0,             Lingyu%Jiang%NULL%0,             Lingyu%Jiang%NULL%0,             Jianxin%Song%songsingsjx@sina.com%0,             Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,             Yang%Yang%NULL%0,             Cong%Zhang%NULL%2,             Fengming%Huang%NULL%2,             Fuxiang%Wang%NULL%2,             Jing%Yuan%NULL%2,             Zhaoqin%Wang%NULL%2,             Jinxiu%Li%NULL%2,             Jianming%Li%NULL%2,             Cheng%Feng%NULL%2,             Zheng%Zhang%NULL%2,             Lifei%Wang%NULL%2,             Ling%Peng%NULL%2,             Li%Chen%NULL%2,             Yuhao%Qin%NULL%2,             Dandan%Zhao%NULL%2,             Shuguang%Tan%NULL%2,             Lu%Yin%NULL%3,             Jun%Xu%NULL%2,             Congzhao%Zhou%NULL%2,             Chengyu%Jiang%jiang@pumc.edu.cn%2,             Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,             Tuantuan%Li%NULL%0,             Mingfeng%Han%NULL%0,             Xiuyong%Li%NULL%0,             Dong%Wu%NULL%0,             Yuanhong%Xu%NULL%0,             Yulin%Zhu%NULL%0,             Yan%Liu%NULL%0,             Xiaowu%Wang%wangxiaowu19880218@126.com%0,             Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%13,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%6,             Chun-quan%Ou%NULL%6,             Jian-xing%He%NULL%8,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%8,             David S.C.%Hui%NULL%5,             Bin%Du%NULL%5,             Lan-juan%Li%NULL%5,             Guang%Zeng%NULL%5,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%8,             Chun-li%Tang%NULL%8,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%6,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%8,             Jin-lin%Wang%NULL%5,             Zi-jing%Liang%NULL%5,             Yi-xiang%Peng%NULL%8,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%8,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%8,             Ji-yang%Liu%NULL%8,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%8,             Shao-qin%Qiu%NULL%8,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%8,             Shao-yong%Zhu%NULL%8,             Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,     Lan%Yang%xref no email%1,     Rui%Liu%xref no email%1,     Fang%Liu%xref no email%1,     Kai-lang%Wu%xref no email%1,     Jie%Li%xref no email%1,     Xing-hui%Liu%xref no email%1,     Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,             Jiong%Wu%NULL%0,             Faqi%Wu%NULL%0,             Dajing%Guo%NULL%0,             Linli%Chen%NULL%0,             Zheng%Fang%NULL%0,             Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,             Zhao-Wu%Tao%NULL%0,             Lei%Wang%NULL%0,             Ming-Li%Yuan%NULL%0,             Kui%Liu%NULL%0,             Ling%Zhou%NULL%0,             Shuang%Wei%NULL%0,             Yan%Deng%NULL%0,             Jing%Liu%NULL%0,             Hui-Guo%Liu%NULL%0,             Ming%Yang%NULL%0,             Yi%Hu%NULL%0,             Pei-Fang%Wei%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,             Luoqi%Zhou%NULL%1,             Ziwei%Hu%NULL%1,             Shuoqi%Zhang%NULL%1,             Sheng%Yang%NULL%1,             Yu%Tao%NULL%0,             Cuihong%Xie%NULL%1,             Ke%Ma%NULL%0,             Ke%Shang%NULL%1,             Wei%Wang%NULL%0,             Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+An outbreak of coronavirus disease 2019 (COVID-19) caused by SARS-CoV-2 was first detected in Wuhan, Hubei, China.
+ People of all ages are susceptible to SARS-CoV-2 infection.
+ No information on severe pediatric patients with COVID-19 has been reported.
+ We aimed to describe the clinical features of severe pediatric patients with COVID-19.
+Methods
+We included eight severe or critically ill patients with COVID-19 who were treated at the Intensive Care Unit (ICU), Wuhan Children’s Hospital from January 24 to February 24. We collected information including demographic data, symptoms, imaging data, laboratory findings, treatments and clinical outcomes of the patients with severe COVID-19.
+Results
+The onset age of the eight patients ranged from 2 months to 15 years; six were boys.
+ The most common symptoms were polypnea (8/8), followed by fever (6/8) and cough (6/8).
+ Chest imaging showed multiple patch-like shadows in seven patients and ground-glass opacity in six.
+ Laboratory findings revealed normal or increased whole blood counts (7/8), increased C-reactive protein, procalcitonin and lactate dehydrogenase (6/8), and abnormal liver function (4/8).
+ Other findings included decreased CD16 + CD56 (4/8) and Th/Ts*(1/8), increased CD3 (2/8), CD4 (4/8) and CD8 (1/8), IL-6 (2/8), IL-10 (5/8) and IFN-γ (2/8).
+ Treatment modalities were focused on symptomatic and respiratory support.
+ Two critically ill patients underwent invasive mechanical ventilation.
+ Up to February 24, 2020, three patients remained under treatment in ICU, the other five recovered and were discharged home.
+Conclusions
+In this series of severe pediatric patients in Wuhan, polypnea was the most common symptom, followed by fever and cough.
+ Common imaging changes included multiple patch-like shadows and ground-glass opacity; and a cytokine storm was found in these patients, which appeared more serious in critically ill patients.
+</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,             Hui%Li%NULL%0,             Xiao-Xia%Lu%NULL%1,             Han%Xiao%NULL%1,             Jie%Ren%NULL%1,             Fu-Rong%Zhang%792523496@qq.com%1,             Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,             Yi%Xiang%NULL%3,             Wei%Fang%NULL%3,             Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,             Boqun%Li%279685211@qq.com%6,             Boqun%Li%279685211@qq.com%0,             Yanjun%Hu%huyanjun@163.com%3,             Chunhui%Lang%NULL%4,             Daoqiu%Huang%NULL%3,             Qiuyan%Sun%NULL%3,             Yan%Xiong%NULL%0,             Xia%Huang%NULL%3,             Jinglong%Lv%NULL%4,             Yaling%Luo%NULL%3,             Li%Shen%NULL%3,             Haoran%Yang%NULL%3,             Gu%Huang%NULL%3,             Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,             Bohan%Yang%NULL%0,             Qianwen%Li%NULL%0,             Lu%Wen%NULL%0,             Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,     Xiaoyan%Chen%xref no email%0,     Yanping%Cai%xref no email%0,     Jia\u2019an%Xia%xref no email%0,     Xing%Zhou%xref no email%0,     Sha%Xu%xref no email%0,     Hanping%Huang%xref no email%0,     Li%Zhang%xref no email%0,     Xia%Zhou%xref no email%0,     Chunling%Du%xref no email%0,     Yuye%Zhang%xref no email%0,     Juan%Song%xref no email%0,     Sijiao%Wang%xref no email%0,     Yencheng%Chao%xref no email%0,     Zeyong%Yang%xref no email%0,     Jie%Xu%xref no email%0,     Xin%Zhou%xref no email%0,     Dechang%Chen%xref no email%0,     Weining%Xiong%xref no email%0,     Lei%Xu%xref no email%0,     Feng%Zhou%xref no email%0,     Jinjun%Jiang%xref no email%0,     Chunxue%Bai%xref no email%0,     Junhua%Zheng%xref no email%0,     Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,            Cao%Yi-yuan%coreGivesNoEmail%2,            Dong%Xiang%coreGivesNoEmail%2,            Gao%Ya-dong%coreGivesNoEmail%2,            Yan%You-qin%coreGivesNoEmail%2,            Yang%Yi-bin%coreGivesNoEmail%2,            Yuan%Ya-dong%coreGivesNoEmail%2,            Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,      Sean Wei Xiang%Ong%xref no email%0,      Shirin%Kalimuddin%xref no email%0,      Jenny G.%Low%xref no email%0,      Seow Yen%Tan%xref no email%0,      Jiashen%Loh%xref no email%0,      Oon-Tek%Ng%xref no email%0,      Kalisvar%Marimuthu%xref no email%0,      Li Wei%Ang%xref no email%0,      Tze Minn%Mak%xref no email%0,      Sok Kiang%Lau%xref no email%0,      Danielle E.%Anderson%xref no email%0,      Kian Sing%Chan%xref no email%0,      Thean Yen%Tan%xref no email%0,      Tong Yong%Ng%xref no email%0,      Lin%Cui%xref no email%0,      Zubaidah%Said%xref no email%0,      Lalitha%Kurupatham%xref no email%0,      Mark I-Cheng%Chen%xref no email%0,      Monica%Chan%xref no email%0,      Shawn%Vasoo%xref no email%0,      Lin-Fa%Wang%xref no email%0,      Boon Huan%Tan%xref no email%0,      Raymond Tzer Pin%Lin%xref no email%0,      Vernon Jian Ming%Lee%xref no email%0,      Yee-Sin%Leo%xref no email%0,      David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,             Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,              Dengju%Li%NULL%0,              Xiong%Wang%NULL%0,              Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,              Yun%Ling%NULL%0,              Yi‐hui‐zhi%Zhang%NULL%1,              Li‐ya%Wei%NULL%1,              Xiao%Chen%NULL%1,              Xu‐mian%Li%NULL%1,              Xuan‐yong%Liu%NULL%1,              Han‐mian%Liu%NULL%1,              Zhi%Guo%guozhi77@126.com%1,              Hua%Ren%renhua2009@hotmail.com%2,              Hua%Ren%renhua2009@hotmail.com%0,              Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,              Kun%Yang%NULL%0,              Kun%Yang%NULL%0,              Wenxia%Wang%NULL%0,              Wenxia%Wang%NULL%0,              Lingyu%Jiang%NULL%0,              Lingyu%Jiang%NULL%0,              Jianxin%Song%songsingsjx@sina.com%0,              Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,              Yang%Yang%NULL%0,              Cong%Zhang%NULL%2,              Fengming%Huang%NULL%2,              Fuxiang%Wang%NULL%2,              Jing%Yuan%NULL%2,              Zhaoqin%Wang%NULL%2,              Jinxiu%Li%NULL%2,              Jianming%Li%NULL%2,              Cheng%Feng%NULL%2,              Zheng%Zhang%NULL%2,              Lifei%Wang%NULL%2,              Ling%Peng%NULL%2,              Li%Chen%NULL%2,              Yuhao%Qin%NULL%2,              Dandan%Zhao%NULL%2,              Shuguang%Tan%NULL%2,              Lu%Yin%NULL%3,              Jun%Xu%NULL%2,              Congzhao%Zhou%NULL%2,              Chengyu%Jiang%jiang@pumc.edu.cn%2,              Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,              Tuantuan%Li%NULL%0,              Mingfeng%Han%NULL%0,              Xiuyong%Li%NULL%0,              Dong%Wu%NULL%0,              Yuanhong%Xu%NULL%0,              Yulin%Zhu%NULL%0,              Yan%Liu%NULL%0,              Xiaowu%Wang%wangxiaowu19880218@126.com%0,              Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%13,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%6,              Chun-quan%Ou%NULL%6,              Jian-xing%He%NULL%8,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%8,              David S.C.%Hui%NULL%5,              Bin%Du%NULL%5,              Lan-juan%Li%NULL%5,              Guang%Zeng%NULL%5,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%8,              Chun-li%Tang%NULL%8,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%6,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%8,              Jin-lin%Wang%NULL%5,              Zi-jing%Liang%NULL%5,              Yi-xiang%Peng%NULL%8,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%8,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%8,              Ji-yang%Liu%NULL%8,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%8,              Shao-qin%Qiu%NULL%8,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%8,              Shao-yong%Zhu%NULL%8,              Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,      Lan%Yang%xref no email%1,      Rui%Liu%xref no email%1,      Fang%Liu%xref no email%1,      Kai-lang%Wu%xref no email%1,      Jie%Li%xref no email%1,      Xing-hui%Liu%xref no email%1,      Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,              Jiong%Wu%NULL%0,              Faqi%Wu%NULL%0,              Dajing%Guo%NULL%0,              Linli%Chen%NULL%0,              Zheng%Fang%NULL%0,              Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,              Zhao-Wu%Tao%NULL%0,              Lei%Wang%NULL%0,              Ming-Li%Yuan%NULL%0,              Kui%Liu%NULL%0,              Ling%Zhou%NULL%0,              Shuang%Wei%NULL%0,              Yan%Deng%NULL%0,              Jing%Liu%NULL%0,              Hui-Guo%Liu%NULL%0,              Ming%Yang%NULL%0,              Yi%Hu%NULL%0,              Pei-Fang%Wei%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,              Luoqi%Zhou%NULL%1,              Ziwei%Hu%NULL%1,              Shuoqi%Zhang%NULL%1,              Sheng%Yang%NULL%1,              Yu%Tao%NULL%0,              Cuihong%Xie%NULL%1,              Ke%Ma%NULL%0,              Ke%Shang%NULL%1,              Wei%Wang%NULL%0,              Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,              Hui%Li%NULL%0,              Xiao-Xia%Lu%NULL%1,              Han%Xiao%NULL%1,              Jie%Ren%NULL%1,              Fu-Rong%Zhang%792523496@qq.com%1,              Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,              Yi%Xiang%NULL%3,              Wei%Fang%NULL%3,              Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,              Boqun%Li%279685211@qq.com%6,              Boqun%Li%279685211@qq.com%0,              Yanjun%Hu%huyanjun@163.com%3,              Chunhui%Lang%NULL%4,              Daoqiu%Huang%NULL%3,              Qiuyan%Sun%NULL%3,              Yan%Xiong%NULL%0,              Xia%Huang%NULL%3,              Jinglong%Lv%NULL%4,              Yaling%Luo%NULL%3,              Li%Shen%NULL%3,              Haoran%Yang%NULL%3,              Gu%Huang%NULL%3,              Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,              Bohan%Yang%NULL%0,              Qianwen%Li%NULL%0,              Lu%Wen%NULL%0,              Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,      Xiaoyan%Chen%xref no email%0,      Yanping%Cai%xref no email%0,      Jia\u2019an%Xia%xref no email%0,      Xing%Zhou%xref no email%0,      Sha%Xu%xref no email%0,      Hanping%Huang%xref no email%0,      Li%Zhang%xref no email%0,      Xia%Zhou%xref no email%0,      Chunling%Du%xref no email%0,      Yuye%Zhang%xref no email%0,      Juan%Song%xref no email%0,      Sijiao%Wang%xref no email%0,      Yencheng%Chao%xref no email%0,      Zeyong%Yang%xref no email%0,      Jie%Xu%xref no email%0,      Xin%Zhou%xref no email%0,      Dechang%Chen%xref no email%0,      Weining%Xiong%xref no email%0,      Lei%Xu%xref no email%0,      Feng%Zhou%xref no email%0,      Jinjun%Jiang%xref no email%0,      Chunxue%Bai%xref no email%0,      Junhua%Zheng%xref no email%0,      Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,             Cao%Yi-yuan%coreGivesNoEmail%2,             Dong%Xiang%coreGivesNoEmail%2,             Gao%Ya-dong%coreGivesNoEmail%2,             Yan%You-qin%coreGivesNoEmail%2,             Yang%Yi-bin%coreGivesNoEmail%2,             Yuan%Ya-dong%coreGivesNoEmail%2,             Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1648,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1535,7 +1677,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1564,7 +1706,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1593,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1622,7 +1764,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1651,7 +1793,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1680,7 +1822,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1709,7 +1851,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1767,7 +1909,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1796,7 +1938,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1825,7 +1967,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1854,7 +1996,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -1883,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -1912,7 +2054,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -1938,10 +2080,10 @@
         <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -1970,7 +2112,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -1999,7 +2141,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2028,7 +2170,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2057,7 +2199,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2086,7 +2228,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="334">
   <si>
     <t>Doi</t>
   </si>
@@ -1273,6 +1273,66 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,             Cao%Yi-yuan%coreGivesNoEmail%2,             Dong%Xiang%coreGivesNoEmail%2,             Gao%Ya-dong%coreGivesNoEmail%2,             Yan%You-qin%coreGivesNoEmail%2,             Yang%Yi-bin%coreGivesNoEmail%2,             Yuan%Ya-dong%coreGivesNoEmail%2,             Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,       Sean Wei Xiang%Ong%xref no email%0,       Shirin%Kalimuddin%xref no email%0,       Jenny G.%Low%xref no email%0,       Seow Yen%Tan%xref no email%0,       Jiashen%Loh%xref no email%0,       Oon-Tek%Ng%xref no email%0,       Kalisvar%Marimuthu%xref no email%0,       Li Wei%Ang%xref no email%0,       Tze Minn%Mak%xref no email%0,       Sok Kiang%Lau%xref no email%0,       Danielle E.%Anderson%xref no email%0,       Kian Sing%Chan%xref no email%0,       Thean Yen%Tan%xref no email%0,       Tong Yong%Ng%xref no email%0,       Lin%Cui%xref no email%0,       Zubaidah%Said%xref no email%0,       Lalitha%Kurupatham%xref no email%0,       Mark I-Cheng%Chen%xref no email%0,       Monica%Chan%xref no email%0,       Shawn%Vasoo%xref no email%0,       Lin-Fa%Wang%xref no email%0,       Boon Huan%Tan%xref no email%0,       Raymond Tzer Pin%Lin%xref no email%0,       Vernon Jian Ming%Lee%xref no email%0,       Yee-Sin%Leo%xref no email%0,       David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,              Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,               Dengju%Li%NULL%0,               Xiong%Wang%NULL%0,               Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,               Yun%Ling%NULL%0,               Yi‐hui‐zhi%Zhang%NULL%1,               Li‐ya%Wei%NULL%1,               Xiao%Chen%NULL%1,               Xu‐mian%Li%NULL%1,               Xuan‐yong%Liu%NULL%1,               Han‐mian%Liu%NULL%1,               Zhi%Guo%guozhi77@126.com%1,               Hua%Ren%renhua2009@hotmail.com%2,               Hua%Ren%renhua2009@hotmail.com%0,               Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,               Kun%Yang%NULL%0,               Kun%Yang%NULL%0,               Wenxia%Wang%NULL%0,               Wenxia%Wang%NULL%0,               Lingyu%Jiang%NULL%0,               Lingyu%Jiang%NULL%0,               Jianxin%Song%songsingsjx@sina.com%0,               Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,               Yang%Yang%NULL%0,               Cong%Zhang%NULL%2,               Fengming%Huang%NULL%2,               Fuxiang%Wang%NULL%2,               Jing%Yuan%NULL%2,               Zhaoqin%Wang%NULL%2,               Jinxiu%Li%NULL%2,               Jianming%Li%NULL%2,               Cheng%Feng%NULL%2,               Zheng%Zhang%NULL%2,               Lifei%Wang%NULL%2,               Ling%Peng%NULL%2,               Li%Chen%NULL%2,               Yuhao%Qin%NULL%2,               Dandan%Zhao%NULL%2,               Shuguang%Tan%NULL%2,               Lu%Yin%NULL%3,               Jun%Xu%NULL%2,               Congzhao%Zhou%NULL%2,               Chengyu%Jiang%jiang@pumc.edu.cn%2,               Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,               Tuantuan%Li%NULL%0,               Mingfeng%Han%NULL%0,               Xiuyong%Li%NULL%0,               Dong%Wu%NULL%0,               Yuanhong%Xu%NULL%0,               Yulin%Zhu%NULL%0,               Yan%Liu%NULL%0,               Xiaowu%Wang%wangxiaowu19880218@126.com%0,               Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%13,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%6,               Chun-quan%Ou%NULL%6,               Jian-xing%He%NULL%8,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%8,               David S.C.%Hui%NULL%5,               Bin%Du%NULL%5,               Lan-juan%Li%NULL%5,               Guang%Zeng%NULL%5,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%8,               Chun-li%Tang%NULL%8,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%6,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%8,               Jin-lin%Wang%NULL%5,               Zi-jing%Liang%NULL%5,               Yi-xiang%Peng%NULL%8,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%8,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%8,               Ji-yang%Liu%NULL%8,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%8,               Shao-qin%Qiu%NULL%8,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%8,               Shao-yong%Zhu%NULL%8,               Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,       Lan%Yang%xref no email%1,       Rui%Liu%xref no email%1,       Fang%Liu%xref no email%1,       Kai-lang%Wu%xref no email%1,       Jie%Li%xref no email%1,       Xing-hui%Liu%xref no email%1,       Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,               Jiong%Wu%NULL%0,               Faqi%Wu%NULL%0,               Dajing%Guo%NULL%0,               Linli%Chen%NULL%0,               Zheng%Fang%NULL%0,               Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,               Zhao-Wu%Tao%NULL%0,               Lei%Wang%NULL%0,               Ming-Li%Yuan%NULL%0,               Kui%Liu%NULL%0,               Ling%Zhou%NULL%0,               Shuang%Wei%NULL%0,               Yan%Deng%NULL%0,               Jing%Liu%NULL%0,               Hui-Guo%Liu%NULL%0,               Ming%Yang%NULL%0,               Yi%Hu%NULL%0,               Pei-Fang%Wei%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,               Luoqi%Zhou%NULL%1,               Ziwei%Hu%NULL%1,               Shuoqi%Zhang%NULL%1,               Sheng%Yang%NULL%1,               Yu%Tao%NULL%0,               Cuihong%Xie%NULL%1,               Ke%Ma%NULL%0,               Ke%Shang%NULL%1,               Wei%Wang%NULL%0,               Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,               Hui%Li%NULL%0,               Xiao-Xia%Lu%NULL%1,               Han%Xiao%NULL%1,               Jie%Ren%NULL%1,               Fu-Rong%Zhang%792523496@qq.com%1,               Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,               Yi%Xiang%NULL%3,               Wei%Fang%NULL%3,               Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,               Boqun%Li%279685211@qq.com%6,               Boqun%Li%279685211@qq.com%0,               Yanjun%Hu%huyanjun@163.com%3,               Chunhui%Lang%NULL%4,               Daoqiu%Huang%NULL%3,               Qiuyan%Sun%NULL%3,               Yan%Xiong%NULL%0,               Xia%Huang%NULL%3,               Jinglong%Lv%NULL%4,               Yaling%Luo%NULL%3,               Li%Shen%NULL%3,               Haoran%Yang%NULL%3,               Gu%Huang%NULL%3,               Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,               Bohan%Yang%NULL%0,               Qianwen%Li%NULL%0,               Lu%Wen%NULL%0,               Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,       Xiaoyan%Chen%xref no email%0,       Yanping%Cai%xref no email%0,       Jia\u2019an%Xia%xref no email%0,       Xing%Zhou%xref no email%0,       Sha%Xu%xref no email%0,       Hanping%Huang%xref no email%0,       Li%Zhang%xref no email%0,       Xia%Zhou%xref no email%0,       Chunling%Du%xref no email%0,       Yuye%Zhang%xref no email%0,       Juan%Song%xref no email%0,       Sijiao%Wang%xref no email%0,       Yencheng%Chao%xref no email%0,       Zeyong%Yang%xref no email%0,       Jie%Xu%xref no email%0,       Xin%Zhou%xref no email%0,       Dechang%Chen%xref no email%0,       Weining%Xiong%xref no email%0,       Lei%Xu%xref no email%0,       Feng%Zhou%xref no email%0,       Jinjun%Jiang%xref no email%0,       Chunxue%Bai%xref no email%0,       Junhua%Zheng%xref no email%0,       Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,              Cao%Yi-yuan%coreGivesNoEmail%2,              Dong%Xiang%coreGivesNoEmail%2,              Gao%Ya-dong%coreGivesNoEmail%2,              Yan%You-qin%coreGivesNoEmail%2,              Yang%Yi-bin%coreGivesNoEmail%2,              Yuan%Ya-dong%coreGivesNoEmail%2,              Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1708,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1677,7 +1737,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1706,7 +1766,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1735,7 +1795,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1764,7 +1824,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1793,7 +1853,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1822,7 +1882,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1851,7 +1911,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1909,7 +1969,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1938,7 +1998,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1967,7 +2027,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -1996,7 +2056,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2025,7 +2085,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2054,7 +2114,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2083,7 +2143,7 @@
         <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2112,7 +2172,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2141,7 +2201,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2170,7 +2230,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2199,7 +2259,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2228,7 +2288,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="354">
   <si>
     <t>Doi</t>
   </si>
@@ -1333,6 +1333,66 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,              Cao%Yi-yuan%coreGivesNoEmail%2,              Dong%Xiang%coreGivesNoEmail%2,              Gao%Ya-dong%coreGivesNoEmail%2,              Yan%You-qin%coreGivesNoEmail%2,              Yang%Yi-bin%coreGivesNoEmail%2,              Yuan%Ya-dong%coreGivesNoEmail%2,              Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,        Sean Wei Xiang%Ong%xref no email%0,        Shirin%Kalimuddin%xref no email%0,        Jenny G.%Low%xref no email%0,        Seow Yen%Tan%xref no email%0,        Jiashen%Loh%xref no email%0,        Oon-Tek%Ng%xref no email%0,        Kalisvar%Marimuthu%xref no email%0,        Li Wei%Ang%xref no email%0,        Tze Minn%Mak%xref no email%0,        Sok Kiang%Lau%xref no email%0,        Danielle E.%Anderson%xref no email%0,        Kian Sing%Chan%xref no email%0,        Thean Yen%Tan%xref no email%0,        Tong Yong%Ng%xref no email%0,        Lin%Cui%xref no email%0,        Zubaidah%Said%xref no email%0,        Lalitha%Kurupatham%xref no email%0,        Mark I-Cheng%Chen%xref no email%0,        Monica%Chan%xref no email%0,        Shawn%Vasoo%xref no email%0,        Lin-Fa%Wang%xref no email%0,        Boon Huan%Tan%xref no email%0,        Raymond Tzer Pin%Lin%xref no email%0,        Vernon Jian Ming%Lee%xref no email%0,        Yee-Sin%Leo%xref no email%0,        David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,               Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                Dengju%Li%NULL%0,                Xiong%Wang%NULL%0,                Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                Yun%Ling%NULL%0,                Yi‐hui‐zhi%Zhang%NULL%1,                Li‐ya%Wei%NULL%1,                Xiao%Chen%NULL%1,                Xu‐mian%Li%NULL%1,                Xuan‐yong%Liu%NULL%1,                Han‐mian%Liu%NULL%1,                Zhi%Guo%guozhi77@126.com%1,                Hua%Ren%renhua2009@hotmail.com%2,                Hua%Ren%renhua2009@hotmail.com%0,                Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                Kun%Yang%NULL%0,                Kun%Yang%NULL%0,                Wenxia%Wang%NULL%0,                Wenxia%Wang%NULL%0,                Lingyu%Jiang%NULL%0,                Lingyu%Jiang%NULL%0,                Jianxin%Song%songsingsjx@sina.com%0,                Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                Yang%Yang%NULL%0,                Cong%Zhang%NULL%2,                Fengming%Huang%NULL%2,                Fuxiang%Wang%NULL%2,                Jing%Yuan%NULL%2,                Zhaoqin%Wang%NULL%2,                Jinxiu%Li%NULL%2,                Jianming%Li%NULL%2,                Cheng%Feng%NULL%2,                Zheng%Zhang%NULL%2,                Lifei%Wang%NULL%2,                Ling%Peng%NULL%2,                Li%Chen%NULL%2,                Yuhao%Qin%NULL%2,                Dandan%Zhao%NULL%2,                Shuguang%Tan%NULL%2,                Lu%Yin%NULL%3,                Jun%Xu%NULL%2,                Congzhao%Zhou%NULL%2,                Chengyu%Jiang%jiang@pumc.edu.cn%2,                Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                Tuantuan%Li%NULL%0,                Mingfeng%Han%NULL%0,                Xiuyong%Li%NULL%0,                Dong%Wu%NULL%0,                Yuanhong%Xu%NULL%0,                Yulin%Zhu%NULL%0,                Yan%Liu%NULL%0,                Xiaowu%Wang%wangxiaowu19880218@126.com%0,                Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%13,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%6,                Chun-quan%Ou%NULL%6,                Jian-xing%He%NULL%8,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%8,                David S.C.%Hui%NULL%5,                Bin%Du%NULL%5,                Lan-juan%Li%NULL%5,                Guang%Zeng%NULL%5,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%8,                Chun-li%Tang%NULL%8,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%6,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%8,                Jin-lin%Wang%NULL%5,                Zi-jing%Liang%NULL%5,                Yi-xiang%Peng%NULL%8,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%8,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%8,                Ji-yang%Liu%NULL%8,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%8,                Shao-qin%Qiu%NULL%8,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%8,                Shao-yong%Zhu%NULL%8,                Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,        Lan%Yang%xref no email%1,        Rui%Liu%xref no email%1,        Fang%Liu%xref no email%1,        Kai-lang%Wu%xref no email%1,        Jie%Li%xref no email%1,        Xing-hui%Liu%xref no email%1,        Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                Jiong%Wu%NULL%0,                Faqi%Wu%NULL%0,                Dajing%Guo%NULL%0,                Linli%Chen%NULL%0,                Zheng%Fang%NULL%0,                Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                Zhao-Wu%Tao%NULL%0,                Lei%Wang%NULL%0,                Ming-Li%Yuan%NULL%0,                Kui%Liu%NULL%0,                Ling%Zhou%NULL%0,                Shuang%Wei%NULL%0,                Yan%Deng%NULL%0,                Jing%Liu%NULL%0,                Hui-Guo%Liu%NULL%0,                Ming%Yang%NULL%0,                Yi%Hu%NULL%0,                Pei-Fang%Wei%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                Luoqi%Zhou%NULL%1,                Ziwei%Hu%NULL%1,                Shuoqi%Zhang%NULL%1,                Sheng%Yang%NULL%1,                Yu%Tao%NULL%0,                Cuihong%Xie%NULL%1,                Ke%Ma%NULL%0,                Ke%Shang%NULL%1,                Wei%Wang%NULL%0,                Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                Hui%Li%NULL%0,                Xiao-Xia%Lu%NULL%1,                Han%Xiao%NULL%1,                Jie%Ren%NULL%1,                Fu-Rong%Zhang%792523496@qq.com%1,                Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                Yi%Xiang%NULL%3,                Wei%Fang%NULL%3,                Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                Boqun%Li%279685211@qq.com%6,                Boqun%Li%279685211@qq.com%0,                Yanjun%Hu%huyanjun@163.com%3,                Chunhui%Lang%NULL%4,                Daoqiu%Huang%NULL%3,                Qiuyan%Sun%NULL%3,                Yan%Xiong%NULL%0,                Xia%Huang%NULL%3,                Jinglong%Lv%NULL%4,                Yaling%Luo%NULL%3,                Li%Shen%NULL%3,                Haoran%Yang%NULL%3,                Gu%Huang%NULL%3,                Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                Bohan%Yang%NULL%0,                Qianwen%Li%NULL%0,                Lu%Wen%NULL%0,                Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,        Xiaoyan%Chen%xref no email%0,        Yanping%Cai%xref no email%0,        Jia\u2019an%Xia%xref no email%0,        Xing%Zhou%xref no email%0,        Sha%Xu%xref no email%0,        Hanping%Huang%xref no email%0,        Li%Zhang%xref no email%0,        Xia%Zhou%xref no email%0,        Chunling%Du%xref no email%0,        Yuye%Zhang%xref no email%0,        Juan%Song%xref no email%0,        Sijiao%Wang%xref no email%0,        Yencheng%Chao%xref no email%0,        Zeyong%Yang%xref no email%0,        Jie%Xu%xref no email%0,        Xin%Zhou%xref no email%0,        Dechang%Chen%xref no email%0,        Weining%Xiong%xref no email%0,        Lei%Xu%xref no email%0,        Feng%Zhou%xref no email%0,        Jinjun%Jiang%xref no email%0,        Chunxue%Bai%xref no email%0,        Junhua%Zheng%xref no email%0,        Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,               Cao%Yi-yuan%coreGivesNoEmail%2,               Dong%Xiang%coreGivesNoEmail%2,               Gao%Ya-dong%coreGivesNoEmail%2,               Yan%You-qin%coreGivesNoEmail%2,               Yang%Yi-bin%coreGivesNoEmail%2,               Yuan%Ya-dong%coreGivesNoEmail%2,               Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1768,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1737,7 +1797,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1766,7 +1826,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1795,7 +1855,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1824,7 +1884,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1853,7 +1913,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1882,7 +1942,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1911,7 +1971,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1969,7 +2029,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -1998,7 +2058,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2027,7 +2087,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2056,7 +2116,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2085,7 +2145,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2114,7 +2174,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2143,7 +2203,7 @@
         <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2172,7 +2232,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2201,7 +2261,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2230,7 +2290,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2259,7 +2319,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2288,7 +2348,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="394">
   <si>
     <t>Doi</t>
   </si>
@@ -1393,6 +1393,126 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,               Cao%Yi-yuan%coreGivesNoEmail%2,               Dong%Xiang%coreGivesNoEmail%2,               Gao%Ya-dong%coreGivesNoEmail%2,               Yan%You-qin%coreGivesNoEmail%2,               Yang%Yi-bin%coreGivesNoEmail%2,               Yuan%Ya-dong%coreGivesNoEmail%2,               Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,         Sean Wei Xiang%Ong%xref no email%0,         Shirin%Kalimuddin%xref no email%0,         Jenny G.%Low%xref no email%0,         Seow Yen%Tan%xref no email%0,         Jiashen%Loh%xref no email%0,         Oon-Tek%Ng%xref no email%0,         Kalisvar%Marimuthu%xref no email%0,         Li Wei%Ang%xref no email%0,         Tze Minn%Mak%xref no email%0,         Sok Kiang%Lau%xref no email%0,         Danielle E.%Anderson%xref no email%0,         Kian Sing%Chan%xref no email%0,         Thean Yen%Tan%xref no email%0,         Tong Yong%Ng%xref no email%0,         Lin%Cui%xref no email%0,         Zubaidah%Said%xref no email%0,         Lalitha%Kurupatham%xref no email%0,         Mark I-Cheng%Chen%xref no email%0,         Monica%Chan%xref no email%0,         Shawn%Vasoo%xref no email%0,         Lin-Fa%Wang%xref no email%0,         Boon Huan%Tan%xref no email%0,         Raymond Tzer Pin%Lin%xref no email%0,         Vernon Jian Ming%Lee%xref no email%0,         Yee-Sin%Leo%xref no email%0,         David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                 Dengju%Li%NULL%0,                 Xiong%Wang%NULL%0,                 Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                 Yun%Ling%NULL%0,                 Yi‐hui‐zhi%Zhang%NULL%1,                 Li‐ya%Wei%NULL%1,                 Xiao%Chen%NULL%1,                 Xu‐mian%Li%NULL%1,                 Xuan‐yong%Liu%NULL%1,                 Han‐mian%Liu%NULL%1,                 Zhi%Guo%guozhi77@126.com%1,                 Hua%Ren%renhua2009@hotmail.com%2,                 Hua%Ren%renhua2009@hotmail.com%0,                 Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                 Kun%Yang%NULL%0,                 Kun%Yang%NULL%0,                 Wenxia%Wang%NULL%0,                 Wenxia%Wang%NULL%0,                 Lingyu%Jiang%NULL%0,                 Lingyu%Jiang%NULL%0,                 Jianxin%Song%songsingsjx@sina.com%0,                 Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                 Yang%Yang%NULL%0,                 Cong%Zhang%NULL%2,                 Fengming%Huang%NULL%2,                 Fuxiang%Wang%NULL%2,                 Jing%Yuan%NULL%2,                 Zhaoqin%Wang%NULL%2,                 Jinxiu%Li%NULL%2,                 Jianming%Li%NULL%2,                 Cheng%Feng%NULL%2,                 Zheng%Zhang%NULL%2,                 Lifei%Wang%NULL%2,                 Ling%Peng%NULL%2,                 Li%Chen%NULL%2,                 Yuhao%Qin%NULL%2,                 Dandan%Zhao%NULL%2,                 Shuguang%Tan%NULL%2,                 Lu%Yin%NULL%3,                 Jun%Xu%NULL%2,                 Congzhao%Zhou%NULL%2,                 Chengyu%Jiang%jiang@pumc.edu.cn%2,                 Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                 Tuantuan%Li%NULL%0,                 Mingfeng%Han%NULL%0,                 Xiuyong%Li%NULL%0,                 Dong%Wu%NULL%0,                 Yuanhong%Xu%NULL%0,                 Yulin%Zhu%NULL%0,                 Yan%Liu%NULL%0,                 Xiaowu%Wang%wangxiaowu19880218@126.com%0,                 Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%13,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%6,                 Chun-quan%Ou%NULL%6,                 Jian-xing%He%NULL%8,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%8,                 David S.C.%Hui%NULL%5,                 Bin%Du%NULL%5,                 Lan-juan%Li%NULL%5,                 Guang%Zeng%NULL%5,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%8,                 Chun-li%Tang%NULL%8,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%6,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%8,                 Jin-lin%Wang%NULL%5,                 Zi-jing%Liang%NULL%5,                 Yi-xiang%Peng%NULL%8,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%8,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%8,                 Ji-yang%Liu%NULL%8,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%8,                 Shao-qin%Qiu%NULL%8,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%8,                 Shao-yong%Zhu%NULL%8,                 Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,         Lan%Yang%xref no email%1,         Rui%Liu%xref no email%1,         Fang%Liu%xref no email%1,         Kai-lang%Wu%xref no email%1,         Jie%Li%xref no email%1,         Xing-hui%Liu%xref no email%1,         Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                 Jiong%Wu%NULL%0,                 Faqi%Wu%NULL%0,                 Dajing%Guo%NULL%0,                 Linli%Chen%NULL%0,                 Zheng%Fang%NULL%0,                 Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                 Zhao-Wu%Tao%NULL%0,                 Lei%Wang%NULL%0,                 Ming-Li%Yuan%NULL%0,                 Kui%Liu%NULL%0,                 Ling%Zhou%NULL%0,                 Shuang%Wei%NULL%0,                 Yan%Deng%NULL%0,                 Jing%Liu%NULL%0,                 Hui-Guo%Liu%NULL%0,                 Ming%Yang%NULL%0,                 Yi%Hu%NULL%0,                 Pei-Fang%Wei%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                 Luoqi%Zhou%NULL%1,                 Ziwei%Hu%NULL%1,                 Shuoqi%Zhang%NULL%1,                 Sheng%Yang%NULL%1,                 Yu%Tao%NULL%0,                 Cuihong%Xie%NULL%1,                 Ke%Ma%NULL%0,                 Ke%Shang%NULL%1,                 Wei%Wang%NULL%0,                 Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                 Hui%Li%NULL%0,                 Xiao-Xia%Lu%NULL%1,                 Han%Xiao%NULL%1,                 Jie%Ren%NULL%1,                 Fu-Rong%Zhang%792523496@qq.com%1,                 Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                 Yi%Xiang%NULL%3,                 Wei%Fang%NULL%3,                 Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                 Boqun%Li%279685211@qq.com%6,                 Boqun%Li%279685211@qq.com%0,                 Yanjun%Hu%huyanjun@163.com%3,                 Chunhui%Lang%NULL%4,                 Daoqiu%Huang%NULL%3,                 Qiuyan%Sun%NULL%3,                 Yan%Xiong%NULL%0,                 Xia%Huang%NULL%3,                 Jinglong%Lv%NULL%4,                 Yaling%Luo%NULL%3,                 Li%Shen%NULL%3,                 Haoran%Yang%NULL%3,                 Gu%Huang%NULL%3,                 Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                 Bohan%Yang%NULL%0,                 Qianwen%Li%NULL%0,                 Lu%Wen%NULL%0,                 Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,         Xiaoyan%Chen%xref no email%0,         Yanping%Cai%xref no email%0,         Jia\u2019an%Xia%xref no email%0,         Xing%Zhou%xref no email%0,         Sha%Xu%xref no email%0,         Hanping%Huang%xref no email%0,         Li%Zhang%xref no email%0,         Xia%Zhou%xref no email%0,         Chunling%Du%xref no email%0,         Yuye%Zhang%xref no email%0,         Juan%Song%xref no email%0,         Sijiao%Wang%xref no email%0,         Yencheng%Chao%xref no email%0,         Zeyong%Yang%xref no email%0,         Jie%Xu%xref no email%0,         Xin%Zhou%xref no email%0,         Dechang%Chen%xref no email%0,         Weining%Xiong%xref no email%0,         Lei%Xu%xref no email%0,         Feng%Zhou%xref no email%0,         Jinjun%Jiang%xref no email%0,         Chunxue%Bai%xref no email%0,         Junhua%Zheng%xref no email%0,         Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                Cao%Yi-yuan%coreGivesNoEmail%2,                Dong%Xiang%coreGivesNoEmail%2,                Gao%Ya-dong%coreGivesNoEmail%2,                Yan%You-qin%coreGivesNoEmail%2,                Yang%Yi-bin%coreGivesNoEmail%2,                Yuan%Ya-dong%coreGivesNoEmail%2,                Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,          Sean Wei Xiang%Ong%xref no email%0,          Shirin%Kalimuddin%xref no email%0,          Jenny G.%Low%xref no email%0,          Seow Yen%Tan%xref no email%0,          Jiashen%Loh%xref no email%0,          Oon-Tek%Ng%xref no email%0,          Kalisvar%Marimuthu%xref no email%0,          Li Wei%Ang%xref no email%0,          Tze Minn%Mak%xref no email%0,          Sok Kiang%Lau%xref no email%0,          Danielle E.%Anderson%xref no email%0,          Kian Sing%Chan%xref no email%0,          Thean Yen%Tan%xref no email%0,          Tong Yong%Ng%xref no email%0,          Lin%Cui%xref no email%0,          Zubaidah%Said%xref no email%0,          Lalitha%Kurupatham%xref no email%0,          Mark I-Cheng%Chen%xref no email%0,          Monica%Chan%xref no email%0,          Shawn%Vasoo%xref no email%0,          Lin-Fa%Wang%xref no email%0,          Boon Huan%Tan%xref no email%0,          Raymond Tzer Pin%Lin%xref no email%0,          Vernon Jian Ming%Lee%xref no email%0,          Yee-Sin%Leo%xref no email%0,          David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                 Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                  Dengju%Li%NULL%0,                  Xiong%Wang%NULL%0,                  Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                  Yun%Ling%NULL%0,                  Yi‐hui‐zhi%Zhang%NULL%1,                  Li‐ya%Wei%NULL%1,                  Xiao%Chen%NULL%1,                  Xu‐mian%Li%NULL%1,                  Xuan‐yong%Liu%NULL%1,                  Han‐mian%Liu%NULL%1,                  Zhi%Guo%guozhi77@126.com%1,                  Hua%Ren%renhua2009@hotmail.com%2,                  Hua%Ren%renhua2009@hotmail.com%0,                  Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                  Kun%Yang%NULL%0,                  Kun%Yang%NULL%0,                  Wenxia%Wang%NULL%0,                  Wenxia%Wang%NULL%0,                  Lingyu%Jiang%NULL%0,                  Lingyu%Jiang%NULL%0,                  Jianxin%Song%songsingsjx@sina.com%0,                  Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                  Yang%Yang%NULL%0,                  Cong%Zhang%NULL%2,                  Fengming%Huang%NULL%2,                  Fuxiang%Wang%NULL%2,                  Jing%Yuan%NULL%2,                  Zhaoqin%Wang%NULL%2,                  Jinxiu%Li%NULL%2,                  Jianming%Li%NULL%2,                  Cheng%Feng%NULL%2,                  Zheng%Zhang%NULL%2,                  Lifei%Wang%NULL%2,                  Ling%Peng%NULL%2,                  Li%Chen%NULL%2,                  Yuhao%Qin%NULL%2,                  Dandan%Zhao%NULL%2,                  Shuguang%Tan%NULL%2,                  Lu%Yin%NULL%3,                  Jun%Xu%NULL%2,                  Congzhao%Zhou%NULL%2,                  Chengyu%Jiang%jiang@pumc.edu.cn%2,                  Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                  Tuantuan%Li%NULL%0,                  Mingfeng%Han%NULL%0,                  Xiuyong%Li%NULL%0,                  Dong%Wu%NULL%0,                  Yuanhong%Xu%NULL%0,                  Yulin%Zhu%NULL%0,                  Yan%Liu%NULL%0,                  Xiaowu%Wang%wangxiaowu19880218@126.com%0,                  Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%13,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%6,                  Chun-quan%Ou%NULL%6,                  Jian-xing%He%NULL%8,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%8,                  David S.C.%Hui%NULL%5,                  Bin%Du%NULL%5,                  Lan-juan%Li%NULL%5,                  Guang%Zeng%NULL%5,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%8,                  Chun-li%Tang%NULL%8,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%6,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%8,                  Jin-lin%Wang%NULL%5,                  Zi-jing%Liang%NULL%5,                  Yi-xiang%Peng%NULL%8,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%8,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%8,                  Ji-yang%Liu%NULL%8,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%8,                  Shao-qin%Qiu%NULL%8,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%8,                  Shao-yong%Zhu%NULL%8,                  Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,          Lan%Yang%xref no email%1,          Rui%Liu%xref no email%1,          Fang%Liu%xref no email%1,          Kai-lang%Wu%xref no email%1,          Jie%Li%xref no email%1,          Xing-hui%Liu%xref no email%1,          Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                  Jiong%Wu%NULL%0,                  Faqi%Wu%NULL%0,                  Dajing%Guo%NULL%0,                  Linli%Chen%NULL%0,                  Zheng%Fang%NULL%0,                  Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                  Zhao-Wu%Tao%NULL%0,                  Lei%Wang%NULL%0,                  Ming-Li%Yuan%NULL%0,                  Kui%Liu%NULL%0,                  Ling%Zhou%NULL%0,                  Shuang%Wei%NULL%0,                  Yan%Deng%NULL%0,                  Jing%Liu%NULL%0,                  Hui-Guo%Liu%NULL%0,                  Ming%Yang%NULL%0,                  Yi%Hu%NULL%0,                  Pei-Fang%Wei%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                  Luoqi%Zhou%NULL%1,                  Ziwei%Hu%NULL%1,                  Shuoqi%Zhang%NULL%1,                  Sheng%Yang%NULL%1,                  Yu%Tao%NULL%0,                  Cuihong%Xie%NULL%1,                  Ke%Ma%NULL%0,                  Ke%Shang%NULL%1,                  Wei%Wang%NULL%0,                  Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                  Hui%Li%NULL%0,                  Xiao-Xia%Lu%NULL%1,                  Han%Xiao%NULL%1,                  Jie%Ren%NULL%1,                  Fu-Rong%Zhang%792523496@qq.com%1,                  Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                  Yi%Xiang%NULL%3,                  Wei%Fang%NULL%3,                  Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                  Boqun%Li%279685211@qq.com%6,                  Boqun%Li%279685211@qq.com%0,                  Yanjun%Hu%huyanjun@163.com%3,                  Chunhui%Lang%NULL%4,                  Daoqiu%Huang%NULL%3,                  Qiuyan%Sun%NULL%3,                  Yan%Xiong%NULL%0,                  Xia%Huang%NULL%3,                  Jinglong%Lv%NULL%4,                  Yaling%Luo%NULL%3,                  Li%Shen%NULL%3,                  Haoran%Yang%NULL%3,                  Gu%Huang%NULL%3,                  Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                  Bohan%Yang%NULL%0,                  Qianwen%Li%NULL%0,                  Lu%Wen%NULL%0,                  Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,          Xiaoyan%Chen%xref no email%0,          Yanping%Cai%xref no email%0,          Jia\u2019an%Xia%xref no email%0,          Xing%Zhou%xref no email%0,          Sha%Xu%xref no email%0,          Hanping%Huang%xref no email%0,          Li%Zhang%xref no email%0,          Xia%Zhou%xref no email%0,          Chunling%Du%xref no email%0,          Yuye%Zhang%xref no email%0,          Juan%Song%xref no email%0,          Sijiao%Wang%xref no email%0,          Yencheng%Chao%xref no email%0,          Zeyong%Yang%xref no email%0,          Jie%Xu%xref no email%0,          Xin%Zhou%xref no email%0,          Dechang%Chen%xref no email%0,          Weining%Xiong%xref no email%0,          Lei%Xu%xref no email%0,          Feng%Zhou%xref no email%0,          Jinjun%Jiang%xref no email%0,          Chunxue%Bai%xref no email%0,          Junhua%Zheng%xref no email%0,          Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                 Cao%Yi-yuan%coreGivesNoEmail%2,                 Dong%Xiang%coreGivesNoEmail%2,                 Gao%Ya-dong%coreGivesNoEmail%2,                 Yan%You-qin%coreGivesNoEmail%2,                 Yang%Yi-bin%coreGivesNoEmail%2,                 Yuan%Ya-dong%coreGivesNoEmail%2,                 Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1888,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1797,7 +1917,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1826,7 +1946,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1855,7 +1975,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1884,7 +2004,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1913,7 +2033,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1942,7 +2062,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -1971,7 +2091,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2029,7 +2149,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2058,7 +2178,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2087,7 +2207,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2116,7 +2236,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2145,7 +2265,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2174,7 +2294,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2203,7 +2323,7 @@
         <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2232,7 +2352,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2261,7 +2381,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2290,7 +2410,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2319,7 +2439,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2348,7 +2468,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="414">
   <si>
     <t>Doi</t>
   </si>
@@ -1513,6 +1513,66 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                 Cao%Yi-yuan%coreGivesNoEmail%2,                 Dong%Xiang%coreGivesNoEmail%2,                 Gao%Ya-dong%coreGivesNoEmail%2,                 Yan%You-qin%coreGivesNoEmail%2,                 Yang%Yi-bin%coreGivesNoEmail%2,                 Yuan%Ya-dong%coreGivesNoEmail%2,                 Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,           Sean Wei Xiang%Ong%xref no email%0,           Shirin%Kalimuddin%xref no email%0,           Jenny G.%Low%xref no email%0,           Seow Yen%Tan%xref no email%0,           Jiashen%Loh%xref no email%0,           Oon-Tek%Ng%xref no email%0,           Kalisvar%Marimuthu%xref no email%0,           Li Wei%Ang%xref no email%0,           Tze Minn%Mak%xref no email%0,           Sok Kiang%Lau%xref no email%0,           Danielle E.%Anderson%xref no email%0,           Kian Sing%Chan%xref no email%0,           Thean Yen%Tan%xref no email%0,           Tong Yong%Ng%xref no email%0,           Lin%Cui%xref no email%0,           Zubaidah%Said%xref no email%0,           Lalitha%Kurupatham%xref no email%0,           Mark I-Cheng%Chen%xref no email%0,           Monica%Chan%xref no email%0,           Shawn%Vasoo%xref no email%0,           Lin-Fa%Wang%xref no email%0,           Boon Huan%Tan%xref no email%0,           Raymond Tzer Pin%Lin%xref no email%0,           Vernon Jian Ming%Lee%xref no email%0,           Yee-Sin%Leo%xref no email%0,           David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                   Dengju%Li%NULL%0,                   Xiong%Wang%NULL%0,                   Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                   Yun%Ling%NULL%0,                   Yi‐hui‐zhi%Zhang%NULL%1,                   Li‐ya%Wei%NULL%1,                   Xiao%Chen%NULL%1,                   Xu‐mian%Li%NULL%1,                   Xuan‐yong%Liu%NULL%1,                   Han‐mian%Liu%NULL%1,                   Zhi%Guo%guozhi77@126.com%1,                   Hua%Ren%renhua2009@hotmail.com%2,                   Hua%Ren%renhua2009@hotmail.com%0,                   Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                   Kun%Yang%NULL%0,                   Kun%Yang%NULL%0,                   Wenxia%Wang%NULL%0,                   Wenxia%Wang%NULL%0,                   Lingyu%Jiang%NULL%0,                   Lingyu%Jiang%NULL%0,                   Jianxin%Song%songsingsjx@sina.com%0,                   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                   Yang%Yang%NULL%0,                   Cong%Zhang%NULL%2,                   Fengming%Huang%NULL%2,                   Fuxiang%Wang%NULL%2,                   Jing%Yuan%NULL%2,                   Zhaoqin%Wang%NULL%2,                   Jinxiu%Li%NULL%2,                   Jianming%Li%NULL%2,                   Cheng%Feng%NULL%2,                   Zheng%Zhang%NULL%2,                   Lifei%Wang%NULL%2,                   Ling%Peng%NULL%2,                   Li%Chen%NULL%2,                   Yuhao%Qin%NULL%2,                   Dandan%Zhao%NULL%2,                   Shuguang%Tan%NULL%2,                   Lu%Yin%NULL%3,                   Jun%Xu%NULL%2,                   Congzhao%Zhou%NULL%2,                   Chengyu%Jiang%jiang@pumc.edu.cn%2,                   Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                   Tuantuan%Li%NULL%0,                   Mingfeng%Han%NULL%0,                   Xiuyong%Li%NULL%0,                   Dong%Wu%NULL%0,                   Yuanhong%Xu%NULL%0,                   Yulin%Zhu%NULL%0,                   Yan%Liu%NULL%0,                   Xiaowu%Wang%wangxiaowu19880218@126.com%0,                   Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%13,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%6,                   Chun-quan%Ou%NULL%6,                   Jian-xing%He%NULL%8,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%8,                   David S.C.%Hui%NULL%5,                   Bin%Du%NULL%5,                   Lan-juan%Li%NULL%5,                   Guang%Zeng%NULL%5,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%8,                   Chun-li%Tang%NULL%8,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%6,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%8,                   Jin-lin%Wang%NULL%5,                   Zi-jing%Liang%NULL%5,                   Yi-xiang%Peng%NULL%8,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%8,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%8,                   Ji-yang%Liu%NULL%8,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%8,                   Shao-qin%Qiu%NULL%8,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%8,                   Shao-yong%Zhu%NULL%8,                   Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,           Lan%Yang%xref no email%1,           Rui%Liu%xref no email%1,           Fang%Liu%xref no email%1,           Kai-lang%Wu%xref no email%1,           Jie%Li%xref no email%1,           Xing-hui%Liu%xref no email%1,           Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                   Jiong%Wu%NULL%0,                   Faqi%Wu%NULL%0,                   Dajing%Guo%NULL%0,                   Linli%Chen%NULL%0,                   Zheng%Fang%NULL%0,                   Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                   Zhao-Wu%Tao%NULL%0,                   Lei%Wang%NULL%0,                   Ming-Li%Yuan%NULL%0,                   Kui%Liu%NULL%0,                   Ling%Zhou%NULL%0,                   Shuang%Wei%NULL%0,                   Yan%Deng%NULL%0,                   Jing%Liu%NULL%0,                   Hui-Guo%Liu%NULL%0,                   Ming%Yang%NULL%0,                   Yi%Hu%NULL%0,                   Pei-Fang%Wei%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                   Luoqi%Zhou%NULL%1,                   Ziwei%Hu%NULL%1,                   Shuoqi%Zhang%NULL%1,                   Sheng%Yang%NULL%1,                   Yu%Tao%NULL%0,                   Cuihong%Xie%NULL%1,                   Ke%Ma%NULL%0,                   Ke%Shang%NULL%1,                   Wei%Wang%NULL%0,                   Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                   Hui%Li%NULL%0,                   Xiao-Xia%Lu%NULL%1,                   Han%Xiao%NULL%1,                   Jie%Ren%NULL%1,                   Fu-Rong%Zhang%792523496@qq.com%1,                   Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                   Yi%Xiang%NULL%3,                   Wei%Fang%NULL%3,                   Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                   Boqun%Li%279685211@qq.com%6,                   Boqun%Li%279685211@qq.com%0,                   Yanjun%Hu%huyanjun@163.com%3,                   Chunhui%Lang%NULL%4,                   Daoqiu%Huang%NULL%3,                   Qiuyan%Sun%NULL%3,                   Yan%Xiong%NULL%0,                   Xia%Huang%NULL%3,                   Jinglong%Lv%NULL%4,                   Yaling%Luo%NULL%3,                   Li%Shen%NULL%3,                   Haoran%Yang%NULL%3,                   Gu%Huang%NULL%3,                   Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                   Bohan%Yang%NULL%0,                   Qianwen%Li%NULL%0,                   Lu%Wen%NULL%0,                   Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,           Xiaoyan%Chen%xref no email%0,           Yanping%Cai%xref no email%0,           Jia\u2019an%Xia%xref no email%0,           Xing%Zhou%xref no email%0,           Sha%Xu%xref no email%0,           Hanping%Huang%xref no email%0,           Li%Zhang%xref no email%0,           Xia%Zhou%xref no email%0,           Chunling%Du%xref no email%0,           Yuye%Zhang%xref no email%0,           Juan%Song%xref no email%0,           Sijiao%Wang%xref no email%0,           Yencheng%Chao%xref no email%0,           Zeyong%Yang%xref no email%0,           Jie%Xu%xref no email%0,           Xin%Zhou%xref no email%0,           Dechang%Chen%xref no email%0,           Weining%Xiong%xref no email%0,           Lei%Xu%xref no email%0,           Feng%Zhou%xref no email%0,           Jinjun%Jiang%xref no email%0,           Chunxue%Bai%xref no email%0,           Junhua%Zheng%xref no email%0,           Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                  Cao%Yi-yuan%coreGivesNoEmail%2,                  Dong%Xiang%coreGivesNoEmail%2,                  Gao%Ya-dong%coreGivesNoEmail%2,                  Yan%You-qin%coreGivesNoEmail%2,                  Yang%Yi-bin%coreGivesNoEmail%2,                  Yuan%Ya-dong%coreGivesNoEmail%2,                  Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1917,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1946,7 +2006,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1975,7 +2035,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -2004,7 +2064,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2033,7 +2093,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -2062,7 +2122,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2091,7 +2151,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2149,7 +2209,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2178,7 +2238,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2207,7 +2267,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2236,7 +2296,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2265,7 +2325,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2294,7 +2354,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2323,7 +2383,7 @@
         <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2352,7 +2412,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2381,7 +2441,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2410,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2439,7 +2499,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2468,7 +2528,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="438">
   <si>
     <t>Doi</t>
   </si>
@@ -1573,6 +1573,78 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                  Cao%Yi-yuan%coreGivesNoEmail%2,                  Dong%Xiang%coreGivesNoEmail%2,                  Gao%Ya-dong%coreGivesNoEmail%2,                  Yan%You-qin%coreGivesNoEmail%2,                  Yang%Yi-bin%coreGivesNoEmail%2,                  Yuan%Ya-dong%coreGivesNoEmail%2,                  Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,            Sean Wei Xiang%Ong%xref no email%0,            Shirin%Kalimuddin%xref no email%0,            Jenny G.%Low%xref no email%0,            Seow Yen%Tan%xref no email%0,            Jiashen%Loh%xref no email%0,            Oon-Tek%Ng%xref no email%0,            Kalisvar%Marimuthu%xref no email%0,            Li Wei%Ang%xref no email%0,            Tze Minn%Mak%xref no email%0,            Sok Kiang%Lau%xref no email%0,            Danielle E.%Anderson%xref no email%0,            Kian Sing%Chan%xref no email%0,            Thean Yen%Tan%xref no email%0,            Tong Yong%Ng%xref no email%0,            Lin%Cui%xref no email%0,            Zubaidah%Said%xref no email%0,            Lalitha%Kurupatham%xref no email%0,            Mark I-Cheng%Chen%xref no email%0,            Monica%Chan%xref no email%0,            Shawn%Vasoo%xref no email%0,            Lin-Fa%Wang%xref no email%0,            Boon Huan%Tan%xref no email%0,            Raymond Tzer Pin%Lin%xref no email%0,            Vernon Jian Ming%Lee%xref no email%0,            Yee-Sin%Leo%xref no email%0,            David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                    Dengju%Li%NULL%1,                    Xiong%Wang%NULL%0,                    Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                    Yun%Ling%NULL%5,                    Yi‐hui‐zhi%Zhang%NULL%1,                    Li‐ya%Wei%NULL%1,                    Xiao%Chen%NULL%1,                    Xu‐mian%Li%NULL%1,                    Xuan‐yong%Liu%NULL%1,                    Han‐mian%Liu%NULL%1,                    Zhi%Guo%guozhi77@126.com%1,                    Hua%Ren%renhua2009@hotmail.com%2,                    Hua%Ren%renhua2009@hotmail.com%0,                    Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                    Kun%Yang%NULL%0,                    Kun%Yang%NULL%0,                    Wenxia%Wang%NULL%0,                    Wenxia%Wang%NULL%0,                    Lingyu%Jiang%NULL%0,                    Lingyu%Jiang%NULL%0,                    Jianxin%Song%songsingsjx@sina.com%0,                    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Lili%Ren%NULL%0,                    Jianping%Zhao%NULL%0,                    Yi%Hu%NULL%0,                    Li%Zhang%NULL%0,                    Guohui%Fan%NULL%0,                    Jiuyang%Xu%NULL%0,                    Xiaoying%Gu%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%0,                    Jiaan%Xia%NULL%0,                    Yuan%Wei%NULL%0,                    Wenjuan%Wu%NULL%0,                    Xuelei%Xie%NULL%0,                    Wen%Yin%NULL%0,                    Hui%Li%NULL%0,                    Min%Liu%NULL%0,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Li%Guo%NULL%0,                    Jungang%Xie%NULL%0,                    Guangfa%Wang%NULL%0,                    Rongmeng%Jiang%NULL%0,                    Zhancheng%Gao%NULL%0,                    Qi%Jin%NULL%0,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                    Yang%Yang%NULL%2,                    Cong%Zhang%NULL%2,                    Fengming%Huang%NULL%2,                    Fuxiang%Wang%NULL%2,                    Jing%Yuan%NULL%2,                    Zhaoqin%Wang%NULL%2,                    Jinxiu%Li%NULL%2,                    Jianming%Li%NULL%2,                    Cheng%Feng%NULL%2,                    Zheng%Zhang%NULL%2,                    Lifei%Wang%NULL%2,                    Ling%Peng%NULL%2,                    Li%Chen%NULL%2,                    Yuhao%Qin%NULL%2,                    Dandan%Zhao%NULL%2,                    Shuguang%Tan%NULL%2,                    Lu%Yin%NULL%3,                    Jun%Xu%NULL%2,                    Congzhao%Zhou%NULL%2,                    Chengyu%Jiang%jiang@pumc.edu.cn%2,                    Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                    Tuantuan%Li%NULL%1,                    Mingfeng%Han%NULL%1,                    Xiuyong%Li%NULL%1,                    Dong%Wu%NULL%1,                    Yuanhong%Xu%NULL%3,                    Yulin%Zhu%NULL%1,                    Yan%Liu%NULL%2,                    Xiaowu%Wang%wangxiaowu19880218@126.com%1,                    Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%13,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%6,                    Chun-quan%Ou%NULL%6,                    Jian-xing%He%NULL%8,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%8,                    David S.C.%Hui%NULL%5,                    Bin%Du%NULL%5,                    Lan-juan%Li%NULL%5,                    Guang%Zeng%NULL%5,                    Kwok-Yung%Yuen%NULL%8,                    Ru-chong%Chen%NULL%8,                    Chun-li%Tang%NULL%8,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%6,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%8,                    Jin-lin%Wang%NULL%5,                    Zi-jing%Liang%NULL%5,                    Yi-xiang%Peng%NULL%8,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%8,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%8,                    Ji-yang%Liu%NULL%8,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%8,                    Shao-qin%Qiu%NULL%8,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%8,                    Shao-yong%Zhu%NULL%8,                    Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,            Lan%Yang%xref no email%1,            Rui%Liu%xref no email%1,            Fang%Liu%xref no email%1,            Kai-lang%Wu%xref no email%1,            Jie%Li%xref no email%1,            Xing-hui%Liu%xref no email%1,            Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                    Jiong%Wu%NULL%2,                    Faqi%Wu%NULL%2,                    Dajing%Guo%NULL%2,                    Linli%Chen%NULL%2,                    Zheng%Fang%NULL%2,                    Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                    Zhao-Wu%Tao%NULL%1,                    Lei%Wang%NULL%2,                    Ming-Li%Yuan%NULL%3,                    Kui%Liu%NULL%0,                    Ling%Zhou%NULL%0,                    Shuang%Wei%NULL%0,                    Yan%Deng%NULL%2,                    Jing%Liu%NULL%3,                    Hui-Guo%Liu%NULL%0,                    Ming%Yang%NULL%2,                    Yi%Hu%NULL%0,                    Pei-Fang%Wei%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                    Luoqi%Zhou%NULL%1,                    Ziwei%Hu%NULL%1,                    Shuoqi%Zhang%NULL%1,                    Sheng%Yang%NULL%1,                    Yu%Tao%NULL%0,                    Cuihong%Xie%NULL%1,                    Ke%Ma%NULL%0,                    Ke%Shang%NULL%1,                    Wei%Wang%NULL%5,                    Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                    Hui%Li%NULL%0,                    Xiao-Xia%Lu%NULL%1,                    Han%Xiao%NULL%1,                    Jie%Ren%NULL%1,                    Fu-Rong%Zhang%792523496@qq.com%1,                    Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                    Yi%Xiang%NULL%3,                    Wei%Fang%NULL%3,                    Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                    Boqun%Li%279685211@qq.com%6,                    Boqun%Li%279685211@qq.com%0,                    Yanjun%Hu%huyanjun@163.com%3,                    Chunhui%Lang%NULL%4,                    Daoqiu%Huang%NULL%3,                    Qiuyan%Sun%NULL%3,                    Yan%Xiong%NULL%3,                    Xia%Huang%NULL%3,                    Jinglong%Lv%NULL%4,                    Yaling%Luo%NULL%3,                    Li%Shen%NULL%3,                    Haoran%Yang%NULL%3,                    Gu%Huang%NULL%3,                    Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                    Bohan%Yang%NULL%2,                    Qianwen%Li%NULL%2,                    Lu%Wen%NULL%2,                    Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,            Xiaoyan%Chen%xref no email%0,            Yanping%Cai%xref no email%0,            Jia\u2019an%Xia%xref no email%0,            Xing%Zhou%xref no email%0,            Sha%Xu%xref no email%0,            Hanping%Huang%xref no email%0,            Li%Zhang%xref no email%0,            Xia%Zhou%xref no email%0,            Chunling%Du%xref no email%0,            Yuye%Zhang%xref no email%0,            Juan%Song%xref no email%0,            Sijiao%Wang%xref no email%0,            Yencheng%Chao%xref no email%0,            Zeyong%Yang%xref no email%0,            Jie%Xu%xref no email%0,            Xin%Zhou%xref no email%0,            Dechang%Chen%xref no email%0,            Weining%Xiong%xref no email%0,            Lei%Xu%xref no email%0,            Feng%Zhou%xref no email%0,            Jinjun%Jiang%xref no email%0,            Chunxue%Bai%xref no email%0,            Junhua%Zheng%xref no email%0,            Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                   Cao%Yi-yuan%coreGivesNoEmail%2,                   Dong%Xiang%coreGivesNoEmail%2,                   Gao%Ya-dong%coreGivesNoEmail%2,                   Yan%You-qin%coreGivesNoEmail%2,                   Yang%Yi-bin%coreGivesNoEmail%2,                   Yuan%Ya-dong%coreGivesNoEmail%2,                   Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1960,7 +2032,7 @@
         <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1977,7 +2049,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1989,7 +2061,7 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2006,7 +2078,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2018,7 +2090,7 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2035,7 +2107,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -2047,7 +2119,7 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2064,7 +2136,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2076,7 +2148,7 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2093,7 +2165,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -2105,7 +2177,7 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2122,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2134,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2151,7 +2223,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2163,7 +2235,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2192,7 +2264,7 @@
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2209,7 +2281,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2221,7 +2293,7 @@
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2238,7 +2310,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2250,7 +2322,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2267,7 +2339,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2279,7 +2351,7 @@
         <v>190</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2296,7 +2368,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2308,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2325,7 +2397,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2337,7 +2409,7 @@
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2354,7 +2426,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2366,7 +2438,7 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2383,7 +2455,7 @@
         <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2395,7 +2467,7 @@
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2412,7 +2484,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2424,7 +2496,7 @@
         <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2441,7 +2513,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2453,7 +2525,7 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2470,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2482,7 +2554,7 @@
         <v>190</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2499,7 +2571,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2511,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,7 +2600,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2540,7 +2612,7 @@
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="458">
   <si>
     <t>Doi</t>
   </si>
@@ -1645,6 +1645,66 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                   Cao%Yi-yuan%coreGivesNoEmail%2,                   Dong%Xiang%coreGivesNoEmail%2,                   Gao%Ya-dong%coreGivesNoEmail%2,                   Yan%You-qin%coreGivesNoEmail%2,                   Yang%Yi-bin%coreGivesNoEmail%2,                   Yuan%Ya-dong%coreGivesNoEmail%2,                   Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,             Sean Wei Xiang%Ong%xref no email%0,             Shirin%Kalimuddin%xref no email%0,             Jenny G.%Low%xref no email%0,             Seow Yen%Tan%xref no email%0,             Jiashen%Loh%xref no email%0,             Oon-Tek%Ng%xref no email%0,             Kalisvar%Marimuthu%xref no email%0,             Li Wei%Ang%xref no email%0,             Tze Minn%Mak%xref no email%0,             Sok Kiang%Lau%xref no email%0,             Danielle E.%Anderson%xref no email%0,             Kian Sing%Chan%xref no email%0,             Thean Yen%Tan%xref no email%0,             Tong Yong%Ng%xref no email%0,             Lin%Cui%xref no email%0,             Zubaidah%Said%xref no email%0,             Lalitha%Kurupatham%xref no email%0,             Mark I-Cheng%Chen%xref no email%0,             Monica%Chan%xref no email%0,             Shawn%Vasoo%xref no email%0,             Lin-Fa%Wang%xref no email%0,             Boon Huan%Tan%xref no email%0,             Raymond Tzer Pin%Lin%xref no email%0,             Vernon Jian Ming%Lee%xref no email%0,             Yee-Sin%Leo%xref no email%0,             David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                     Dengju%Li%NULL%1,                     Xiong%Wang%NULL%0,                     Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                     Yun%Ling%NULL%5,                     Yi‐hui‐zhi%Zhang%NULL%1,                     Li‐ya%Wei%NULL%1,                     Xiao%Chen%NULL%1,                     Xu‐mian%Li%NULL%1,                     Xuan‐yong%Liu%NULL%1,                     Han‐mian%Liu%NULL%1,                     Zhi%Guo%guozhi77@126.com%1,                     Hua%Ren%renhua2009@hotmail.com%2,                     Hua%Ren%renhua2009@hotmail.com%0,                     Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                     Kun%Yang%NULL%0,                     Kun%Yang%NULL%0,                     Wenxia%Wang%NULL%0,                     Wenxia%Wang%NULL%0,                     Lingyu%Jiang%NULL%0,                     Lingyu%Jiang%NULL%0,                     Jianxin%Song%songsingsjx@sina.com%0,                     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Lili%Ren%NULL%0,                     Jianping%Zhao%NULL%0,                     Yi%Hu%NULL%0,                     Li%Zhang%NULL%0,                     Guohui%Fan%NULL%0,                     Jiuyang%Xu%NULL%0,                     Xiaoying%Gu%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%0,                     Jiaan%Xia%NULL%0,                     Yuan%Wei%NULL%0,                     Wenjuan%Wu%NULL%0,                     Xuelei%Xie%NULL%0,                     Wen%Yin%NULL%0,                     Hui%Li%NULL%0,                     Min%Liu%NULL%0,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Li%Guo%NULL%0,                     Jungang%Xie%NULL%0,                     Guangfa%Wang%NULL%0,                     Rongmeng%Jiang%NULL%0,                     Zhancheng%Gao%NULL%0,                     Qi%Jin%NULL%0,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                     Yang%Yang%NULL%2,                     Cong%Zhang%NULL%2,                     Fengming%Huang%NULL%2,                     Fuxiang%Wang%NULL%2,                     Jing%Yuan%NULL%2,                     Zhaoqin%Wang%NULL%2,                     Jinxiu%Li%NULL%2,                     Jianming%Li%NULL%2,                     Cheng%Feng%NULL%2,                     Zheng%Zhang%NULL%2,                     Lifei%Wang%NULL%2,                     Ling%Peng%NULL%2,                     Li%Chen%NULL%2,                     Yuhao%Qin%NULL%2,                     Dandan%Zhao%NULL%2,                     Shuguang%Tan%NULL%2,                     Lu%Yin%NULL%3,                     Jun%Xu%NULL%2,                     Congzhao%Zhou%NULL%2,                     Chengyu%Jiang%jiang@pumc.edu.cn%2,                     Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                     Tuantuan%Li%NULL%1,                     Mingfeng%Han%NULL%1,                     Xiuyong%Li%NULL%1,                     Dong%Wu%NULL%1,                     Yuanhong%Xu%NULL%3,                     Yulin%Zhu%NULL%1,                     Yan%Liu%NULL%2,                     Xiaowu%Wang%wangxiaowu19880218@126.com%1,                     Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%13,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%6,                     Chun-quan%Ou%NULL%6,                     Jian-xing%He%NULL%8,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%8,                     David S.C.%Hui%NULL%5,                     Bin%Du%NULL%5,                     Lan-juan%Li%NULL%5,                     Guang%Zeng%NULL%5,                     Kwok-Yung%Yuen%NULL%8,                     Ru-chong%Chen%NULL%8,                     Chun-li%Tang%NULL%8,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%6,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%8,                     Jin-lin%Wang%NULL%5,                     Zi-jing%Liang%NULL%5,                     Yi-xiang%Peng%NULL%8,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%8,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%8,                     Ji-yang%Liu%NULL%8,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%8,                     Shao-qin%Qiu%NULL%8,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%8,                     Shao-yong%Zhu%NULL%8,                     Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%xref no email%3,             Lan%Yang%xref no email%1,             Rui%Liu%xref no email%1,             Fang%Liu%xref no email%1,             Kai-lang%Wu%xref no email%1,             Jie%Li%xref no email%1,             Xing-hui%Liu%xref no email%1,             Cheng-liang%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                     Jiong%Wu%NULL%2,                     Faqi%Wu%NULL%2,                     Dajing%Guo%NULL%2,                     Linli%Chen%NULL%2,                     Zheng%Fang%NULL%2,                     Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                     Zhao-Wu%Tao%NULL%1,                     Lei%Wang%NULL%2,                     Ming-Li%Yuan%NULL%3,                     Kui%Liu%NULL%0,                     Ling%Zhou%NULL%0,                     Shuang%Wei%NULL%0,                     Yan%Deng%NULL%2,                     Jing%Liu%NULL%3,                     Hui-Guo%Liu%NULL%0,                     Ming%Yang%NULL%2,                     Yi%Hu%NULL%0,                     Pei-Fang%Wei%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                     Luoqi%Zhou%NULL%1,                     Ziwei%Hu%NULL%1,                     Shuoqi%Zhang%NULL%1,                     Sheng%Yang%NULL%1,                     Yu%Tao%NULL%0,                     Cuihong%Xie%NULL%1,                     Ke%Ma%NULL%0,                     Ke%Shang%NULL%1,                     Wei%Wang%NULL%5,                     Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                     Hui%Li%NULL%0,                     Xiao-Xia%Lu%NULL%1,                     Han%Xiao%NULL%1,                     Jie%Ren%NULL%1,                     Fu-Rong%Zhang%792523496@qq.com%1,                     Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                     Yi%Xiang%NULL%3,                     Wei%Fang%NULL%3,                     Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                     Boqun%Li%279685211@qq.com%6,                     Boqun%Li%279685211@qq.com%0,                     Yanjun%Hu%huyanjun@163.com%3,                     Chunhui%Lang%NULL%4,                     Daoqiu%Huang%NULL%3,                     Qiuyan%Sun%NULL%3,                     Yan%Xiong%NULL%3,                     Xia%Huang%NULL%3,                     Jinglong%Lv%NULL%4,                     Yaling%Luo%NULL%3,                     Li%Shen%NULL%3,                     Haoran%Yang%NULL%3,                     Gu%Huang%NULL%3,                     Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                     Bohan%Yang%NULL%2,                     Qianwen%Li%NULL%2,                     Lu%Wen%NULL%2,                     Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,             Xiaoyan%Chen%xref no email%0,             Yanping%Cai%xref no email%0,             Jia\u2019an%Xia%xref no email%0,             Xing%Zhou%xref no email%0,             Sha%Xu%xref no email%0,             Hanping%Huang%xref no email%0,             Li%Zhang%xref no email%0,             Xia%Zhou%xref no email%0,             Chunling%Du%xref no email%0,             Yuye%Zhang%xref no email%0,             Juan%Song%xref no email%0,             Sijiao%Wang%xref no email%0,             Yencheng%Chao%xref no email%0,             Zeyong%Yang%xref no email%0,             Jie%Xu%xref no email%0,             Xin%Zhou%xref no email%0,             Dechang%Chen%xref no email%0,             Weining%Xiong%xref no email%0,             Lei%Xu%xref no email%0,             Feng%Zhou%xref no email%0,             Jinjun%Jiang%xref no email%0,             Chunxue%Bai%xref no email%0,             Junhua%Zheng%xref no email%0,             Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                    Cao%Yi-yuan%coreGivesNoEmail%2,                    Dong%Xiang%coreGivesNoEmail%2,                    Gao%Ya-dong%coreGivesNoEmail%2,                    Yan%You-qin%coreGivesNoEmail%2,                    Yang%Yi-bin%coreGivesNoEmail%2,                    Yuan%Ya-dong%coreGivesNoEmail%2,                    Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2080,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2049,7 +2109,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2078,7 +2138,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2107,7 +2167,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -2136,7 +2196,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2165,7 +2225,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -2194,7 +2254,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2223,7 +2283,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2281,7 +2341,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2310,7 +2370,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2339,7 +2399,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2368,7 +2428,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2397,7 +2457,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2426,7 +2486,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2455,7 +2515,7 @@
         <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2484,7 +2544,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2513,7 +2573,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2542,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2571,7 +2631,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2600,7 +2660,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="547">
   <si>
     <t>Doi</t>
   </si>
@@ -1705,6 +1705,273 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                    Cao%Yi-yuan%coreGivesNoEmail%2,                    Dong%Xiang%coreGivesNoEmail%2,                    Gao%Ya-dong%coreGivesNoEmail%2,                    Yan%You-qin%coreGivesNoEmail%2,                    Yang%Yi-bin%coreGivesNoEmail%2,                    Yuan%Ya-dong%coreGivesNoEmail%2,                    Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                      Dengju%Li%NULL%1,                      Xiong%Wang%NULL%0,                      Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                      Yun%Ling%NULL%5,                      Yi‐hui‐zhi%Zhang%NULL%1,                      Li‐ya%Wei%NULL%1,                      Xiao%Chen%NULL%1,                      Xu‐mian%Li%NULL%1,                      Xuan‐yong%Liu%NULL%1,                      Han‐mian%Liu%NULL%1,                      Zhi%Guo%guozhi77@126.com%1,                      Hua%Ren%renhua2009@hotmail.com%2,                      Hua%Ren%renhua2009@hotmail.com%0,                      Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                      Kun%Yang%NULL%0,                      Kun%Yang%NULL%0,                      Wenxia%Wang%NULL%0,                      Wenxia%Wang%NULL%0,                      Lingyu%Jiang%NULL%0,                      Lingyu%Jiang%NULL%0,                      Jianxin%Song%songsingsjx@sina.com%0,                      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Lili%Ren%NULL%0,                      Jianping%Zhao%NULL%0,                      Yi%Hu%NULL%0,                      Li%Zhang%NULL%0,                      Guohui%Fan%NULL%0,                      Jiuyang%Xu%NULL%0,                      Xiaoying%Gu%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%0,                      Jiaan%Xia%NULL%0,                      Yuan%Wei%NULL%0,                      Wenjuan%Wu%NULL%0,                      Xuelei%Xie%NULL%0,                      Wen%Yin%NULL%0,                      Hui%Li%NULL%0,                      Min%Liu%NULL%0,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Li%Guo%NULL%0,                      Jungang%Xie%NULL%0,                      Guangfa%Wang%NULL%0,                      Rongmeng%Jiang%NULL%0,                      Zhancheng%Gao%NULL%0,                      Qi%Jin%NULL%0,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                      Yang%Yang%NULL%2,                      Cong%Zhang%NULL%2,                      Fengming%Huang%NULL%2,                      Fuxiang%Wang%NULL%2,                      Jing%Yuan%NULL%2,                      Zhaoqin%Wang%NULL%2,                      Jinxiu%Li%NULL%2,                      Jianming%Li%NULL%2,                      Cheng%Feng%NULL%2,                      Zheng%Zhang%NULL%2,                      Lifei%Wang%NULL%2,                      Ling%Peng%NULL%2,                      Li%Chen%NULL%2,                      Yuhao%Qin%NULL%2,                      Dandan%Zhao%NULL%2,                      Shuguang%Tan%NULL%2,                      Lu%Yin%NULL%3,                      Jun%Xu%NULL%2,                      Congzhao%Zhou%NULL%2,                      Chengyu%Jiang%jiang@pumc.edu.cn%2,                      Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                      Tuantuan%Li%NULL%1,                      Mingfeng%Han%NULL%1,                      Xiuyong%Li%NULL%1,                      Dong%Wu%NULL%1,                      Yuanhong%Xu%NULL%3,                      Yulin%Zhu%NULL%1,                      Yan%Liu%NULL%2,                      Xiaowu%Wang%wangxiaowu19880218@126.com%1,                      Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%13,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%6,                      Chun-quan%Ou%NULL%6,                      Jian-xing%He%NULL%8,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%8,                      David S.C.%Hui%NULL%5,                      Bin%Du%NULL%5,                      Lan-juan%Li%NULL%5,                      Guang%Zeng%NULL%5,                      Kwok-Yung%Yuen%NULL%8,                      Ru-chong%Chen%NULL%8,                      Chun-li%Tang%NULL%8,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%6,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%8,                      Jin-lin%Wang%NULL%5,                      Zi-jing%Liang%NULL%5,                      Yi-xiang%Peng%NULL%8,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%8,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%8,                      Ji-yang%Liu%NULL%8,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%8,                      Shao-qin%Qiu%NULL%8,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%8,                      Shao-yong%Zhu%NULL%8,                      Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Walter de Gruyter GmbH</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                      Jiong%Wu%NULL%2,                      Faqi%Wu%NULL%2,                      Dajing%Guo%NULL%2,                      Linli%Chen%NULL%2,                      Zheng%Fang%NULL%2,                      Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                      Zhao-Wu%Tao%NULL%1,                      Lei%Wang%NULL%2,                      Ming-Li%Yuan%NULL%3,                      Kui%Liu%NULL%0,                      Ling%Zhou%NULL%0,                      Shuang%Wei%NULL%0,                      Yan%Deng%NULL%2,                      Jing%Liu%NULL%3,                      Hui-Guo%Liu%NULL%0,                      Ming%Yang%NULL%2,                      Yi%Hu%NULL%0,                      Pei-Fang%Wei%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                      Luoqi%Zhou%NULL%1,                      Ziwei%Hu%NULL%1,                      Shuoqi%Zhang%NULL%1,                      Sheng%Yang%NULL%1,                      Yu%Tao%NULL%0,                      Cuihong%Xie%NULL%1,                      Ke%Ma%NULL%0,                      Ke%Shang%NULL%1,                      Wei%Wang%NULL%5,                      Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                      Hui%Li%NULL%0,                      Xiao-Xia%Lu%NULL%1,                      Han%Xiao%NULL%1,                      Jie%Ren%NULL%1,                      Fu-Rong%Zhang%792523496@qq.com%1,                      Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                      Yi%Xiang%NULL%3,                      Wei%Fang%NULL%3,                      Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                      Boqun%Li%279685211@qq.com%6,                      Boqun%Li%279685211@qq.com%0,                      Yanjun%Hu%huyanjun@163.com%3,                      Chunhui%Lang%NULL%4,                      Daoqiu%Huang%NULL%3,                      Qiuyan%Sun%NULL%3,                      Yan%Xiong%NULL%3,                      Xia%Huang%NULL%3,                      Jinglong%Lv%NULL%4,                      Yaling%Luo%NULL%3,                      Li%Shen%NULL%3,                      Haoran%Yang%NULL%3,                      Gu%Huang%NULL%3,                      Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                      Bohan%Yang%NULL%2,                      Qianwen%Li%NULL%2,                      Lu%Wen%NULL%2,                      Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                     Cao%Yi-yuan%coreGivesNoEmail%2,                     Dong%Xiang%coreGivesNoEmail%2,                     Gao%Ya-dong%coreGivesNoEmail%2,                     Yan%You-qin%coreGivesNoEmail%2,                     Yang%Yi-bin%coreGivesNoEmail%2,                     Yuan%Ya-dong%coreGivesNoEmail%2,                     Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                       Dengju%Li%NULL%1,                       Xiong%Wang%NULL%0,                       Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                       Yun%Ling%NULL%5,                       Yi‐hui‐zhi%Zhang%NULL%1,                       Li‐ya%Wei%NULL%1,                       Xiao%Chen%NULL%1,                       Xu‐mian%Li%NULL%1,                       Xuan‐yong%Liu%NULL%1,                       Han‐mian%Liu%NULL%1,                       Zhi%Guo%guozhi77@126.com%1,                       Hua%Ren%renhua2009@hotmail.com%2,                       Hua%Ren%renhua2009@hotmail.com%0,                       Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                       Kun%Yang%NULL%0,                       Kun%Yang%NULL%0,                       Wenxia%Wang%NULL%0,                       Wenxia%Wang%NULL%0,                       Lingyu%Jiang%NULL%0,                       Lingyu%Jiang%NULL%0,                       Jianxin%Song%songsingsjx@sina.com%0,                       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Lili%Ren%NULL%0,                       Jianping%Zhao%NULL%0,                       Yi%Hu%NULL%0,                       Li%Zhang%NULL%0,                       Guohui%Fan%NULL%0,                       Jiuyang%Xu%NULL%0,                       Xiaoying%Gu%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%0,                       Jiaan%Xia%NULL%0,                       Yuan%Wei%NULL%0,                       Wenjuan%Wu%NULL%0,                       Xuelei%Xie%NULL%0,                       Wen%Yin%NULL%0,                       Hui%Li%NULL%0,                       Min%Liu%NULL%0,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Li%Guo%NULL%0,                       Jungang%Xie%NULL%0,                       Guangfa%Wang%NULL%0,                       Rongmeng%Jiang%NULL%0,                       Zhancheng%Gao%NULL%0,                       Qi%Jin%NULL%0,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                       Yang%Yang%NULL%2,                       Cong%Zhang%NULL%2,                       Fengming%Huang%NULL%2,                       Fuxiang%Wang%NULL%2,                       Jing%Yuan%NULL%2,                       Zhaoqin%Wang%NULL%2,                       Jinxiu%Li%NULL%2,                       Jianming%Li%NULL%2,                       Cheng%Feng%NULL%2,                       Zheng%Zhang%NULL%2,                       Lifei%Wang%NULL%2,                       Ling%Peng%NULL%2,                       Li%Chen%NULL%2,                       Yuhao%Qin%NULL%2,                       Dandan%Zhao%NULL%2,                       Shuguang%Tan%NULL%2,                       Lu%Yin%NULL%3,                       Jun%Xu%NULL%2,                       Congzhao%Zhou%NULL%2,                       Chengyu%Jiang%jiang@pumc.edu.cn%2,                       Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                       Tuantuan%Li%NULL%1,                       Mingfeng%Han%NULL%1,                       Xiuyong%Li%NULL%1,                       Dong%Wu%NULL%1,                       Yuanhong%Xu%NULL%3,                       Yulin%Zhu%NULL%1,                       Yan%Liu%NULL%2,                       Xiaowu%Wang%wangxiaowu19880218@126.com%1,                       Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%13,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%6,                       Chun-quan%Ou%NULL%6,                       Jian-xing%He%NULL%8,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%8,                       David S.C.%Hui%NULL%5,                       Bin%Du%NULL%5,                       Lan-juan%Li%NULL%5,                       Guang%Zeng%NULL%5,                       Kwok-Yung%Yuen%NULL%8,                       Ru-chong%Chen%NULL%8,                       Chun-li%Tang%NULL%8,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%6,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%8,                       Jin-lin%Wang%NULL%5,                       Zi-jing%Liang%NULL%5,                       Yi-xiang%Peng%NULL%8,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%8,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%8,                       Ji-yang%Liu%NULL%8,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%8,                       Shao-qin%Qiu%NULL%8,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%8,                       Shao-yong%Zhu%NULL%8,                       Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                       Jiong%Wu%NULL%2,                       Faqi%Wu%NULL%2,                       Dajing%Guo%NULL%2,                       Linli%Chen%NULL%2,                       Zheng%Fang%NULL%2,                       Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                       Zhao-Wu%Tao%NULL%1,                       Lei%Wang%NULL%2,                       Ming-Li%Yuan%NULL%3,                       Kui%Liu%NULL%0,                       Ling%Zhou%NULL%0,                       Shuang%Wei%NULL%0,                       Yan%Deng%NULL%2,                       Jing%Liu%NULL%3,                       Hui-Guo%Liu%NULL%0,                       Ming%Yang%NULL%2,                       Yi%Hu%NULL%0,                       Pei-Fang%Wei%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                       Luoqi%Zhou%NULL%1,                       Ziwei%Hu%NULL%1,                       Shuoqi%Zhang%NULL%1,                       Sheng%Yang%NULL%1,                       Yu%Tao%NULL%0,                       Cuihong%Xie%NULL%1,                       Ke%Ma%NULL%0,                       Ke%Shang%NULL%1,                       Wei%Wang%NULL%5,                       Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                       Hui%Li%NULL%0,                       Xiao-Xia%Lu%NULL%1,                       Han%Xiao%NULL%1,                       Jie%Ren%NULL%1,                       Fu-Rong%Zhang%792523496@qq.com%1,                       Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                       Yi%Xiang%NULL%3,                       Wei%Fang%NULL%3,                       Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                       Boqun%Li%279685211@qq.com%6,                       Boqun%Li%279685211@qq.com%0,                       Yanjun%Hu%huyanjun@163.com%3,                       Chunhui%Lang%NULL%4,                       Daoqiu%Huang%NULL%3,                       Qiuyan%Sun%NULL%3,                       Yan%Xiong%NULL%3,                       Xia%Huang%NULL%3,                       Jinglong%Lv%NULL%4,                       Yaling%Luo%NULL%3,                       Li%Shen%NULL%3,                       Haoran%Yang%NULL%3,                       Gu%Huang%NULL%3,                       Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                       Bohan%Yang%NULL%2,                       Qianwen%Li%NULL%2,                       Lu%Wen%NULL%2,                       Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                      Cao%Yi-yuan%coreGivesNoEmail%2,                      Dong%Xiang%coreGivesNoEmail%2,                      Gao%Ya-dong%coreGivesNoEmail%2,                      Yan%You-qin%coreGivesNoEmail%2,                      Yang%Yi-bin%coreGivesNoEmail%2,                      Yuan%Ya-dong%coreGivesNoEmail%2,                      Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                        Dengju%Li%NULL%1,                        Xiong%Wang%NULL%0,                        Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                        Yun%Ling%NULL%5,                        Yi‐hui‐zhi%Zhang%NULL%1,                        Li‐ya%Wei%NULL%1,                        Xiao%Chen%NULL%1,                        Xu‐mian%Li%NULL%1,                        Xuan‐yong%Liu%NULL%1,                        Han‐mian%Liu%NULL%1,                        Zhi%Guo%guozhi77@126.com%1,                        Hua%Ren%renhua2009@hotmail.com%2,                        Hua%Ren%renhua2009@hotmail.com%0,                        Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                        Kun%Yang%NULL%0,                        Kun%Yang%NULL%0,                        Wenxia%Wang%NULL%0,                        Wenxia%Wang%NULL%0,                        Lingyu%Jiang%NULL%0,                        Lingyu%Jiang%NULL%0,                        Jianxin%Song%songsingsjx@sina.com%0,                        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Lili%Ren%NULL%0,                        Jianping%Zhao%NULL%0,                        Yi%Hu%NULL%0,                        Li%Zhang%NULL%0,                        Guohui%Fan%NULL%0,                        Jiuyang%Xu%NULL%0,                        Xiaoying%Gu%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%0,                        Jiaan%Xia%NULL%0,                        Yuan%Wei%NULL%0,                        Wenjuan%Wu%NULL%0,                        Xuelei%Xie%NULL%0,                        Wen%Yin%NULL%0,                        Hui%Li%NULL%0,                        Min%Liu%NULL%0,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Li%Guo%NULL%0,                        Jungang%Xie%NULL%0,                        Guangfa%Wang%NULL%0,                        Rongmeng%Jiang%NULL%0,                        Zhancheng%Gao%NULL%0,                        Qi%Jin%NULL%0,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                        Yang%Yang%NULL%2,                        Cong%Zhang%NULL%2,                        Fengming%Huang%NULL%2,                        Fuxiang%Wang%NULL%2,                        Jing%Yuan%NULL%2,                        Zhaoqin%Wang%NULL%2,                        Jinxiu%Li%NULL%2,                        Jianming%Li%NULL%2,                        Cheng%Feng%NULL%2,                        Zheng%Zhang%NULL%2,                        Lifei%Wang%NULL%2,                        Ling%Peng%NULL%2,                        Li%Chen%NULL%2,                        Yuhao%Qin%NULL%2,                        Dandan%Zhao%NULL%2,                        Shuguang%Tan%NULL%2,                        Lu%Yin%NULL%3,                        Jun%Xu%NULL%2,                        Congzhao%Zhou%NULL%2,                        Chengyu%Jiang%jiang@pumc.edu.cn%2,                        Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                        Tuantuan%Li%NULL%1,                        Mingfeng%Han%NULL%1,                        Xiuyong%Li%NULL%1,                        Dong%Wu%NULL%1,                        Yuanhong%Xu%NULL%3,                        Yulin%Zhu%NULL%1,                        Yan%Liu%NULL%2,                        Xiaowu%Wang%wangxiaowu19880218@126.com%1,                        Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%13,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%6,                        Chun-quan%Ou%NULL%6,                        Jian-xing%He%NULL%8,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%8,                        David S.C.%Hui%NULL%5,                        Bin%Du%NULL%5,                        Lan-juan%Li%NULL%5,                        Guang%Zeng%NULL%5,                        Kwok-Yung%Yuen%NULL%8,                        Ru-chong%Chen%NULL%8,                        Chun-li%Tang%NULL%8,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%6,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%8,                        Jin-lin%Wang%NULL%5,                        Zi-jing%Liang%NULL%5,                        Yi-xiang%Peng%NULL%8,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%8,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%8,                        Ji-yang%Liu%NULL%8,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%8,                        Shao-qin%Qiu%NULL%8,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%8,                        Shao-yong%Zhu%NULL%8,                        Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                        Jiong%Wu%NULL%2,                        Faqi%Wu%NULL%2,                        Dajing%Guo%NULL%2,                        Linli%Chen%NULL%2,                        Zheng%Fang%NULL%2,                        Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                        Zhao-Wu%Tao%NULL%1,                        Lei%Wang%NULL%2,                        Ming-Li%Yuan%NULL%3,                        Kui%Liu%NULL%0,                        Ling%Zhou%NULL%0,                        Shuang%Wei%NULL%0,                        Yan%Deng%NULL%2,                        Jing%Liu%NULL%3,                        Hui-Guo%Liu%NULL%0,                        Ming%Yang%NULL%2,                        Yi%Hu%NULL%0,                        Pei-Fang%Wei%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                        Luoqi%Zhou%NULL%1,                        Ziwei%Hu%NULL%1,                        Shuoqi%Zhang%NULL%1,                        Sheng%Yang%NULL%1,                        Yu%Tao%NULL%0,                        Cuihong%Xie%NULL%1,                        Ke%Ma%NULL%0,                        Ke%Shang%NULL%1,                        Wei%Wang%NULL%5,                        Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                        Hui%Li%NULL%0,                        Xiao-Xia%Lu%NULL%1,                        Han%Xiao%NULL%1,                        Jie%Ren%NULL%1,                        Fu-Rong%Zhang%792523496@qq.com%1,                        Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                        Yi%Xiang%NULL%3,                        Wei%Fang%NULL%3,                        Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                        Boqun%Li%279685211@qq.com%6,                        Boqun%Li%279685211@qq.com%0,                        Yanjun%Hu%huyanjun@163.com%3,                        Chunhui%Lang%NULL%4,                        Daoqiu%Huang%NULL%3,                        Qiuyan%Sun%NULL%3,                        Yan%Xiong%NULL%3,                        Xia%Huang%NULL%3,                        Jinglong%Lv%NULL%4,                        Yaling%Luo%NULL%3,                        Li%Shen%NULL%3,                        Haoran%Yang%NULL%3,                        Gu%Huang%NULL%3,                        Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                        Bohan%Yang%NULL%2,                        Qianwen%Li%NULL%2,                        Lu%Wen%NULL%2,                        Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                       Cao%Yi-yuan%coreGivesNoEmail%2,                       Dong%Xiang%coreGivesNoEmail%2,                       Gao%Ya-dong%coreGivesNoEmail%2,                       Yan%You-qin%coreGivesNoEmail%2,                       Yang%Yi-bin%coreGivesNoEmail%2,                       Yuan%Ya-dong%coreGivesNoEmail%2,                       Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                         Dengju%Li%NULL%1,                         Xiong%Wang%NULL%0,                         Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                         Yun%Ling%NULL%5,                         Yi‐hui‐zhi%Zhang%NULL%1,                         Li‐ya%Wei%NULL%1,                         Xiao%Chen%NULL%1,                         Xu‐mian%Li%NULL%1,                         Xuan‐yong%Liu%NULL%1,                         Han‐mian%Liu%NULL%1,                         Zhi%Guo%guozhi77@126.com%1,                         Hua%Ren%renhua2009@hotmail.com%2,                         Hua%Ren%renhua2009@hotmail.com%0,                         Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                         Kun%Yang%NULL%0,                         Kun%Yang%NULL%0,                         Wenxia%Wang%NULL%0,                         Wenxia%Wang%NULL%0,                         Lingyu%Jiang%NULL%0,                         Lingyu%Jiang%NULL%0,                         Jianxin%Song%songsingsjx@sina.com%0,                         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Lili%Ren%NULL%0,                         Jianping%Zhao%NULL%0,                         Yi%Hu%NULL%0,                         Li%Zhang%NULL%0,                         Guohui%Fan%NULL%0,                         Jiuyang%Xu%NULL%0,                         Xiaoying%Gu%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%0,                         Jiaan%Xia%NULL%0,                         Yuan%Wei%NULL%0,                         Wenjuan%Wu%NULL%0,                         Xuelei%Xie%NULL%0,                         Wen%Yin%NULL%0,                         Hui%Li%NULL%0,                         Min%Liu%NULL%0,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Li%Guo%NULL%0,                         Jungang%Xie%NULL%0,                         Guangfa%Wang%NULL%0,                         Rongmeng%Jiang%NULL%0,                         Zhancheng%Gao%NULL%0,                         Qi%Jin%NULL%0,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                         Yang%Yang%NULL%2,                         Cong%Zhang%NULL%2,                         Fengming%Huang%NULL%2,                         Fuxiang%Wang%NULL%2,                         Jing%Yuan%NULL%2,                         Zhaoqin%Wang%NULL%2,                         Jinxiu%Li%NULL%2,                         Jianming%Li%NULL%2,                         Cheng%Feng%NULL%2,                         Zheng%Zhang%NULL%2,                         Lifei%Wang%NULL%2,                         Ling%Peng%NULL%2,                         Li%Chen%NULL%2,                         Yuhao%Qin%NULL%2,                         Dandan%Zhao%NULL%2,                         Shuguang%Tan%NULL%2,                         Lu%Yin%NULL%3,                         Jun%Xu%NULL%2,                         Congzhao%Zhou%NULL%2,                         Chengyu%Jiang%jiang@pumc.edu.cn%2,                         Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                         Tuantuan%Li%NULL%1,                         Mingfeng%Han%NULL%1,                         Xiuyong%Li%NULL%1,                         Dong%Wu%NULL%1,                         Yuanhong%Xu%NULL%3,                         Yulin%Zhu%NULL%1,                         Yan%Liu%NULL%2,                         Xiaowu%Wang%wangxiaowu19880218@126.com%1,                         Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%13,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%6,                         Chun-quan%Ou%NULL%6,                         Jian-xing%He%NULL%8,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%8,                         David S.C.%Hui%NULL%5,                         Bin%Du%NULL%5,                         Lan-juan%Li%NULL%5,                         Guang%Zeng%NULL%5,                         Kwok-Yung%Yuen%NULL%8,                         Ru-chong%Chen%NULL%8,                         Chun-li%Tang%NULL%8,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%6,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%8,                         Jin-lin%Wang%NULL%5,                         Zi-jing%Liang%NULL%5,                         Yi-xiang%Peng%NULL%8,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%8,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%8,                         Ji-yang%Liu%NULL%8,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%8,                         Shao-qin%Qiu%NULL%8,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%8,                         Shao-yong%Zhu%NULL%8,                         Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                         Jiong%Wu%NULL%2,                         Faqi%Wu%NULL%2,                         Dajing%Guo%NULL%2,                         Linli%Chen%NULL%2,                         Zheng%Fang%NULL%2,                         Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                         Zhao-Wu%Tao%NULL%1,                         Lei%Wang%NULL%2,                         Ming-Li%Yuan%NULL%3,                         Kui%Liu%NULL%0,                         Ling%Zhou%NULL%0,                         Shuang%Wei%NULL%0,                         Yan%Deng%NULL%2,                         Jing%Liu%NULL%3,                         Hui-Guo%Liu%NULL%0,                         Ming%Yang%NULL%2,                         Yi%Hu%NULL%0,                         Pei-Fang%Wei%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                         Luoqi%Zhou%NULL%1,                         Ziwei%Hu%NULL%1,                         Shuoqi%Zhang%NULL%1,                         Sheng%Yang%NULL%1,                         Yu%Tao%NULL%0,                         Cuihong%Xie%NULL%1,                         Ke%Ma%NULL%0,                         Ke%Shang%NULL%1,                         Wei%Wang%NULL%5,                         Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                         Hui%Li%NULL%0,                         Xiao-Xia%Lu%NULL%1,                         Han%Xiao%NULL%1,                         Jie%Ren%NULL%1,                         Fu-Rong%Zhang%792523496@qq.com%1,                         Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                         Yi%Xiang%NULL%3,                         Wei%Fang%NULL%3,                         Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                         Boqun%Li%279685211@qq.com%6,                         Boqun%Li%279685211@qq.com%0,                         Yanjun%Hu%huyanjun@163.com%3,                         Chunhui%Lang%NULL%4,                         Daoqiu%Huang%NULL%3,                         Qiuyan%Sun%NULL%3,                         Yan%Xiong%NULL%3,                         Xia%Huang%NULL%3,                         Jinglong%Lv%NULL%4,                         Yaling%Luo%NULL%3,                         Li%Shen%NULL%3,                         Haoran%Yang%NULL%3,                         Gu%Huang%NULL%3,                         Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                         Bohan%Yang%NULL%2,                         Qianwen%Li%NULL%2,                         Lu%Wen%NULL%2,                         Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                        Cao%Yi-yuan%coreGivesNoEmail%2,                        Dong%Xiang%coreGivesNoEmail%2,                        Gao%Ya-dong%coreGivesNoEmail%2,                        Yan%You-qin%coreGivesNoEmail%2,                        Yang%Yi-bin%coreGivesNoEmail%2,                        Yuan%Ya-dong%coreGivesNoEmail%2,                        Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                          Dengju%Li%NULL%1,                          Xiong%Wang%NULL%0,                          Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                          Yun%Ling%NULL%5,                          Yi‐hui‐zhi%Zhang%NULL%1,                          Li‐ya%Wei%NULL%1,                          Xiao%Chen%NULL%1,                          Xu‐mian%Li%NULL%1,                          Xuan‐yong%Liu%NULL%1,                          Han‐mian%Liu%NULL%1,                          Zhi%Guo%guozhi77@126.com%1,                          Hua%Ren%renhua2009@hotmail.com%2,                          Hua%Ren%renhua2009@hotmail.com%0,                          Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                          Kun%Yang%NULL%0,                          Kun%Yang%NULL%0,                          Wenxia%Wang%NULL%0,                          Wenxia%Wang%NULL%0,                          Lingyu%Jiang%NULL%0,                          Lingyu%Jiang%NULL%0,                          Jianxin%Song%songsingsjx@sina.com%0,                          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Lili%Ren%NULL%0,                          Jianping%Zhao%NULL%0,                          Yi%Hu%NULL%0,                          Li%Zhang%NULL%0,                          Guohui%Fan%NULL%0,                          Jiuyang%Xu%NULL%0,                          Xiaoying%Gu%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%0,                          Jiaan%Xia%NULL%0,                          Yuan%Wei%NULL%0,                          Wenjuan%Wu%NULL%0,                          Xuelei%Xie%NULL%0,                          Wen%Yin%NULL%0,                          Hui%Li%NULL%0,                          Min%Liu%NULL%0,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Li%Guo%NULL%0,                          Jungang%Xie%NULL%0,                          Guangfa%Wang%NULL%0,                          Rongmeng%Jiang%NULL%0,                          Zhancheng%Gao%NULL%0,                          Qi%Jin%NULL%0,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                          Yang%Yang%NULL%2,                          Cong%Zhang%NULL%2,                          Fengming%Huang%NULL%2,                          Fuxiang%Wang%NULL%2,                          Jing%Yuan%NULL%2,                          Zhaoqin%Wang%NULL%2,                          Jinxiu%Li%NULL%2,                          Jianming%Li%NULL%2,                          Cheng%Feng%NULL%2,                          Zheng%Zhang%NULL%2,                          Lifei%Wang%NULL%2,                          Ling%Peng%NULL%2,                          Li%Chen%NULL%2,                          Yuhao%Qin%NULL%2,                          Dandan%Zhao%NULL%2,                          Shuguang%Tan%NULL%2,                          Lu%Yin%NULL%3,                          Jun%Xu%NULL%2,                          Congzhao%Zhou%NULL%2,                          Chengyu%Jiang%jiang@pumc.edu.cn%2,                          Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                          Tuantuan%Li%NULL%1,                          Mingfeng%Han%NULL%1,                          Xiuyong%Li%NULL%1,                          Dong%Wu%NULL%1,                          Yuanhong%Xu%NULL%3,                          Yulin%Zhu%NULL%1,                          Yan%Liu%NULL%2,                          Xiaowu%Wang%wangxiaowu19880218@126.com%1,                          Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%13,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%6,                          Chun-quan%Ou%NULL%6,                          Jian-xing%He%NULL%8,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%8,                          David S.C.%Hui%NULL%5,                          Bin%Du%NULL%5,                          Lan-juan%Li%NULL%5,                          Guang%Zeng%NULL%5,                          Kwok-Yung%Yuen%NULL%8,                          Ru-chong%Chen%NULL%8,                          Chun-li%Tang%NULL%8,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%6,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%8,                          Jin-lin%Wang%NULL%5,                          Zi-jing%Liang%NULL%5,                          Yi-xiang%Peng%NULL%8,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%8,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%8,                          Ji-yang%Liu%NULL%8,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%8,                          Shao-qin%Qiu%NULL%8,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%8,                          Shao-yong%Zhu%NULL%8,                          Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                          Jiong%Wu%NULL%2,                          Faqi%Wu%NULL%2,                          Dajing%Guo%NULL%2,                          Linli%Chen%NULL%2,                          Zheng%Fang%NULL%2,                          Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                          Zhao-Wu%Tao%NULL%1,                          Lei%Wang%NULL%2,                          Ming-Li%Yuan%NULL%3,                          Kui%Liu%NULL%0,                          Ling%Zhou%NULL%0,                          Shuang%Wei%NULL%0,                          Yan%Deng%NULL%2,                          Jing%Liu%NULL%3,                          Hui-Guo%Liu%NULL%0,                          Ming%Yang%NULL%2,                          Yi%Hu%NULL%0,                          Pei-Fang%Wei%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                          Luoqi%Zhou%NULL%1,                          Ziwei%Hu%NULL%1,                          Shuoqi%Zhang%NULL%1,                          Sheng%Yang%NULL%1,                          Yu%Tao%NULL%0,                          Cuihong%Xie%NULL%1,                          Ke%Ma%NULL%0,                          Ke%Shang%NULL%1,                          Wei%Wang%NULL%5,                          Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                          Hui%Li%NULL%0,                          Xiao-Xia%Lu%NULL%1,                          Han%Xiao%NULL%1,                          Jie%Ren%NULL%1,                          Fu-Rong%Zhang%792523496@qq.com%1,                          Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                          Yi%Xiang%NULL%3,                          Wei%Fang%NULL%3,                          Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                          Boqun%Li%279685211@qq.com%6,                          Boqun%Li%279685211@qq.com%0,                          Yanjun%Hu%huyanjun@163.com%3,                          Chunhui%Lang%NULL%4,                          Daoqiu%Huang%NULL%3,                          Qiuyan%Sun%NULL%3,                          Yan%Xiong%NULL%3,                          Xia%Huang%NULL%3,                          Jinglong%Lv%NULL%4,                          Yaling%Luo%NULL%3,                          Li%Shen%NULL%3,                          Haoran%Yang%NULL%3,                          Gu%Huang%NULL%3,                          Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                          Bohan%Yang%NULL%2,                          Qianwen%Li%NULL%2,                          Lu%Wen%NULL%2,                          Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                         Cao%Yi-yuan%coreGivesNoEmail%2,                         Dong%Xiang%coreGivesNoEmail%2,                         Gao%Ya-dong%coreGivesNoEmail%2,                         Yan%You-qin%coreGivesNoEmail%2,                         Yang%Yi-bin%coreGivesNoEmail%2,                         Yuan%Ya-dong%coreGivesNoEmail%2,                         Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -2065,6 +2332,9 @@
       <c r="I1" t="s">
         <v>97</v>
       </c>
+      <c r="J1" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2080,7 +2350,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2089,10 +2359,13 @@
         <v>189</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>459</v>
       </c>
       <c r="I2" t="s">
-        <v>415</v>
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2109,7 +2382,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2122,6 +2395,9 @@
       </c>
       <c r="I3" t="s">
         <v>417</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2138,7 +2414,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>531</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2151,6 +2427,9 @@
       </c>
       <c r="I4" t="s">
         <v>415</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2167,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>441</v>
+        <v>532</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -2180,6 +2459,9 @@
       </c>
       <c r="I5" t="s">
         <v>417</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2196,7 +2478,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2209,6 +2491,9 @@
       </c>
       <c r="I6" t="s">
         <v>421</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2225,7 +2510,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>443</v>
+        <v>534</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -2238,6 +2523,9 @@
       </c>
       <c r="I7" t="s">
         <v>423</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2254,7 +2542,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>535</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2267,6 +2555,9 @@
       </c>
       <c r="I8" t="s">
         <v>417</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2283,7 +2574,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>536</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2296,6 +2587,9 @@
       </c>
       <c r="I9" t="s">
         <v>423</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2326,6 +2620,9 @@
       <c r="I10" t="s">
         <v>421</v>
       </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -2341,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>446</v>
+        <v>537</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2354,6 +2651,9 @@
       </c>
       <c r="I11" t="s">
         <v>421</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2370,7 +2670,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>538</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2383,6 +2683,9 @@
       </c>
       <c r="I12" t="s">
         <v>421</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2399,7 +2702,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>448</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2408,10 +2711,13 @@
         <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>459</v>
       </c>
       <c r="I13" t="s">
-        <v>415</v>
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,7 +2734,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>449</v>
+        <v>539</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2441,6 +2747,9 @@
       </c>
       <c r="I14" t="s">
         <v>421</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2457,7 +2766,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2470,6 +2779,9 @@
       </c>
       <c r="I15" t="s">
         <v>421</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2486,7 +2798,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>541</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2499,6 +2811,9 @@
       </c>
       <c r="I16" t="s">
         <v>421</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2515,7 +2830,7 @@
         <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2528,6 +2843,9 @@
       </c>
       <c r="I17" t="s">
         <v>423</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2544,7 +2862,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>453</v>
+        <v>543</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2557,6 +2875,9 @@
       </c>
       <c r="I18" t="s">
         <v>421</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2573,7 +2894,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>454</v>
+        <v>544</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2586,6 +2907,9 @@
       </c>
       <c r="I19" t="s">
         <v>421</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2602,7 +2926,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2611,10 +2935,13 @@
         <v>189</v>
       </c>
       <c r="H20" t="s">
-        <v>190</v>
+        <v>459</v>
       </c>
       <c r="I20" t="s">
-        <v>415</v>
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2631,7 +2958,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>456</v>
+        <v>545</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2644,6 +2971,9 @@
       </c>
       <c r="I21" t="s">
         <v>417</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2660,7 +2990,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>457</v>
+        <v>546</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
@@ -2673,6 +3003,9 @@
       </c>
       <c r="I22" t="s">
         <v>415</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/39.xlsx
+++ b/Covid_19_Dataset_and_References/References/39.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="581">
   <si>
     <t>Doi</t>
   </si>
@@ -1972,6 +1972,108 @@
   </si>
   <si>
     <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                         Cao%Yi-yuan%coreGivesNoEmail%2,                         Dong%Xiang%coreGivesNoEmail%2,                         Gao%Ya-dong%coreGivesNoEmail%2,                         Yan%You-qin%coreGivesNoEmail%2,                         Yang%Yi-bin%coreGivesNoEmail%2,                         Yuan%Ya-dong%coreGivesNoEmail%2,                         Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                           Dengju%Li%NULL%1,                           Xiong%Wang%NULL%0,                           Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                           Yun%Ling%NULL%5,                           Yi‐hui‐zhi%Zhang%NULL%1,                           Li‐ya%Wei%NULL%1,                           Xiao%Chen%NULL%1,                           Xu‐mian%Li%NULL%1,                           Xuan‐yong%Liu%NULL%1,                           Han‐mian%Liu%NULL%1,                           Zhi%Guo%guozhi77@126.com%1,                           Hua%Ren%renhua2009@hotmail.com%2,                           Hua%Ren%renhua2009@hotmail.com%0,                           Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                           Kun%Yang%NULL%0,                           Kun%Yang%NULL%0,                           Wenxia%Wang%NULL%0,                           Wenxia%Wang%NULL%0,                           Lingyu%Jiang%NULL%0,                           Lingyu%Jiang%NULL%0,                           Jianxin%Song%songsingsjx@sina.com%0,                           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                           Yang%Yang%NULL%2,                           Cong%Zhang%NULL%2,                           Fengming%Huang%NULL%2,                           Fuxiang%Wang%NULL%2,                           Jing%Yuan%NULL%2,                           Zhaoqin%Wang%NULL%2,                           Jinxiu%Li%NULL%2,                           Jianming%Li%NULL%2,                           Cheng%Feng%NULL%2,                           Zheng%Zhang%NULL%2,                           Lifei%Wang%NULL%2,                           Ling%Peng%NULL%2,                           Li%Chen%NULL%2,                           Yuhao%Qin%NULL%2,                           Dandan%Zhao%NULL%2,                           Shuguang%Tan%NULL%2,                           Lu%Yin%NULL%3,                           Jun%Xu%NULL%2,                           Congzhao%Zhou%NULL%2,                           Chengyu%Jiang%jiang@pumc.edu.cn%2,                           Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                           Tuantuan%Li%NULL%1,                           Mingfeng%Han%NULL%1,                           Xiuyong%Li%NULL%1,                           Dong%Wu%NULL%1,                           Yuanhong%Xu%NULL%3,                           Yulin%Zhu%NULL%1,                           Yan%Liu%NULL%2,                           Xiaowu%Wang%wangxiaowu19880218@126.com%1,                           Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%13,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%6,                           Chun-quan%Ou%NULL%6,                           Jian-xing%He%NULL%8,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%8,                           David S.C.%Hui%NULL%5,                           Bin%Du%NULL%5,                           Lan-juan%Li%NULL%5,                           Guang%Zeng%NULL%5,                           Kwok-Yung%Yuen%NULL%8,                           Ru-chong%Chen%NULL%8,                           Chun-li%Tang%NULL%8,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%6,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%8,                           Jin-lin%Wang%NULL%5,                           Zi-jing%Liang%NULL%5,                           Yi-xiang%Peng%NULL%8,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%8,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%8,                           Ji-yang%Liu%NULL%8,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%8,                           Shao-qin%Qiu%NULL%8,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%8,                           Shao-yong%Zhu%NULL%8,                           Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                           Jiong%Wu%NULL%2,                           Faqi%Wu%NULL%2,                           Dajing%Guo%NULL%2,                           Linli%Chen%NULL%2,                           Zheng%Fang%NULL%2,                           Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                           Zhao-Wu%Tao%NULL%1,                           Lei%Wang%NULL%2,                           Ming-Li%Yuan%NULL%3,                           Kui%Liu%NULL%0,                           Ling%Zhou%NULL%0,                           Shuang%Wei%NULL%0,                           Yan%Deng%NULL%2,                           Jing%Liu%NULL%3,                           Hui-Guo%Liu%NULL%0,                           Ming%Yang%NULL%2,                           Yi%Hu%NULL%0,                           Pei-Fang%Wei%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                           Luoqi%Zhou%NULL%1,                           Ziwei%Hu%NULL%1,                           Shuoqi%Zhang%NULL%1,                           Sheng%Yang%NULL%1,                           Yu%Tao%NULL%0,                           Cuihong%Xie%NULL%1,                           Ke%Ma%NULL%0,                           Ke%Shang%NULL%1,                           Wei%Wang%NULL%5,                           Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                           Hui%Li%NULL%0,                           Xiao-Xia%Lu%NULL%1,                           Han%Xiao%NULL%1,                           Jie%Ren%NULL%1,                           Fu-Rong%Zhang%792523496@qq.com%1,                           Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                           Yi%Xiang%NULL%3,                           Wei%Fang%NULL%3,                           Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                           Boqun%Li%279685211@qq.com%6,                           Boqun%Li%279685211@qq.com%0,                           Yanjun%Hu%huyanjun@163.com%3,                           Chunhui%Lang%NULL%4,                           Daoqiu%Huang%NULL%3,                           Qiuyan%Sun%NULL%3,                           Yan%Xiong%NULL%3,                           Xia%Huang%NULL%3,                           Jinglong%Lv%NULL%4,                           Yaling%Luo%NULL%3,                           Li%Shen%NULL%3,                           Haoran%Yang%NULL%3,                           Gu%Huang%NULL%3,                           Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                           Bohan%Yang%NULL%2,                           Qianwen%Li%NULL%2,                           Lu%Wen%NULL%2,                           Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                          Cao%Yi-yuan%coreGivesNoEmail%2,                          Dong%Xiang%coreGivesNoEmail%2,                          Gao%Ya-dong%coreGivesNoEmail%2,                          Yan%You-qin%coreGivesNoEmail%2,                          Yang%Yi-bin%coreGivesNoEmail%2,                          Yuan%Ya-dong%coreGivesNoEmail%2,                          Zhang%Jin-jin%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                            Dengju%Li%NULL%1,                            Xiong%Wang%NULL%0,                            Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong%Qu%NULL%1,                            Yun%Ling%NULL%5,                            Yi‐hui‐zhi%Zhang%NULL%1,                            Li‐ya%Wei%NULL%1,                            Xiao%Chen%NULL%1,                            Xu‐mian%Li%NULL%1,                            Xuan‐yong%Liu%NULL%1,                            Han‐mian%Liu%NULL%1,                            Zhi%Guo%guozhi77@126.com%1,                            Hua%Ren%renhua2009@hotmail.com%2,                            Hua%Ren%renhua2009@hotmail.com%0,                            Qiang%Wang%wangqiang@wust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                            Kun%Yang%NULL%0,                            Kun%Yang%NULL%0,                            Wenxia%Wang%NULL%0,                            Wenxia%Wang%NULL%0,                            Lingyu%Jiang%NULL%0,                            Lingyu%Jiang%NULL%0,                            Jianxin%Song%songsingsjx@sina.com%0,                            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                            Yang%Yang%NULL%2,                            Cong%Zhang%NULL%2,                            Fengming%Huang%NULL%2,                            Fuxiang%Wang%NULL%2,                            Jing%Yuan%NULL%2,                            Zhaoqin%Wang%NULL%2,                            Jinxiu%Li%NULL%2,                            Jianming%Li%NULL%2,                            Cheng%Feng%NULL%2,                            Zheng%Zhang%NULL%2,                            Lifei%Wang%NULL%2,                            Ling%Peng%NULL%2,                            Li%Chen%NULL%2,                            Yuhao%Qin%NULL%2,                            Dandan%Zhao%NULL%2,                            Shuguang%Tan%NULL%2,                            Lu%Yin%NULL%3,                            Jun%Xu%NULL%2,                            Congzhao%Zhou%NULL%2,                            Chengyu%Jiang%jiang@pumc.edu.cn%2,                            Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                            Tuantuan%Li%NULL%1,                            Mingfeng%Han%NULL%1,                            Xiuyong%Li%NULL%1,                            Dong%Wu%NULL%1,                            Yuanhong%Xu%NULL%3,                            Yulin%Zhu%NULL%1,                            Yan%Liu%NULL%2,                            Xiaowu%Wang%wangxiaowu19880218@126.com%1,                            Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%13,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%6,                            Chun-quan%Ou%NULL%6,                            Jian-xing%He%NULL%8,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%8,                            David S.C.%Hui%NULL%5,                            Bin%Du%NULL%5,                            Lan-juan%Li%NULL%5,                            Guang%Zeng%NULL%5,                            Kwok-Yung%Yuen%NULL%8,                            Ru-chong%Chen%NULL%8,                            Chun-li%Tang%NULL%8,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%6,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%8,                            Jin-lin%Wang%NULL%5,                            Zi-jing%Liang%NULL%5,                            Yi-xiang%Peng%NULL%8,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%8,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%8,                            Ji-yang%Liu%NULL%8,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%8,                            Shao-qin%Qiu%NULL%8,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%8,                            Shao-yong%Zhu%NULL%8,                            Nan-shan%Zhong%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                            Jiong%Wu%NULL%2,                            Faqi%Wu%NULL%2,                            Dajing%Guo%NULL%2,                            Linli%Chen%NULL%2,                            Zheng%Fang%NULL%2,                            Chuanming%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,                            Zhao-Wu%Tao%NULL%1,                            Lei%Wang%NULL%2,                            Ming-Li%Yuan%NULL%3,                            Kui%Liu%NULL%0,                            Ling%Zhou%NULL%0,                            Shuang%Wei%NULL%0,                            Yan%Deng%NULL%2,                            Jing%Liu%NULL%3,                            Hui-Guo%Liu%NULL%0,                            Ming%Yang%NULL%2,                            Yi%Hu%NULL%0,                            Pei-Fang%Wei%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                            Luoqi%Zhou%NULL%1,                            Ziwei%Hu%NULL%1,                            Shuoqi%Zhang%NULL%1,                            Sheng%Yang%NULL%1,                            Yu%Tao%NULL%0,                            Cuihong%Xie%NULL%1,                            Ke%Ma%NULL%0,                            Ke%Shang%NULL%1,                            Wei%Wang%NULL%5,                            Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Dan%Sun%NULL%0,                            Hui%Li%NULL%0,                            Xiao-Xia%Lu%NULL%1,                            Han%Xiao%NULL%1,                            Jie%Ren%NULL%1,                            Fu-Rong%Zhang%792523496@qq.com%1,                            Zhi-Sheng%Liu%liuzsc@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,                            Yi%Xiang%NULL%3,                            Wei%Fang%NULL%3,                            Yu%Zheng%yuzheng1@cdutcm.edu.cn%3,                            Boqun%Li%279685211@qq.com%6,                            Boqun%Li%279685211@qq.com%0,                            Yanjun%Hu%huyanjun@163.com%3,                            Chunhui%Lang%NULL%4,                            Daoqiu%Huang%NULL%3,                            Qiuyan%Sun%NULL%3,                            Yan%Xiong%NULL%3,                            Xia%Huang%NULL%3,                            Jinglong%Lv%NULL%4,                            Yaling%Luo%NULL%3,                            Li%Shen%NULL%3,                            Haoran%Yang%NULL%3,                            Gu%Huang%NULL%3,                            Ruishan%Yang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                            Bohan%Yang%NULL%2,                            Qianwen%Li%NULL%2,                            Lu%Wen%NULL%2,                            Ruiguang%Zhang%zrg27@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                           Cao%Yi-yuan%coreGivesNoEmail%2,                           Dong%Xiang%coreGivesNoEmail%2,                           Gao%Ya-dong%coreGivesNoEmail%2,                           Yan%You-qin%coreGivesNoEmail%2,                           Yang%Yi-bin%coreGivesNoEmail%2,                           Yuan%Ya-dong%coreGivesNoEmail%2,                           Zhang%Jin-jin%coreGivesNoEmail%2]</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2452,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2382,7 +2484,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2414,7 +2516,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -2446,7 +2548,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -2478,7 +2580,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2510,7 +2612,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -2542,7 +2644,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2574,7 +2676,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -2638,7 +2740,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2670,7 +2772,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -2702,7 +2804,7 @@
         <v>201</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -2734,7 +2836,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -2766,7 +2868,7 @@
         <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2798,7 +2900,7 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -2830,7 +2932,7 @@
         <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="F17" t="s">
         <v>81</v>
@@ -2862,7 +2964,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="F18" t="s">
         <v>85</v>
@@ -2894,7 +2996,7 @@
         <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -2926,7 +3028,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
@@ -2958,7 +3060,7 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
@@ -2990,7 +3092,7 @@
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="F22" t="s">
         <v>23</v>
